--- a/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>IMAB</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="E8" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F8" s="3">
-        <v>7700</v>
+        <v>2100</v>
       </c>
       <c r="G8" s="3">
-        <v>3200</v>
+        <v>7500</v>
       </c>
       <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>3000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -740,8 +743,11 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,28 +823,29 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>45000</v>
+        <v>117600</v>
       </c>
       <c r="E12" s="3">
-        <v>38000</v>
+        <v>43800</v>
       </c>
       <c r="F12" s="3">
-        <v>61100</v>
+        <v>37100</v>
       </c>
       <c r="G12" s="3">
-        <v>16100</v>
+        <v>59600</v>
       </c>
       <c r="H12" s="3">
-        <v>29100</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>15700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>28400</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -840,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,37 +885,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>3200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,28 +962,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>46100</v>
+        <v>212500</v>
       </c>
       <c r="E17" s="3">
-        <v>120500</v>
+        <v>45000</v>
       </c>
       <c r="F17" s="3">
-        <v>70700</v>
+        <v>117500</v>
       </c>
       <c r="G17" s="3">
-        <v>19200</v>
+        <v>68900</v>
       </c>
       <c r="H17" s="3">
-        <v>31800</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>18800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>31000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -966,28 +992,31 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-44000</v>
+        <v>-208300</v>
       </c>
       <c r="E18" s="3">
-        <v>-118300</v>
+        <v>-42900</v>
       </c>
       <c r="F18" s="3">
-        <v>-62900</v>
+        <v>-115400</v>
       </c>
       <c r="G18" s="3">
-        <v>-16100</v>
+        <v>-61400</v>
       </c>
       <c r="H18" s="3">
-        <v>-28700</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-15700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-28000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -995,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,28 +1040,29 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8700</v>
+        <v>5500</v>
       </c>
       <c r="E20" s="3">
-        <v>-4400</v>
+        <v>8500</v>
       </c>
       <c r="F20" s="3">
-        <v>7100</v>
+        <v>-4300</v>
       </c>
       <c r="G20" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>5900</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1037,28 +1070,31 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-34900</v>
+        <v>-201400</v>
       </c>
       <c r="E21" s="3">
-        <v>-122100</v>
+        <v>-34000</v>
       </c>
       <c r="F21" s="3">
-        <v>-54900</v>
+        <v>-119100</v>
       </c>
       <c r="G21" s="3">
-        <v>-15600</v>
+        <v>-53600</v>
       </c>
       <c r="H21" s="3">
-        <v>-22400</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-15200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-21900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1066,57 +1102,63 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
-        <v>1700</v>
-      </c>
       <c r="G22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-35300</v>
+        <v>-203200</v>
       </c>
       <c r="E23" s="3">
-        <v>-123000</v>
+        <v>-34400</v>
       </c>
       <c r="F23" s="3">
-        <v>-57600</v>
+        <v>-120000</v>
       </c>
       <c r="G23" s="3">
-        <v>-15900</v>
+        <v>-56100</v>
       </c>
       <c r="H23" s="3">
-        <v>-23900</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-15500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-23300</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1124,8 +1166,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1136,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1153,8 +1198,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,28 +1230,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-35300</v>
+        <v>-203200</v>
       </c>
       <c r="E26" s="3">
-        <v>-123000</v>
+        <v>-34400</v>
       </c>
       <c r="F26" s="3">
-        <v>-57800</v>
+        <v>-120000</v>
       </c>
       <c r="G26" s="3">
-        <v>-16200</v>
+        <v>-56400</v>
       </c>
       <c r="H26" s="3">
-        <v>-23900</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-15800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-23300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1211,28 +1262,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-35300</v>
+        <v>-207800</v>
       </c>
       <c r="E27" s="3">
-        <v>-123000</v>
+        <v>-34400</v>
       </c>
       <c r="F27" s="3">
-        <v>-57800</v>
+        <v>-120000</v>
       </c>
       <c r="G27" s="3">
-        <v>-16200</v>
+        <v>-56400</v>
       </c>
       <c r="H27" s="3">
-        <v>-23900</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-15800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-23300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1240,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,28 +1422,31 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8700</v>
+        <v>-5500</v>
       </c>
       <c r="E32" s="3">
-        <v>4400</v>
+        <v>-8500</v>
       </c>
       <c r="F32" s="3">
-        <v>-7100</v>
+        <v>4300</v>
       </c>
       <c r="G32" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>-5900</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1385,28 +1454,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-35300</v>
+        <v>-207800</v>
       </c>
       <c r="E33" s="3">
-        <v>-123000</v>
+        <v>-34400</v>
       </c>
       <c r="F33" s="3">
-        <v>-57800</v>
+        <v>-120000</v>
       </c>
       <c r="G33" s="3">
-        <v>-16200</v>
+        <v>-56400</v>
       </c>
       <c r="H33" s="3">
-        <v>-23900</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-15800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-23300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1414,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,28 +1518,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-35300</v>
+        <v>-207800</v>
       </c>
       <c r="E35" s="3">
-        <v>-123000</v>
+        <v>-34400</v>
       </c>
       <c r="F35" s="3">
-        <v>-57800</v>
+        <v>-120000</v>
       </c>
       <c r="G35" s="3">
-        <v>-16200</v>
+        <v>-56400</v>
       </c>
       <c r="H35" s="3">
-        <v>-23900</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-15800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-23300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1472,42 +1550,48 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,19 +1617,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>175700</v>
+        <v>159200</v>
       </c>
       <c r="E41" s="3">
-        <v>182100</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>171400</v>
+      </c>
+      <c r="F41" s="3">
+        <v>177600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1561,19 +1647,22 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7600</v>
+        <v>4500</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>7400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1590,19 +1679,22 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12000</v>
+        <v>4100</v>
       </c>
       <c r="E43" s="3">
-        <v>16800</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>11700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>16400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1619,8 +1711,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,19 +1743,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17500</v>
+        <v>22700</v>
       </c>
       <c r="E45" s="3">
-        <v>31400</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>17100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>30600</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1677,19 +1775,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>212800</v>
+        <v>190500</v>
       </c>
       <c r="E46" s="3">
-        <v>230200</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>207600</v>
+      </c>
+      <c r="F46" s="3">
+        <v>224600</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1706,8 +1807,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,19 +1839,22 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5600</v>
+        <v>6500</v>
       </c>
       <c r="E48" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>5400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5500</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1764,19 +1871,22 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>44700</v>
+        <v>43600</v>
       </c>
       <c r="E49" s="3">
-        <v>44700</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>43600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>43600</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1793,8 +1903,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,17 +1967,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,19 +2031,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>264000</v>
+        <v>243200</v>
       </c>
       <c r="E54" s="3">
-        <v>280600</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>257500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>273700</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1938,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,8 +2093,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1993,19 +2123,22 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="E58" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>7000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>7000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2022,19 +2155,22 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>60300</v>
+        <v>75400</v>
       </c>
       <c r="E59" s="3">
-        <v>52100</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>58800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>50900</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2051,19 +2187,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>67500</v>
+        <v>82400</v>
       </c>
       <c r="E60" s="3">
-        <v>59300</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>65800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>57900</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2080,19 +2219,22 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10100</v>
+        <v>9500</v>
       </c>
       <c r="E61" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2109,20 +2251,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,19 +2379,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>78900</v>
+        <v>93500</v>
       </c>
       <c r="E66" s="3">
-        <v>70500</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>76900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>68700</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2254,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,19 +2489,22 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>418300</v>
+        <v>434500</v>
       </c>
       <c r="E70" s="3">
-        <v>418300</v>
+        <v>408000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>408000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2354,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,19 +2553,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-303900</v>
+        <v>-349100</v>
       </c>
       <c r="E72" s="3">
-        <v>-268600</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-296400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-262000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,19 +2681,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-233200</v>
+        <v>-284800</v>
       </c>
       <c r="E76" s="3">
-        <v>-208200</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>-227500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-203100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,62 +2745,68 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-35300</v>
+        <v>-207800</v>
       </c>
       <c r="E81" s="3">
-        <v>-123000</v>
+        <v>-34400</v>
       </c>
       <c r="F81" s="3">
-        <v>-57800</v>
+        <v>-120000</v>
       </c>
       <c r="G81" s="3">
-        <v>-16200</v>
+        <v>-56400</v>
       </c>
       <c r="H81" s="3">
-        <v>-23900</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-15800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-23300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2620,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +2830,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
-        <v>1000</v>
-      </c>
       <c r="G83" s="3">
+        <v>900</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,28 +3020,31 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-37700</v>
+        <v>-121500</v>
       </c>
       <c r="E89" s="3">
-        <v>-55800</v>
+        <v>-36800</v>
       </c>
       <c r="F89" s="3">
-        <v>-40300</v>
+        <v>-54400</v>
       </c>
       <c r="G89" s="3">
-        <v>-13000</v>
+        <v>-39300</v>
       </c>
       <c r="H89" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-12700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-8900</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2836,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3068,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>-2100</v>
-      </c>
       <c r="G91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,28 +3162,31 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3300</v>
+        <v>29700</v>
       </c>
       <c r="E94" s="3">
-        <v>22700</v>
+        <v>-3200</v>
       </c>
       <c r="F94" s="3">
-        <v>1400</v>
+        <v>22100</v>
       </c>
       <c r="G94" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>2000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -2965,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,28 +3336,31 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10000</v>
+        <v>21400</v>
       </c>
       <c r="E100" s="3">
-        <v>-4300</v>
+        <v>9700</v>
       </c>
       <c r="F100" s="3">
-        <v>212300</v>
+        <v>-4200</v>
       </c>
       <c r="G100" s="3">
-        <v>190800</v>
+        <v>207100</v>
       </c>
       <c r="H100" s="3">
-        <v>21500</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>186100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>21000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3123,28 +3368,31 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11600</v>
+        <v>2100</v>
       </c>
       <c r="E101" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
-        <v>8600</v>
-      </c>
       <c r="G101" s="3">
-        <v>12600</v>
+        <v>8400</v>
       </c>
       <c r="H101" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+        <v>12200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-1200</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3152,33 +3400,39 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19500</v>
+        <v>-68300</v>
       </c>
       <c r="E102" s="3">
-        <v>-37900</v>
+        <v>-19000</v>
       </c>
       <c r="F102" s="3">
-        <v>182000</v>
+        <v>-37000</v>
       </c>
       <c r="G102" s="3">
-        <v>190500</v>
+        <v>177500</v>
       </c>
       <c r="H102" s="3">
-        <v>13200</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>185800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>12900</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
@@ -720,22 +720,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="E8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G8" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="H8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I8" s="3">
         <v>3100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -830,22 +830,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>117600</v>
+        <v>122100</v>
       </c>
       <c r="E12" s="3">
-        <v>43800</v>
+        <v>45500</v>
       </c>
       <c r="F12" s="3">
-        <v>37100</v>
+        <v>38500</v>
       </c>
       <c r="G12" s="3">
-        <v>59600</v>
+        <v>61900</v>
       </c>
       <c r="H12" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="I12" s="3">
-        <v>28400</v>
+        <v>29400</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -894,7 +894,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -969,22 +969,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>212500</v>
+        <v>220500</v>
       </c>
       <c r="E17" s="3">
-        <v>45000</v>
+        <v>46700</v>
       </c>
       <c r="F17" s="3">
-        <v>117500</v>
+        <v>121900</v>
       </c>
       <c r="G17" s="3">
-        <v>68900</v>
+        <v>71500</v>
       </c>
       <c r="H17" s="3">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="I17" s="3">
-        <v>31000</v>
+        <v>32200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-208300</v>
+        <v>-216100</v>
       </c>
       <c r="E18" s="3">
-        <v>-42900</v>
+        <v>-44500</v>
       </c>
       <c r="F18" s="3">
-        <v>-115400</v>
+        <v>-119800</v>
       </c>
       <c r="G18" s="3">
-        <v>-61400</v>
+        <v>-63700</v>
       </c>
       <c r="H18" s="3">
-        <v>-15700</v>
+        <v>-16300</v>
       </c>
       <c r="I18" s="3">
-        <v>-28000</v>
+        <v>-29000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1047,22 +1047,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="E20" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="F20" s="3">
-        <v>-4300</v>
+        <v>-4500</v>
       </c>
       <c r="G20" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
       </c>
       <c r="I20" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1079,22 +1079,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-201400</v>
+        <v>-209000</v>
       </c>
       <c r="E21" s="3">
-        <v>-34000</v>
+        <v>-35300</v>
       </c>
       <c r="F21" s="3">
-        <v>-119100</v>
+        <v>-123600</v>
       </c>
       <c r="G21" s="3">
-        <v>-53600</v>
+        <v>-55600</v>
       </c>
       <c r="H21" s="3">
-        <v>-15200</v>
+        <v>-15800</v>
       </c>
       <c r="I21" s="3">
-        <v>-21900</v>
+        <v>-22700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1120,7 +1120,7 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1143,22 +1143,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-203200</v>
+        <v>-210900</v>
       </c>
       <c r="E23" s="3">
-        <v>-34400</v>
+        <v>-35700</v>
       </c>
       <c r="F23" s="3">
-        <v>-120000</v>
+        <v>-124500</v>
       </c>
       <c r="G23" s="3">
-        <v>-56100</v>
+        <v>-58300</v>
       </c>
       <c r="H23" s="3">
-        <v>-15500</v>
+        <v>-16100</v>
       </c>
       <c r="I23" s="3">
-        <v>-23300</v>
+        <v>-24200</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
@@ -1239,22 +1239,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-203200</v>
+        <v>-210900</v>
       </c>
       <c r="E26" s="3">
-        <v>-34400</v>
+        <v>-35700</v>
       </c>
       <c r="F26" s="3">
-        <v>-120000</v>
+        <v>-124500</v>
       </c>
       <c r="G26" s="3">
-        <v>-56400</v>
+        <v>-58500</v>
       </c>
       <c r="H26" s="3">
-        <v>-15800</v>
+        <v>-16400</v>
       </c>
       <c r="I26" s="3">
-        <v>-23300</v>
+        <v>-24200</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1271,22 +1271,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-207800</v>
+        <v>-215700</v>
       </c>
       <c r="E27" s="3">
-        <v>-34400</v>
+        <v>-35700</v>
       </c>
       <c r="F27" s="3">
-        <v>-120000</v>
+        <v>-124500</v>
       </c>
       <c r="G27" s="3">
-        <v>-56400</v>
+        <v>-58500</v>
       </c>
       <c r="H27" s="3">
-        <v>-15800</v>
+        <v>-16400</v>
       </c>
       <c r="I27" s="3">
-        <v>-23300</v>
+        <v>-24200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1431,22 +1431,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="E32" s="3">
-        <v>-8500</v>
+        <v>-8800</v>
       </c>
       <c r="F32" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="G32" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
       </c>
       <c r="I32" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1463,22 +1463,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-207800</v>
+        <v>-215700</v>
       </c>
       <c r="E33" s="3">
-        <v>-34400</v>
+        <v>-35700</v>
       </c>
       <c r="F33" s="3">
-        <v>-120000</v>
+        <v>-124500</v>
       </c>
       <c r="G33" s="3">
-        <v>-56400</v>
+        <v>-58500</v>
       </c>
       <c r="H33" s="3">
-        <v>-15800</v>
+        <v>-16400</v>
       </c>
       <c r="I33" s="3">
-        <v>-23300</v>
+        <v>-24200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1527,22 +1527,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-207800</v>
+        <v>-215700</v>
       </c>
       <c r="E35" s="3">
-        <v>-34400</v>
+        <v>-35700</v>
       </c>
       <c r="F35" s="3">
-        <v>-120000</v>
+        <v>-124500</v>
       </c>
       <c r="G35" s="3">
-        <v>-56400</v>
+        <v>-58500</v>
       </c>
       <c r="H35" s="3">
-        <v>-15800</v>
+        <v>-16400</v>
       </c>
       <c r="I35" s="3">
-        <v>-23300</v>
+        <v>-24200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1624,13 +1624,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>159200</v>
+        <v>165200</v>
       </c>
       <c r="E41" s="3">
-        <v>171400</v>
+        <v>177800</v>
       </c>
       <c r="F41" s="3">
-        <v>177600</v>
+        <v>184300</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1656,10 +1656,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="E42" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="E43" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="F43" s="3">
-        <v>16400</v>
+        <v>17000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1752,13 +1752,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22700</v>
+        <v>23600</v>
       </c>
       <c r="E45" s="3">
-        <v>17100</v>
+        <v>17700</v>
       </c>
       <c r="F45" s="3">
-        <v>30600</v>
+        <v>31700</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1784,13 +1784,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>190500</v>
+        <v>197700</v>
       </c>
       <c r="E46" s="3">
-        <v>207600</v>
+        <v>215400</v>
       </c>
       <c r="F46" s="3">
-        <v>224600</v>
+        <v>233000</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1848,13 +1848,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="E48" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="F48" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1880,13 +1880,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>43600</v>
+        <v>45200</v>
       </c>
       <c r="E49" s="3">
-        <v>43600</v>
+        <v>45200</v>
       </c>
       <c r="F49" s="3">
-        <v>43600</v>
+        <v>45200</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1976,7 +1976,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E52" s="3">
         <v>900</v>
@@ -2040,13 +2040,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>243200</v>
+        <v>252300</v>
       </c>
       <c r="E54" s="3">
-        <v>257500</v>
+        <v>267200</v>
       </c>
       <c r="F54" s="3">
-        <v>273700</v>
+        <v>284000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2132,13 +2132,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="E58" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="F58" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2164,13 +2164,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>75400</v>
+        <v>78200</v>
       </c>
       <c r="E59" s="3">
-        <v>58800</v>
+        <v>61000</v>
       </c>
       <c r="F59" s="3">
-        <v>50900</v>
+        <v>52800</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2196,13 +2196,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>82400</v>
+        <v>85500</v>
       </c>
       <c r="E60" s="3">
-        <v>65800</v>
+        <v>68300</v>
       </c>
       <c r="F60" s="3">
-        <v>57900</v>
+        <v>60000</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2228,13 +2228,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="E61" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F61" s="3">
         <v>9800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>9400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E62" s="3">
         <v>1300</v>
@@ -2388,13 +2388,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>93500</v>
+        <v>97000</v>
       </c>
       <c r="E66" s="3">
-        <v>76900</v>
+        <v>79800</v>
       </c>
       <c r="F66" s="3">
-        <v>68700</v>
+        <v>71300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2498,13 +2498,13 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>434500</v>
+        <v>450800</v>
       </c>
       <c r="E70" s="3">
-        <v>408000</v>
+        <v>423400</v>
       </c>
       <c r="F70" s="3">
-        <v>408000</v>
+        <v>423400</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2562,13 +2562,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-349100</v>
+        <v>-362200</v>
       </c>
       <c r="E72" s="3">
-        <v>-296400</v>
+        <v>-307600</v>
       </c>
       <c r="F72" s="3">
-        <v>-262000</v>
+        <v>-271800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2690,13 +2690,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-284800</v>
+        <v>-295500</v>
       </c>
       <c r="E76" s="3">
-        <v>-227500</v>
+        <v>-236000</v>
       </c>
       <c r="F76" s="3">
-        <v>-203100</v>
+        <v>-210700</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2791,22 +2791,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-207800</v>
+        <v>-215700</v>
       </c>
       <c r="E81" s="3">
-        <v>-34400</v>
+        <v>-35700</v>
       </c>
       <c r="F81" s="3">
-        <v>-120000</v>
+        <v>-124500</v>
       </c>
       <c r="G81" s="3">
-        <v>-56400</v>
+        <v>-58500</v>
       </c>
       <c r="H81" s="3">
-        <v>-15800</v>
+        <v>-16400</v>
       </c>
       <c r="I81" s="3">
-        <v>-23300</v>
+        <v>-24200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2846,10 +2846,10 @@
         <v>600</v>
       </c>
       <c r="G83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -3029,22 +3029,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-121500</v>
+        <v>-126100</v>
       </c>
       <c r="E89" s="3">
-        <v>-36800</v>
+        <v>-38200</v>
       </c>
       <c r="F89" s="3">
-        <v>-54400</v>
+        <v>-56500</v>
       </c>
       <c r="G89" s="3">
-        <v>-39300</v>
+        <v>-40800</v>
       </c>
       <c r="H89" s="3">
-        <v>-12700</v>
+        <v>-13200</v>
       </c>
       <c r="I89" s="3">
-        <v>-8900</v>
+        <v>-9200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3075,7 +3075,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
@@ -3084,7 +3084,7 @@
         <v>-300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H91" s="3">
         <v>-500</v>
@@ -3171,22 +3171,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>29700</v>
+        <v>30900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="F94" s="3">
-        <v>22100</v>
+        <v>23000</v>
       </c>
       <c r="G94" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H94" s="3">
         <v>200</v>
       </c>
       <c r="I94" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3345,22 +3345,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>21400</v>
+        <v>22200</v>
       </c>
       <c r="E100" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="F100" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="G100" s="3">
-        <v>207100</v>
+        <v>214900</v>
       </c>
       <c r="H100" s="3">
-        <v>186100</v>
+        <v>193100</v>
       </c>
       <c r="I100" s="3">
-        <v>21000</v>
+        <v>21800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3377,22 +3377,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E101" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="F101" s="3">
         <v>-400</v>
       </c>
       <c r="G101" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="H101" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="I101" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3409,22 +3409,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-68300</v>
+        <v>-70800</v>
       </c>
       <c r="E102" s="3">
-        <v>-19000</v>
+        <v>-19700</v>
       </c>
       <c r="F102" s="3">
-        <v>-37000</v>
+        <v>-38400</v>
       </c>
       <c r="G102" s="3">
-        <v>177500</v>
+        <v>184200</v>
       </c>
       <c r="H102" s="3">
-        <v>185800</v>
+        <v>192800</v>
       </c>
       <c r="I102" s="3">
-        <v>12900</v>
+        <v>13400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>IMAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,84 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>4400</v>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>2200</v>
+        <v>4600</v>
       </c>
       <c r="F8" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G8" s="3">
-        <v>7800</v>
+        <v>2300</v>
       </c>
       <c r="H8" s="3">
-        <v>3200</v>
+        <v>8200</v>
       </c>
       <c r="I8" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>3300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3300</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -746,8 +750,11 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,8 +785,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,31 +837,32 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>122100</v>
+        <v>67300</v>
       </c>
       <c r="E12" s="3">
-        <v>45500</v>
+        <v>127800</v>
       </c>
       <c r="F12" s="3">
-        <v>38500</v>
+        <v>47700</v>
       </c>
       <c r="G12" s="3">
-        <v>61900</v>
+        <v>40300</v>
       </c>
       <c r="H12" s="3">
-        <v>16200</v>
+        <v>64800</v>
       </c>
       <c r="I12" s="3">
-        <v>29400</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>17000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>30800</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -856,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,16 +905,19 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>3300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -914,14 +934,17 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,31 +989,32 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>220500</v>
+        <v>93400</v>
       </c>
       <c r="E17" s="3">
-        <v>46700</v>
+        <v>230900</v>
       </c>
       <c r="F17" s="3">
-        <v>121900</v>
+        <v>48900</v>
       </c>
       <c r="G17" s="3">
-        <v>71500</v>
+        <v>127700</v>
       </c>
       <c r="H17" s="3">
-        <v>19500</v>
+        <v>74900</v>
       </c>
       <c r="I17" s="3">
-        <v>32200</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>20400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>33700</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -995,31 +1022,34 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-216100</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-44500</v>
+        <v>-226400</v>
       </c>
       <c r="F18" s="3">
-        <v>-119800</v>
+        <v>-46600</v>
       </c>
       <c r="G18" s="3">
-        <v>-63700</v>
+        <v>-125400</v>
       </c>
       <c r="H18" s="3">
-        <v>-16300</v>
+        <v>-66700</v>
       </c>
       <c r="I18" s="3">
-        <v>-29000</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-17100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-30400</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1027,8 +1057,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,31 +1074,32 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>5700</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>8800</v>
+        <v>5900</v>
       </c>
       <c r="F20" s="3">
-        <v>-4500</v>
+        <v>9300</v>
       </c>
       <c r="G20" s="3">
-        <v>7100</v>
+        <v>-4700</v>
       </c>
       <c r="H20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>6200</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>6400</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1073,31 +1107,34 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-209000</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-35300</v>
+        <v>-218900</v>
       </c>
       <c r="F21" s="3">
-        <v>-123600</v>
+        <v>-37000</v>
       </c>
       <c r="G21" s="3">
-        <v>-55600</v>
+        <v>-129400</v>
       </c>
       <c r="H21" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-22700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-58200</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-23800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1105,31 +1142,34 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
-        <v>1700</v>
-      </c>
       <c r="H22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>1400</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1137,31 +1177,34 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-210900</v>
+        <v>-88700</v>
       </c>
       <c r="E23" s="3">
-        <v>-35700</v>
+        <v>-220900</v>
       </c>
       <c r="F23" s="3">
-        <v>-124500</v>
+        <v>-37400</v>
       </c>
       <c r="G23" s="3">
-        <v>-58300</v>
+        <v>-130400</v>
       </c>
       <c r="H23" s="3">
-        <v>-16100</v>
+        <v>-61000</v>
       </c>
       <c r="I23" s="3">
-        <v>-24200</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-16900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-25400</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1169,8 +1212,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1184,16 +1230,16 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1201,8 +1247,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,31 +1282,34 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-210900</v>
+        <v>-88700</v>
       </c>
       <c r="E26" s="3">
-        <v>-35700</v>
+        <v>-220900</v>
       </c>
       <c r="F26" s="3">
-        <v>-124500</v>
+        <v>-37400</v>
       </c>
       <c r="G26" s="3">
-        <v>-58500</v>
+        <v>-130400</v>
       </c>
       <c r="H26" s="3">
-        <v>-16400</v>
+        <v>-61300</v>
       </c>
       <c r="I26" s="3">
-        <v>-24200</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-17100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-25400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1265,31 +1317,34 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-215700</v>
+        <v>-88700</v>
       </c>
       <c r="E27" s="3">
-        <v>-35700</v>
+        <v>-225900</v>
       </c>
       <c r="F27" s="3">
-        <v>-124500</v>
+        <v>-37400</v>
       </c>
       <c r="G27" s="3">
-        <v>-58500</v>
+        <v>-130400</v>
       </c>
       <c r="H27" s="3">
-        <v>-16400</v>
+        <v>-61300</v>
       </c>
       <c r="I27" s="3">
-        <v>-24200</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-17100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-25400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1297,8 +1352,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,31 +1492,34 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-5700</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-8800</v>
+        <v>-5900</v>
       </c>
       <c r="F32" s="3">
-        <v>4500</v>
+        <v>-9300</v>
       </c>
       <c r="G32" s="3">
-        <v>-7100</v>
+        <v>4700</v>
       </c>
       <c r="H32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>-6400</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1457,31 +1527,34 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-215700</v>
+        <v>-88700</v>
       </c>
       <c r="E33" s="3">
-        <v>-35700</v>
+        <v>-225900</v>
       </c>
       <c r="F33" s="3">
-        <v>-124500</v>
+        <v>-37400</v>
       </c>
       <c r="G33" s="3">
-        <v>-58500</v>
+        <v>-130400</v>
       </c>
       <c r="H33" s="3">
-        <v>-16400</v>
+        <v>-61300</v>
       </c>
       <c r="I33" s="3">
-        <v>-24200</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-17100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-25400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1489,8 +1562,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,31 +1597,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-215700</v>
+        <v>-88700</v>
       </c>
       <c r="E35" s="3">
-        <v>-35700</v>
+        <v>-225900</v>
       </c>
       <c r="F35" s="3">
-        <v>-124500</v>
+        <v>-37400</v>
       </c>
       <c r="G35" s="3">
-        <v>-58500</v>
+        <v>-130400</v>
       </c>
       <c r="H35" s="3">
-        <v>-16400</v>
+        <v>-61300</v>
       </c>
       <c r="I35" s="3">
-        <v>-24200</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-17100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-25400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1553,45 +1632,51 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,22 +1704,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>165200</v>
+        <v>237300</v>
       </c>
       <c r="E41" s="3">
-        <v>177800</v>
+        <v>173000</v>
       </c>
       <c r="F41" s="3">
-        <v>184300</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>186300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>193000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1650,22 +1737,25 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4600</v>
+        <v>300</v>
       </c>
       <c r="E42" s="3">
-        <v>7700</v>
+        <v>4900</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>8100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1682,22 +1772,25 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>4300</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>12200</v>
+        <v>4500</v>
       </c>
       <c r="F43" s="3">
-        <v>17000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>12800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>17800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1714,8 +1807,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,22 +1842,25 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23600</v>
+        <v>19900</v>
       </c>
       <c r="E45" s="3">
-        <v>17700</v>
+        <v>24700</v>
       </c>
       <c r="F45" s="3">
-        <v>31700</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>18600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>33200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1778,22 +1877,25 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>197700</v>
+        <v>257600</v>
       </c>
       <c r="E46" s="3">
-        <v>215400</v>
+        <v>207100</v>
       </c>
       <c r="F46" s="3">
-        <v>233000</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>225600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>244100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1810,8 +1912,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1842,22 +1947,25 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="E48" s="3">
-        <v>5600</v>
+        <v>7100</v>
       </c>
       <c r="F48" s="3">
-        <v>5700</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>5900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6000</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1874,22 +1982,25 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>45200</v>
+        <v>47400</v>
       </c>
       <c r="E49" s="3">
-        <v>45200</v>
+        <v>47400</v>
       </c>
       <c r="F49" s="3">
-        <v>45200</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>47400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>47400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1906,8 +2017,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,20 +2087,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2122,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,22 +2157,25 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>252300</v>
+        <v>311700</v>
       </c>
       <c r="E54" s="3">
-        <v>267200</v>
+        <v>264300</v>
       </c>
       <c r="F54" s="3">
-        <v>284000</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>279800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>297400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2066,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,31 +2224,32 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>37000</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2126,22 +2257,25 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="F58" s="3">
-        <v>7300</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>7600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>7600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2158,22 +2292,25 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78200</v>
+        <v>1200</v>
       </c>
       <c r="E59" s="3">
-        <v>61000</v>
+        <v>81900</v>
       </c>
       <c r="F59" s="3">
-        <v>52800</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>63900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>55300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2190,22 +2327,25 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>85500</v>
+        <v>38200</v>
       </c>
       <c r="E60" s="3">
-        <v>68300</v>
+        <v>89500</v>
       </c>
       <c r="F60" s="3">
-        <v>60000</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>71500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>62900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2222,23 +2362,26 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9900</v>
+        <v>10500</v>
       </c>
       <c r="E61" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F61" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G61" s="3">
         <v>10200</v>
       </c>
-      <c r="F61" s="3">
-        <v>9800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2254,22 +2397,25 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
-        <v>1300</v>
-      </c>
       <c r="F62" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>1400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2286,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,22 +2537,25 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>97000</v>
+        <v>52500</v>
       </c>
       <c r="E66" s="3">
-        <v>79800</v>
+        <v>101600</v>
       </c>
       <c r="F66" s="3">
-        <v>71300</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>83600</v>
+      </c>
+      <c r="G66" s="3">
+        <v>74700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2414,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,22 +2657,25 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>450800</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>423400</v>
+        <v>472200</v>
       </c>
       <c r="F70" s="3">
-        <v>423400</v>
+        <v>443500</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>443500</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2524,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,22 +2727,25 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-362200</v>
+        <v>-468100</v>
       </c>
       <c r="E72" s="3">
-        <v>-307600</v>
+        <v>-379400</v>
       </c>
       <c r="F72" s="3">
-        <v>-271800</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-322200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-284700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,22 +2867,25 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-295500</v>
+        <v>259200</v>
       </c>
       <c r="E76" s="3">
-        <v>-236000</v>
+        <v>-309500</v>
       </c>
       <c r="F76" s="3">
-        <v>-210700</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-247200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-220700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2716,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,68 +2937,74 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-215700</v>
+        <v>-88700</v>
       </c>
       <c r="E81" s="3">
-        <v>-35700</v>
+        <v>-225900</v>
       </c>
       <c r="F81" s="3">
-        <v>-124500</v>
+        <v>-37400</v>
       </c>
       <c r="G81" s="3">
-        <v>-58500</v>
+        <v>-130400</v>
       </c>
       <c r="H81" s="3">
-        <v>-16400</v>
+        <v>-61300</v>
       </c>
       <c r="I81" s="3">
-        <v>-24200</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-17100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-25400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2817,8 +3012,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,28 +3029,29 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1400</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F83" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
+        <v>700</v>
+      </c>
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
-        <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2863,8 +3062,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,28 +3237,31 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-126100</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-38200</v>
+        <v>-132000</v>
       </c>
       <c r="F89" s="3">
-        <v>-56500</v>
+        <v>-40000</v>
       </c>
       <c r="G89" s="3">
-        <v>-40800</v>
+        <v>-59200</v>
       </c>
       <c r="H89" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-9200</v>
+        <v>-42700</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3055,8 +3272,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,28 +3289,29 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1800</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>-2100</v>
-      </c>
       <c r="H91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-600</v>
+        <v>-2200</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3101,8 +3322,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,28 +3392,31 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>30900</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-3300</v>
+        <v>32300</v>
       </c>
       <c r="F94" s="3">
-        <v>23000</v>
+        <v>-3500</v>
       </c>
       <c r="G94" s="3">
+        <v>24000</v>
+      </c>
+      <c r="H94" s="3">
         <v>1400</v>
       </c>
-      <c r="H94" s="3">
-        <v>200</v>
-      </c>
-      <c r="I94" s="3">
-        <v>2100</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3197,8 +3427,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,28 +3582,31 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>22200</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>10100</v>
+        <v>23200</v>
       </c>
       <c r="F100" s="3">
-        <v>-4400</v>
+        <v>10600</v>
       </c>
       <c r="G100" s="3">
-        <v>214900</v>
+        <v>-4600</v>
       </c>
       <c r="H100" s="3">
-        <v>193100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>21800</v>
+        <v>225100</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3371,28 +3617,31 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>2200</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>11700</v>
+        <v>2300</v>
       </c>
       <c r="F101" s="3">
-        <v>-400</v>
+        <v>12300</v>
       </c>
       <c r="G101" s="3">
-        <v>8700</v>
+        <v>-500</v>
       </c>
       <c r="H101" s="3">
-        <v>12700</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1300</v>
+        <v>9100</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3403,28 +3652,31 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-70800</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-19700</v>
+        <v>-74200</v>
       </c>
       <c r="F102" s="3">
-        <v>-38400</v>
+        <v>-20700</v>
       </c>
       <c r="G102" s="3">
-        <v>184200</v>
+        <v>-40200</v>
       </c>
       <c r="H102" s="3">
-        <v>192800</v>
-      </c>
-      <c r="I102" s="3">
-        <v>13400</v>
+        <v>192900</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3433,6 +3685,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
@@ -739,7 +739,7 @@
         <v>8200</v>
       </c>
       <c r="I8" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J8" s="3">
         <v>3300</v>
@@ -844,25 +844,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>67300</v>
+        <v>67600</v>
       </c>
       <c r="E12" s="3">
-        <v>127800</v>
+        <v>128400</v>
       </c>
       <c r="F12" s="3">
-        <v>47700</v>
+        <v>47900</v>
       </c>
       <c r="G12" s="3">
-        <v>40300</v>
+        <v>40500</v>
       </c>
       <c r="H12" s="3">
-        <v>64800</v>
+        <v>65100</v>
       </c>
       <c r="I12" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="J12" s="3">
-        <v>30800</v>
+        <v>31000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -996,25 +996,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>93400</v>
+        <v>93800</v>
       </c>
       <c r="E17" s="3">
-        <v>230900</v>
+        <v>231900</v>
       </c>
       <c r="F17" s="3">
-        <v>48900</v>
+        <v>49100</v>
       </c>
       <c r="G17" s="3">
-        <v>127700</v>
+        <v>128300</v>
       </c>
       <c r="H17" s="3">
-        <v>74900</v>
+        <v>75200</v>
       </c>
       <c r="I17" s="3">
-        <v>20400</v>
+        <v>20500</v>
       </c>
       <c r="J17" s="3">
-        <v>33700</v>
+        <v>33800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1034,22 +1034,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-226400</v>
+        <v>-227300</v>
       </c>
       <c r="F18" s="3">
-        <v>-46600</v>
+        <v>-46800</v>
       </c>
       <c r="G18" s="3">
-        <v>-125400</v>
+        <v>-126000</v>
       </c>
       <c r="H18" s="3">
-        <v>-66700</v>
+        <v>-67000</v>
       </c>
       <c r="I18" s="3">
         <v>-17100</v>
       </c>
       <c r="J18" s="3">
-        <v>-30400</v>
+        <v>-30600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1084,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F20" s="3">
         <v>9300</v>
@@ -1099,7 +1099,7 @@
         <v>400</v>
       </c>
       <c r="J20" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-218900</v>
+        <v>-219900</v>
       </c>
       <c r="F21" s="3">
-        <v>-37000</v>
+        <v>-37100</v>
       </c>
       <c r="G21" s="3">
-        <v>-129400</v>
+        <v>-130000</v>
       </c>
       <c r="H21" s="3">
-        <v>-58200</v>
+        <v>-58500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>-23800</v>
+        <v>-23900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1186,25 +1186,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-88700</v>
+        <v>-89000</v>
       </c>
       <c r="E23" s="3">
-        <v>-220900</v>
+        <v>-221800</v>
       </c>
       <c r="F23" s="3">
-        <v>-37400</v>
+        <v>-37600</v>
       </c>
       <c r="G23" s="3">
-        <v>-130400</v>
+        <v>-131000</v>
       </c>
       <c r="H23" s="3">
-        <v>-61000</v>
+        <v>-61300</v>
       </c>
       <c r="I23" s="3">
-        <v>-16900</v>
+        <v>-17000</v>
       </c>
       <c r="J23" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1291,25 +1291,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-88700</v>
+        <v>-89000</v>
       </c>
       <c r="E26" s="3">
-        <v>-220900</v>
+        <v>-221800</v>
       </c>
       <c r="F26" s="3">
-        <v>-37400</v>
+        <v>-37600</v>
       </c>
       <c r="G26" s="3">
-        <v>-130400</v>
+        <v>-131000</v>
       </c>
       <c r="H26" s="3">
-        <v>-61300</v>
+        <v>-61500</v>
       </c>
       <c r="I26" s="3">
-        <v>-17100</v>
+        <v>-17200</v>
       </c>
       <c r="J26" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1326,25 +1326,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-88700</v>
+        <v>-89000</v>
       </c>
       <c r="E27" s="3">
-        <v>-225900</v>
+        <v>-226900</v>
       </c>
       <c r="F27" s="3">
-        <v>-37400</v>
+        <v>-37600</v>
       </c>
       <c r="G27" s="3">
-        <v>-130400</v>
+        <v>-131000</v>
       </c>
       <c r="H27" s="3">
-        <v>-61300</v>
+        <v>-61500</v>
       </c>
       <c r="I27" s="3">
-        <v>-17100</v>
+        <v>-17200</v>
       </c>
       <c r="J27" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1504,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="F32" s="3">
         <v>-9300</v>
@@ -1519,7 +1519,7 @@
         <v>-400</v>
       </c>
       <c r="J32" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1536,25 +1536,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-88700</v>
+        <v>-89000</v>
       </c>
       <c r="E33" s="3">
-        <v>-225900</v>
+        <v>-226900</v>
       </c>
       <c r="F33" s="3">
-        <v>-37400</v>
+        <v>-37600</v>
       </c>
       <c r="G33" s="3">
-        <v>-130400</v>
+        <v>-131000</v>
       </c>
       <c r="H33" s="3">
-        <v>-61300</v>
+        <v>-61500</v>
       </c>
       <c r="I33" s="3">
-        <v>-17100</v>
+        <v>-17200</v>
       </c>
       <c r="J33" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1606,25 +1606,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-88700</v>
+        <v>-89000</v>
       </c>
       <c r="E35" s="3">
-        <v>-225900</v>
+        <v>-226900</v>
       </c>
       <c r="F35" s="3">
-        <v>-37400</v>
+        <v>-37600</v>
       </c>
       <c r="G35" s="3">
-        <v>-130400</v>
+        <v>-131000</v>
       </c>
       <c r="H35" s="3">
-        <v>-61300</v>
+        <v>-61500</v>
       </c>
       <c r="I35" s="3">
-        <v>-17100</v>
+        <v>-17200</v>
       </c>
       <c r="J35" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1711,16 +1711,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>237300</v>
+        <v>238300</v>
       </c>
       <c r="E41" s="3">
-        <v>173000</v>
+        <v>173800</v>
       </c>
       <c r="F41" s="3">
-        <v>186300</v>
+        <v>187100</v>
       </c>
       <c r="G41" s="3">
-        <v>193000</v>
+        <v>193900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="E45" s="3">
-        <v>24700</v>
+        <v>24800</v>
       </c>
       <c r="F45" s="3">
         <v>18600</v>
       </c>
       <c r="G45" s="3">
-        <v>33200</v>
+        <v>33400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1886,16 +1886,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>257600</v>
+        <v>258700</v>
       </c>
       <c r="E46" s="3">
-        <v>207100</v>
+        <v>208000</v>
       </c>
       <c r="F46" s="3">
-        <v>225600</v>
+        <v>226600</v>
       </c>
       <c r="G46" s="3">
-        <v>244100</v>
+        <v>245100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1956,7 +1956,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="E48" s="3">
         <v>7100</v>
@@ -1991,16 +1991,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>47400</v>
+        <v>47600</v>
       </c>
       <c r="E49" s="3">
-        <v>47400</v>
+        <v>47600</v>
       </c>
       <c r="F49" s="3">
-        <v>47400</v>
+        <v>47600</v>
       </c>
       <c r="G49" s="3">
-        <v>47400</v>
+        <v>47600</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2166,16 +2166,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>311700</v>
+        <v>313000</v>
       </c>
       <c r="E54" s="3">
-        <v>264300</v>
+        <v>265500</v>
       </c>
       <c r="F54" s="3">
-        <v>279800</v>
+        <v>281100</v>
       </c>
       <c r="G54" s="3">
-        <v>297400</v>
+        <v>298700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2231,7 +2231,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37000</v>
+        <v>37100</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -2301,16 +2301,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="3">
-        <v>81900</v>
+        <v>82300</v>
       </c>
       <c r="F59" s="3">
-        <v>63900</v>
+        <v>64200</v>
       </c>
       <c r="G59" s="3">
-        <v>55300</v>
+        <v>55500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2336,16 +2336,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38200</v>
+        <v>38400</v>
       </c>
       <c r="E60" s="3">
-        <v>89500</v>
+        <v>89900</v>
       </c>
       <c r="F60" s="3">
-        <v>71500</v>
+        <v>71900</v>
       </c>
       <c r="G60" s="3">
-        <v>62900</v>
+        <v>63200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2371,7 +2371,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="E61" s="3">
         <v>10400</v>
@@ -2380,7 +2380,7 @@
         <v>10700</v>
       </c>
       <c r="G61" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2546,16 +2546,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52500</v>
+        <v>52700</v>
       </c>
       <c r="E66" s="3">
-        <v>101600</v>
+        <v>102100</v>
       </c>
       <c r="F66" s="3">
-        <v>83600</v>
+        <v>84000</v>
       </c>
       <c r="G66" s="3">
-        <v>74700</v>
+        <v>75000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2669,13 +2669,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>472200</v>
+        <v>474300</v>
       </c>
       <c r="F70" s="3">
-        <v>443500</v>
+        <v>445400</v>
       </c>
       <c r="G70" s="3">
-        <v>443500</v>
+        <v>445400</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2736,16 +2736,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-468100</v>
+        <v>-470100</v>
       </c>
       <c r="E72" s="3">
-        <v>-379400</v>
+        <v>-381100</v>
       </c>
       <c r="F72" s="3">
-        <v>-322200</v>
+        <v>-323600</v>
       </c>
       <c r="G72" s="3">
-        <v>-284700</v>
+        <v>-286000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2876,16 +2876,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>259200</v>
+        <v>260300</v>
       </c>
       <c r="E76" s="3">
-        <v>-309500</v>
+        <v>-310900</v>
       </c>
       <c r="F76" s="3">
-        <v>-247200</v>
+        <v>-248300</v>
       </c>
       <c r="G76" s="3">
-        <v>-220700</v>
+        <v>-221700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2986,25 +2986,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-88700</v>
+        <v>-89000</v>
       </c>
       <c r="E81" s="3">
-        <v>-225900</v>
+        <v>-226900</v>
       </c>
       <c r="F81" s="3">
-        <v>-37400</v>
+        <v>-37600</v>
       </c>
       <c r="G81" s="3">
-        <v>-130400</v>
+        <v>-131000</v>
       </c>
       <c r="H81" s="3">
-        <v>-61300</v>
+        <v>-61500</v>
       </c>
       <c r="I81" s="3">
-        <v>-17100</v>
+        <v>-17200</v>
       </c>
       <c r="J81" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3249,16 +3249,16 @@
         <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-132000</v>
+        <v>-132600</v>
       </c>
       <c r="F89" s="3">
-        <v>-40000</v>
+        <v>-40200</v>
       </c>
       <c r="G89" s="3">
-        <v>-59200</v>
+        <v>-59400</v>
       </c>
       <c r="H89" s="3">
-        <v>-42700</v>
+        <v>-42900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3404,16 +3404,16 @@
         <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>32300</v>
+        <v>32500</v>
       </c>
       <c r="F94" s="3">
         <v>-3500</v>
       </c>
       <c r="G94" s="3">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="H94" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3594,7 +3594,7 @@
         <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="F100" s="3">
         <v>10600</v>
@@ -3603,7 +3603,7 @@
         <v>-4600</v>
       </c>
       <c r="H100" s="3">
-        <v>225100</v>
+        <v>226100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3664,16 +3664,16 @@
         <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-74200</v>
+        <v>-74500</v>
       </c>
       <c r="F102" s="3">
         <v>-20700</v>
       </c>
       <c r="G102" s="3">
-        <v>-40200</v>
+        <v>-40300</v>
       </c>
       <c r="H102" s="3">
-        <v>192900</v>
+        <v>193800</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>IMAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,109 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>240700</v>
       </c>
       <c r="E8" s="3">
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H8" s="3">
         <v>2300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2300</v>
       </c>
-      <c r="H8" s="3">
-        <v>8200</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +801,14 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +842,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,43 +863,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>67600</v>
+        <v>84600</v>
       </c>
       <c r="E12" s="3">
-        <v>128400</v>
+        <v>40000</v>
       </c>
       <c r="F12" s="3">
-        <v>47900</v>
+        <v>69000</v>
       </c>
       <c r="G12" s="3">
-        <v>40500</v>
+        <v>131100</v>
       </c>
       <c r="H12" s="3">
-        <v>65100</v>
+        <v>48900</v>
       </c>
       <c r="I12" s="3">
+        <v>41400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K12" s="3">
         <v>17100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>31000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,22 +941,28 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>3500</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>3600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -937,14 +976,20 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1023,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,78 +1041,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>93800</v>
+        <v>120700</v>
       </c>
       <c r="E17" s="3">
-        <v>231900</v>
+        <v>61700</v>
       </c>
       <c r="F17" s="3">
-        <v>49100</v>
+        <v>95700</v>
       </c>
       <c r="G17" s="3">
-        <v>128300</v>
+        <v>236800</v>
       </c>
       <c r="H17" s="3">
-        <v>75200</v>
+        <v>50100</v>
       </c>
       <c r="I17" s="3">
+        <v>131000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K17" s="3">
         <v>20500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>33800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>120000</v>
       </c>
       <c r="E18" s="3">
-        <v>-227300</v>
+        <v>-61700</v>
       </c>
       <c r="F18" s="3">
-        <v>-46800</v>
+        <v>-95700</v>
       </c>
       <c r="G18" s="3">
-        <v>-126000</v>
+        <v>-232100</v>
       </c>
       <c r="H18" s="3">
-        <v>-67000</v>
+        <v>-47800</v>
       </c>
       <c r="I18" s="3">
+        <v>-128700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-17100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-30600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,153 +1140,179 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>46300</v>
       </c>
       <c r="E20" s="3">
-        <v>6000</v>
+        <v>63600</v>
       </c>
       <c r="F20" s="3">
-        <v>9300</v>
+        <v>5000</v>
       </c>
       <c r="G20" s="3">
-        <v>-4700</v>
+        <v>6100</v>
       </c>
       <c r="H20" s="3">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="I20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>6500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
-        <v>-219900</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-37100</v>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-130000</v>
+        <v>-224500</v>
       </c>
       <c r="H21" s="3">
-        <v>-58500</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-37900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-132800</v>
       </c>
       <c r="J21" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-23900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-89000</v>
+        <v>166300</v>
       </c>
       <c r="E23" s="3">
-        <v>-221800</v>
+        <v>1900</v>
       </c>
       <c r="F23" s="3">
-        <v>-37600</v>
+        <v>-90900</v>
       </c>
       <c r="G23" s="3">
-        <v>-131000</v>
+        <v>-226500</v>
       </c>
       <c r="H23" s="3">
-        <v>-61300</v>
+        <v>-38400</v>
       </c>
       <c r="I23" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-17000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-25500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1233,25 +1324,31 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1382,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-89000</v>
+        <v>164400</v>
       </c>
       <c r="E26" s="3">
-        <v>-221800</v>
+        <v>1900</v>
       </c>
       <c r="F26" s="3">
-        <v>-37600</v>
+        <v>-90900</v>
       </c>
       <c r="G26" s="3">
-        <v>-131000</v>
+        <v>-226500</v>
       </c>
       <c r="H26" s="3">
-        <v>-61500</v>
+        <v>-38400</v>
       </c>
       <c r="I26" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-17200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-25500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-89000</v>
+        <v>164400</v>
       </c>
       <c r="E27" s="3">
-        <v>-226900</v>
+        <v>1900</v>
       </c>
       <c r="F27" s="3">
-        <v>-37600</v>
+        <v>-90900</v>
       </c>
       <c r="G27" s="3">
-        <v>-131000</v>
+        <v>-231700</v>
       </c>
       <c r="H27" s="3">
-        <v>-61500</v>
+        <v>-38400</v>
       </c>
       <c r="I27" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-17200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-25500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1505,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1546,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1587,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,78 +1628,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-46300</v>
       </c>
       <c r="E32" s="3">
-        <v>-6000</v>
+        <v>-63600</v>
       </c>
       <c r="F32" s="3">
-        <v>-9300</v>
+        <v>-5000</v>
       </c>
       <c r="G32" s="3">
-        <v>4700</v>
+        <v>-6100</v>
       </c>
       <c r="H32" s="3">
-        <v>-7500</v>
+        <v>-9500</v>
       </c>
       <c r="I32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-6500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-89000</v>
+        <v>164400</v>
       </c>
       <c r="E33" s="3">
-        <v>-226900</v>
+        <v>1900</v>
       </c>
       <c r="F33" s="3">
-        <v>-37600</v>
+        <v>-90900</v>
       </c>
       <c r="G33" s="3">
-        <v>-131000</v>
+        <v>-231700</v>
       </c>
       <c r="H33" s="3">
-        <v>-61500</v>
+        <v>-38400</v>
       </c>
       <c r="I33" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-17200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-25500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1751,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-89000</v>
+        <v>164400</v>
       </c>
       <c r="E35" s="3">
-        <v>-226900</v>
+        <v>1900</v>
       </c>
       <c r="F35" s="3">
-        <v>-37600</v>
+        <v>-90900</v>
       </c>
       <c r="G35" s="3">
-        <v>-131000</v>
+        <v>-231700</v>
       </c>
       <c r="H35" s="3">
-        <v>-61500</v>
+        <v>-38400</v>
       </c>
       <c r="I35" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-17200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-25500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1859,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,28 +1876,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>238300</v>
+        <v>742400</v>
       </c>
       <c r="E41" s="3">
-        <v>173800</v>
+        <v>461800</v>
       </c>
       <c r="F41" s="3">
-        <v>187100</v>
+        <v>243400</v>
       </c>
       <c r="G41" s="3">
-        <v>193900</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>177500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>191000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>198000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1740,28 +1913,34 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F42" s="3">
         <v>300</v>
       </c>
-      <c r="E42" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>8100</v>
-      </c>
       <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>5000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1775,28 +1954,34 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>55800</v>
       </c>
       <c r="E43" s="3">
-        <v>4500</v>
-      </c>
-      <c r="F43" s="3">
-        <v>12800</v>
+        <v>12100</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
-        <v>17800</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>18200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1810,8 +1995,14 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,28 +2036,34 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20000</v>
+        <v>30500</v>
       </c>
       <c r="E45" s="3">
-        <v>24800</v>
+        <v>22200</v>
       </c>
       <c r="F45" s="3">
-        <v>18600</v>
+        <v>20500</v>
       </c>
       <c r="G45" s="3">
-        <v>33400</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>25300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>34100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1880,28 +2077,34 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>258700</v>
+        <v>833700</v>
       </c>
       <c r="E46" s="3">
-        <v>208000</v>
+        <v>500500</v>
       </c>
       <c r="F46" s="3">
-        <v>226600</v>
+        <v>264100</v>
       </c>
       <c r="G46" s="3">
-        <v>245100</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>212400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>231400</v>
+      </c>
+      <c r="I46" s="3">
+        <v>250300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1915,31 +2118,37 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>103700</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>119000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1950,28 +2159,34 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="E48" s="3">
-        <v>7100</v>
+        <v>6600</v>
       </c>
       <c r="F48" s="3">
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="G48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H48" s="3">
         <v>6000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>6200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1985,28 +2200,34 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>47600</v>
+        <v>44200</v>
       </c>
       <c r="E49" s="3">
-        <v>47600</v>
+        <v>44400</v>
       </c>
       <c r="F49" s="3">
-        <v>47600</v>
+        <v>48600</v>
       </c>
       <c r="G49" s="3">
-        <v>47600</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>48600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>48600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>48600</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2020,8 +2241,14 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2282,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,25 +2323,31 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>900</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2125,8 +2364,14 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,28 +2405,34 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>313000</v>
+        <v>988100</v>
       </c>
       <c r="E54" s="3">
-        <v>265500</v>
+        <v>670500</v>
       </c>
       <c r="F54" s="3">
-        <v>281100</v>
+        <v>319600</v>
       </c>
       <c r="G54" s="3">
-        <v>298700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>271100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>287000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>305100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2195,8 +2446,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2467,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,19 +2484,21 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37100</v>
+        <v>87500</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>37900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2251,17 +2512,23 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2269,19 +2536,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>7600</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>7800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>7800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2295,28 +2562,34 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>54500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
-        <v>82300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>64200</v>
-      </c>
       <c r="G59" s="3">
-        <v>55500</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>84000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>65600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>56700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2330,28 +2603,34 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38400</v>
+        <v>89900</v>
       </c>
       <c r="E60" s="3">
-        <v>89900</v>
+        <v>54500</v>
       </c>
       <c r="F60" s="3">
-        <v>71900</v>
+        <v>39200</v>
       </c>
       <c r="G60" s="3">
-        <v>63200</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>91800</v>
+      </c>
+      <c r="H60" s="3">
+        <v>73400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>64500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2365,28 +2644,34 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F61" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G61" s="3">
         <v>10600</v>
       </c>
-      <c r="E61" s="3">
-        <v>10400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>10700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>10300</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2400,29 +2685,35 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3700</v>
+        <v>20400</v>
       </c>
       <c r="E62" s="3">
-        <v>1700</v>
+        <v>22200</v>
       </c>
       <c r="F62" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2726,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2767,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2808,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,28 +2849,34 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52700</v>
+        <v>110200</v>
       </c>
       <c r="E66" s="3">
-        <v>102100</v>
+        <v>86800</v>
       </c>
       <c r="F66" s="3">
-        <v>84000</v>
+        <v>53800</v>
       </c>
       <c r="G66" s="3">
-        <v>75000</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>104200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>85700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>76600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2575,8 +2890,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2911,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2948,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2989,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2669,19 +3004,19 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>474300</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>445400</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>445400</v>
+        <v>484300</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>454800</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>454800</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2695,8 +3030,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,28 +3071,34 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-470100</v>
+        <v>-315700</v>
       </c>
       <c r="E72" s="3">
-        <v>-381100</v>
+        <v>-478100</v>
       </c>
       <c r="F72" s="3">
-        <v>-323600</v>
+        <v>-480100</v>
       </c>
       <c r="G72" s="3">
-        <v>-286000</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-389100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-330400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-292000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2765,8 +3112,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +3153,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3194,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,28 +3235,34 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>260300</v>
+        <v>877900</v>
       </c>
       <c r="E76" s="3">
-        <v>-310900</v>
+        <v>583700</v>
       </c>
       <c r="F76" s="3">
-        <v>-248300</v>
+        <v>265800</v>
       </c>
       <c r="G76" s="3">
-        <v>-221700</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-317400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-253600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-226400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2905,8 +3276,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3317,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-89000</v>
+        <v>164400</v>
       </c>
       <c r="E81" s="3">
-        <v>-226900</v>
+        <v>1900</v>
       </c>
       <c r="F81" s="3">
-        <v>-37600</v>
+        <v>-90900</v>
       </c>
       <c r="G81" s="3">
-        <v>-131000</v>
+        <v>-231700</v>
       </c>
       <c r="H81" s="3">
-        <v>-61500</v>
+        <v>-38400</v>
       </c>
       <c r="I81" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-17200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-25500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,31 +3425,33 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="H83" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>1100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3065,8 +3462,14 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3503,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3544,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3585,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3626,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,31 +3667,37 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3">
-        <v>-132600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-40200</v>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>-59400</v>
+        <v>-135400</v>
       </c>
       <c r="H89" s="3">
-        <v>-42900</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-41000</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-43800</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3275,8 +3708,14 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,32 +3729,34 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3325,8 +3766,14 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3807,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,32 +3848,38 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
-        <v>32500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-3500</v>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>24100</v>
+        <v>33100</v>
       </c>
       <c r="H94" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I94" s="3">
+        <v>24700</v>
+      </c>
+      <c r="J94" s="3">
         <v>1500</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3430,8 +3889,14 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3910,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3947,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3988,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +4029,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,31 +4070,37 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>23300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>10600</v>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>-4600</v>
+        <v>23800</v>
       </c>
       <c r="H100" s="3">
-        <v>226100</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>10800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>230800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3620,31 +4111,37 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>12300</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H101" s="3">
+        <v>12600</v>
+      </c>
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
-        <v>9100</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>9300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3655,31 +4152,37 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>-74500</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-20700</v>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>-40300</v>
+        <v>-76100</v>
       </c>
       <c r="H102" s="3">
-        <v>193800</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>-21200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>197900</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3688,6 +4191,12 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
@@ -731,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>240700</v>
+        <v>237500</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="H8" s="3">
         <v>2300</v>
@@ -749,7 +749,7 @@
         <v>2300</v>
       </c>
       <c r="J8" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="K8" s="3">
         <v>3400</v>
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>84600</v>
+        <v>83500</v>
       </c>
       <c r="E12" s="3">
-        <v>40000</v>
+        <v>39400</v>
       </c>
       <c r="F12" s="3">
-        <v>69000</v>
+        <v>68100</v>
       </c>
       <c r="G12" s="3">
-        <v>131100</v>
+        <v>129400</v>
       </c>
       <c r="H12" s="3">
-        <v>48900</v>
+        <v>48200</v>
       </c>
       <c r="I12" s="3">
-        <v>41400</v>
+        <v>40800</v>
       </c>
       <c r="J12" s="3">
-        <v>66500</v>
+        <v>65600</v>
       </c>
       <c r="K12" s="3">
         <v>17100</v>
@@ -962,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -1049,25 +1049,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>120700</v>
+        <v>119100</v>
       </c>
       <c r="E17" s="3">
-        <v>61700</v>
+        <v>60900</v>
       </c>
       <c r="F17" s="3">
-        <v>95700</v>
+        <v>94500</v>
       </c>
       <c r="G17" s="3">
-        <v>236800</v>
+        <v>233700</v>
       </c>
       <c r="H17" s="3">
-        <v>50100</v>
+        <v>49500</v>
       </c>
       <c r="I17" s="3">
-        <v>131000</v>
+        <v>129300</v>
       </c>
       <c r="J17" s="3">
-        <v>76800</v>
+        <v>75800</v>
       </c>
       <c r="K17" s="3">
         <v>20500</v>
@@ -1090,25 +1090,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>120000</v>
+        <v>118500</v>
       </c>
       <c r="E18" s="3">
-        <v>-61700</v>
+        <v>-60900</v>
       </c>
       <c r="F18" s="3">
-        <v>-95700</v>
+        <v>-94500</v>
       </c>
       <c r="G18" s="3">
-        <v>-232100</v>
+        <v>-229100</v>
       </c>
       <c r="H18" s="3">
-        <v>-47800</v>
+        <v>-47200</v>
       </c>
       <c r="I18" s="3">
-        <v>-128700</v>
+        <v>-127000</v>
       </c>
       <c r="J18" s="3">
-        <v>-68400</v>
+        <v>-67500</v>
       </c>
       <c r="K18" s="3">
         <v>-17100</v>
@@ -1148,25 +1148,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>46300</v>
+        <v>45700</v>
       </c>
       <c r="E20" s="3">
-        <v>63600</v>
+        <v>62800</v>
       </c>
       <c r="F20" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G20" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="H20" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="I20" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="J20" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="K20" s="3">
         <v>400</v>
@@ -1198,16 +1198,16 @@
         <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-224500</v>
+        <v>-221600</v>
       </c>
       <c r="H21" s="3">
-        <v>-37900</v>
+        <v>-37400</v>
       </c>
       <c r="I21" s="3">
-        <v>-132800</v>
+        <v>-131000</v>
       </c>
       <c r="J21" s="3">
-        <v>-59700</v>
+        <v>-58900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1271,25 +1271,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>166300</v>
+        <v>164100</v>
       </c>
       <c r="E23" s="3">
         <v>1900</v>
       </c>
       <c r="F23" s="3">
-        <v>-90900</v>
+        <v>-89700</v>
       </c>
       <c r="G23" s="3">
-        <v>-226500</v>
+        <v>-223600</v>
       </c>
       <c r="H23" s="3">
-        <v>-38400</v>
+        <v>-37900</v>
       </c>
       <c r="I23" s="3">
-        <v>-133800</v>
+        <v>-132000</v>
       </c>
       <c r="J23" s="3">
-        <v>-62600</v>
+        <v>-61800</v>
       </c>
       <c r="K23" s="3">
         <v>-17000</v>
@@ -1394,25 +1394,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>164400</v>
+        <v>162300</v>
       </c>
       <c r="E26" s="3">
         <v>1900</v>
       </c>
       <c r="F26" s="3">
-        <v>-90900</v>
+        <v>-89700</v>
       </c>
       <c r="G26" s="3">
-        <v>-226500</v>
+        <v>-223600</v>
       </c>
       <c r="H26" s="3">
-        <v>-38400</v>
+        <v>-37900</v>
       </c>
       <c r="I26" s="3">
-        <v>-133800</v>
+        <v>-132000</v>
       </c>
       <c r="J26" s="3">
-        <v>-62800</v>
+        <v>-62000</v>
       </c>
       <c r="K26" s="3">
         <v>-17200</v>
@@ -1435,25 +1435,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>164400</v>
+        <v>162300</v>
       </c>
       <c r="E27" s="3">
         <v>1900</v>
       </c>
       <c r="F27" s="3">
-        <v>-90900</v>
+        <v>-89700</v>
       </c>
       <c r="G27" s="3">
-        <v>-231700</v>
+        <v>-228700</v>
       </c>
       <c r="H27" s="3">
-        <v>-38400</v>
+        <v>-37900</v>
       </c>
       <c r="I27" s="3">
-        <v>-133800</v>
+        <v>-132000</v>
       </c>
       <c r="J27" s="3">
-        <v>-62800</v>
+        <v>-62000</v>
       </c>
       <c r="K27" s="3">
         <v>-17200</v>
@@ -1640,25 +1640,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-46300</v>
+        <v>-45700</v>
       </c>
       <c r="E32" s="3">
-        <v>-63600</v>
+        <v>-62800</v>
       </c>
       <c r="F32" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="G32" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="H32" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="I32" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J32" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="K32" s="3">
         <v>-400</v>
@@ -1681,25 +1681,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>164400</v>
+        <v>162300</v>
       </c>
       <c r="E33" s="3">
         <v>1900</v>
       </c>
       <c r="F33" s="3">
-        <v>-90900</v>
+        <v>-89700</v>
       </c>
       <c r="G33" s="3">
-        <v>-231700</v>
+        <v>-228700</v>
       </c>
       <c r="H33" s="3">
-        <v>-38400</v>
+        <v>-37900</v>
       </c>
       <c r="I33" s="3">
-        <v>-133800</v>
+        <v>-132000</v>
       </c>
       <c r="J33" s="3">
-        <v>-62800</v>
+        <v>-62000</v>
       </c>
       <c r="K33" s="3">
         <v>-17200</v>
@@ -1763,25 +1763,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>164400</v>
+        <v>162300</v>
       </c>
       <c r="E35" s="3">
         <v>1900</v>
       </c>
       <c r="F35" s="3">
-        <v>-90900</v>
+        <v>-89700</v>
       </c>
       <c r="G35" s="3">
-        <v>-231700</v>
+        <v>-228700</v>
       </c>
       <c r="H35" s="3">
-        <v>-38400</v>
+        <v>-37900</v>
       </c>
       <c r="I35" s="3">
-        <v>-133800</v>
+        <v>-132000</v>
       </c>
       <c r="J35" s="3">
-        <v>-62800</v>
+        <v>-62000</v>
       </c>
       <c r="K35" s="3">
         <v>-17200</v>
@@ -1884,22 +1884,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>742400</v>
+        <v>732800</v>
       </c>
       <c r="E41" s="3">
-        <v>461800</v>
+        <v>455800</v>
       </c>
       <c r="F41" s="3">
-        <v>243400</v>
+        <v>240200</v>
       </c>
       <c r="G41" s="3">
-        <v>177500</v>
+        <v>175100</v>
       </c>
       <c r="H41" s="3">
-        <v>191000</v>
+        <v>188500</v>
       </c>
       <c r="I41" s="3">
-        <v>198000</v>
+        <v>195400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1928,16 +1928,16 @@
         <v>4900</v>
       </c>
       <c r="E42" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="F42" s="3">
         <v>300</v>
       </c>
       <c r="G42" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="H42" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -1966,22 +1966,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>55800</v>
+        <v>55100</v>
       </c>
       <c r="E43" s="3">
-        <v>12100</v>
+        <v>11900</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="H43" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="I43" s="3">
-        <v>18200</v>
+        <v>18000</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2048,22 +2048,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30500</v>
+        <v>30100</v>
       </c>
       <c r="E45" s="3">
-        <v>22200</v>
+        <v>21900</v>
       </c>
       <c r="F45" s="3">
-        <v>20500</v>
+        <v>20200</v>
       </c>
       <c r="G45" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="H45" s="3">
-        <v>19000</v>
+        <v>18800</v>
       </c>
       <c r="I45" s="3">
-        <v>34100</v>
+        <v>33700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2089,22 +2089,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>833700</v>
+        <v>822800</v>
       </c>
       <c r="E46" s="3">
-        <v>500500</v>
+        <v>494000</v>
       </c>
       <c r="F46" s="3">
-        <v>264100</v>
+        <v>260700</v>
       </c>
       <c r="G46" s="3">
-        <v>212400</v>
+        <v>209600</v>
       </c>
       <c r="H46" s="3">
-        <v>231400</v>
+        <v>228400</v>
       </c>
       <c r="I46" s="3">
-        <v>250300</v>
+        <v>247000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2130,10 +2130,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>103700</v>
+        <v>102400</v>
       </c>
       <c r="E47" s="3">
-        <v>119000</v>
+        <v>117500</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -2171,22 +2171,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="E48" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="F48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="G48" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="H48" s="3">
         <v>6000</v>
       </c>
       <c r="I48" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2212,22 +2212,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>44200</v>
+        <v>43600</v>
       </c>
       <c r="E49" s="3">
-        <v>44400</v>
+        <v>43800</v>
       </c>
       <c r="F49" s="3">
-        <v>48600</v>
+        <v>48000</v>
       </c>
       <c r="G49" s="3">
-        <v>48600</v>
+        <v>48000</v>
       </c>
       <c r="H49" s="3">
-        <v>48600</v>
+        <v>48000</v>
       </c>
       <c r="I49" s="3">
-        <v>48600</v>
+        <v>48000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2417,22 +2417,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>988100</v>
+        <v>975300</v>
       </c>
       <c r="E54" s="3">
-        <v>670500</v>
+        <v>661800</v>
       </c>
       <c r="F54" s="3">
-        <v>319600</v>
+        <v>315500</v>
       </c>
       <c r="G54" s="3">
-        <v>271100</v>
+        <v>267600</v>
       </c>
       <c r="H54" s="3">
-        <v>287000</v>
+        <v>283300</v>
       </c>
       <c r="I54" s="3">
-        <v>305100</v>
+        <v>301100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2492,13 +2492,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>87500</v>
+        <v>86300</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F57" s="3">
-        <v>37900</v>
+        <v>37400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2542,13 +2542,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="H58" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="I58" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2577,19 +2577,19 @@
         <v>2400</v>
       </c>
       <c r="E59" s="3">
-        <v>54500</v>
+        <v>53800</v>
       </c>
       <c r="F59" s="3">
         <v>1300</v>
       </c>
       <c r="G59" s="3">
-        <v>84000</v>
+        <v>82900</v>
       </c>
       <c r="H59" s="3">
-        <v>65600</v>
+        <v>64700</v>
       </c>
       <c r="I59" s="3">
-        <v>56700</v>
+        <v>56000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2615,22 +2615,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>89900</v>
+        <v>88700</v>
       </c>
       <c r="E60" s="3">
-        <v>54500</v>
+        <v>53800</v>
       </c>
       <c r="F60" s="3">
-        <v>39200</v>
+        <v>38700</v>
       </c>
       <c r="G60" s="3">
-        <v>91800</v>
+        <v>90600</v>
       </c>
       <c r="H60" s="3">
-        <v>73400</v>
+        <v>72400</v>
       </c>
       <c r="I60" s="3">
-        <v>64500</v>
+        <v>63700</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2659,19 +2659,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="F61" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G61" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H61" s="3">
         <v>10800</v>
       </c>
-      <c r="G61" s="3">
-        <v>10600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>11000</v>
-      </c>
       <c r="I61" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20400</v>
+        <v>20100</v>
       </c>
       <c r="E62" s="3">
-        <v>22200</v>
+        <v>21900</v>
       </c>
       <c r="F62" s="3">
         <v>3800</v>
@@ -2861,22 +2861,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>110200</v>
+        <v>108800</v>
       </c>
       <c r="E66" s="3">
-        <v>86800</v>
+        <v>85700</v>
       </c>
       <c r="F66" s="3">
-        <v>53800</v>
+        <v>53100</v>
       </c>
       <c r="G66" s="3">
-        <v>104200</v>
+        <v>102900</v>
       </c>
       <c r="H66" s="3">
-        <v>85700</v>
+        <v>84600</v>
       </c>
       <c r="I66" s="3">
-        <v>76600</v>
+        <v>75600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>484300</v>
+        <v>478000</v>
       </c>
       <c r="H70" s="3">
-        <v>454800</v>
+        <v>448900</v>
       </c>
       <c r="I70" s="3">
-        <v>454800</v>
+        <v>448900</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3083,22 +3083,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-315700</v>
+        <v>-311500</v>
       </c>
       <c r="E72" s="3">
-        <v>-478100</v>
+        <v>-471900</v>
       </c>
       <c r="F72" s="3">
-        <v>-480100</v>
+        <v>-473800</v>
       </c>
       <c r="G72" s="3">
-        <v>-389100</v>
+        <v>-384100</v>
       </c>
       <c r="H72" s="3">
-        <v>-330400</v>
+        <v>-326100</v>
       </c>
       <c r="I72" s="3">
-        <v>-292000</v>
+        <v>-288200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3247,22 +3247,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>877900</v>
+        <v>866500</v>
       </c>
       <c r="E76" s="3">
-        <v>583700</v>
+        <v>576100</v>
       </c>
       <c r="F76" s="3">
-        <v>265800</v>
+        <v>262400</v>
       </c>
       <c r="G76" s="3">
-        <v>-317400</v>
+        <v>-313300</v>
       </c>
       <c r="H76" s="3">
-        <v>-253600</v>
+        <v>-250300</v>
       </c>
       <c r="I76" s="3">
-        <v>-226400</v>
+        <v>-223400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3375,25 +3375,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>164400</v>
+        <v>162300</v>
       </c>
       <c r="E81" s="3">
         <v>1900</v>
       </c>
       <c r="F81" s="3">
-        <v>-90900</v>
+        <v>-89700</v>
       </c>
       <c r="G81" s="3">
-        <v>-231700</v>
+        <v>-228700</v>
       </c>
       <c r="H81" s="3">
-        <v>-38400</v>
+        <v>-37900</v>
       </c>
       <c r="I81" s="3">
-        <v>-133800</v>
+        <v>-132000</v>
       </c>
       <c r="J81" s="3">
-        <v>-62800</v>
+        <v>-62000</v>
       </c>
       <c r="K81" s="3">
         <v>-17200</v>
@@ -3451,7 +3451,7 @@
         <v>700</v>
       </c>
       <c r="J83" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3688,16 +3688,16 @@
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>-135400</v>
+        <v>-133700</v>
       </c>
       <c r="H89" s="3">
-        <v>-41000</v>
+        <v>-40500</v>
       </c>
       <c r="I89" s="3">
-        <v>-60700</v>
+        <v>-59900</v>
       </c>
       <c r="J89" s="3">
-        <v>-43800</v>
+        <v>-43200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3869,13 +3869,13 @@
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>33100</v>
+        <v>32700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="I94" s="3">
-        <v>24700</v>
+        <v>24300</v>
       </c>
       <c r="J94" s="3">
         <v>1500</v>
@@ -4091,16 +4091,16 @@
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>23800</v>
+        <v>23500</v>
       </c>
       <c r="H100" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="I100" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="J100" s="3">
-        <v>230800</v>
+        <v>227800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4132,16 +4132,16 @@
         <v>3</v>
       </c>
       <c r="G101" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H101" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="I101" s="3">
         <v>-500</v>
       </c>
       <c r="J101" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -4173,16 +4173,16 @@
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>-76100</v>
+        <v>-75100</v>
       </c>
       <c r="H102" s="3">
-        <v>-21200</v>
+        <v>-20900</v>
       </c>
       <c r="I102" s="3">
-        <v>-41200</v>
+        <v>-40700</v>
       </c>
       <c r="J102" s="3">
-        <v>197900</v>
+        <v>195300</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="92">
   <si>
     <t>IMAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,116 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>237500</v>
+        <v>2800</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>241500</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>2300</v>
+        <v>4700</v>
       </c>
       <c r="I8" s="3">
         <v>2300</v>
       </c>
       <c r="J8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K8" s="3">
         <v>8300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,49 +878,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>83500</v>
+        <v>92800</v>
       </c>
       <c r="E12" s="3">
-        <v>39400</v>
+        <v>84900</v>
       </c>
       <c r="F12" s="3">
-        <v>68100</v>
+        <v>40100</v>
       </c>
       <c r="G12" s="3">
-        <v>129400</v>
+        <v>69200</v>
       </c>
       <c r="H12" s="3">
-        <v>48200</v>
+        <v>131600</v>
       </c>
       <c r="I12" s="3">
-        <v>40800</v>
+        <v>49000</v>
       </c>
       <c r="J12" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K12" s="3">
         <v>65600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>31000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -961,11 +981,11 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -982,14 +1002,17 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,90 +1069,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>119100</v>
+        <v>163500</v>
       </c>
       <c r="E17" s="3">
-        <v>60900</v>
+        <v>121100</v>
       </c>
       <c r="F17" s="3">
-        <v>94500</v>
+        <v>61900</v>
       </c>
       <c r="G17" s="3">
-        <v>233700</v>
+        <v>96100</v>
       </c>
       <c r="H17" s="3">
-        <v>49500</v>
+        <v>237700</v>
       </c>
       <c r="I17" s="3">
-        <v>129300</v>
+        <v>50300</v>
       </c>
       <c r="J17" s="3">
+        <v>131500</v>
+      </c>
+      <c r="K17" s="3">
         <v>75800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33800</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>118500</v>
+        <v>-160700</v>
       </c>
       <c r="E18" s="3">
-        <v>-60900</v>
+        <v>120400</v>
       </c>
       <c r="F18" s="3">
-        <v>-94500</v>
+        <v>-61900</v>
       </c>
       <c r="G18" s="3">
-        <v>-229100</v>
+        <v>-96100</v>
       </c>
       <c r="H18" s="3">
-        <v>-47200</v>
+        <v>-233000</v>
       </c>
       <c r="I18" s="3">
-        <v>-127000</v>
+        <v>-48000</v>
       </c>
       <c r="J18" s="3">
+        <v>-129100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-67500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-30600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,49 +1175,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>45700</v>
+        <v>-8300</v>
       </c>
       <c r="E20" s="3">
-        <v>62800</v>
+        <v>46500</v>
       </c>
       <c r="F20" s="3">
-        <v>4900</v>
+        <v>63800</v>
       </c>
       <c r="G20" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="H20" s="3">
-        <v>9400</v>
+        <v>6100</v>
       </c>
       <c r="I20" s="3">
-        <v>-4700</v>
+        <v>9500</v>
       </c>
       <c r="J20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K20" s="3">
         <v>7600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1197,35 +1234,38 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
-        <v>-221600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-37400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-131000</v>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J21" s="3">
+        <v>-133200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-58900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-23900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1236,87 +1276,93 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>164100</v>
+        <v>-169000</v>
       </c>
       <c r="E23" s="3">
+        <v>166900</v>
+      </c>
+      <c r="F23" s="3">
         <v>1900</v>
       </c>
-      <c r="F23" s="3">
-        <v>-89700</v>
-      </c>
       <c r="G23" s="3">
-        <v>-223600</v>
+        <v>-91300</v>
       </c>
       <c r="H23" s="3">
-        <v>-37900</v>
+        <v>-227300</v>
       </c>
       <c r="I23" s="3">
-        <v>-132000</v>
+        <v>-38500</v>
       </c>
       <c r="J23" s="3">
+        <v>-134200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-61800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1330,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,90 +1437,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>162300</v>
+        <v>-168500</v>
       </c>
       <c r="E26" s="3">
+        <v>165000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
-        <v>-89700</v>
-      </c>
       <c r="G26" s="3">
-        <v>-223600</v>
+        <v>-91300</v>
       </c>
       <c r="H26" s="3">
-        <v>-37900</v>
+        <v>-227300</v>
       </c>
       <c r="I26" s="3">
-        <v>-132000</v>
+        <v>-38500</v>
       </c>
       <c r="J26" s="3">
+        <v>-134200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-62000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-25500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>162300</v>
+        <v>-168500</v>
       </c>
       <c r="E27" s="3">
+        <v>165000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
-        <v>-89700</v>
-      </c>
       <c r="G27" s="3">
-        <v>-228700</v>
+        <v>-91300</v>
       </c>
       <c r="H27" s="3">
-        <v>-37900</v>
+        <v>-232500</v>
       </c>
       <c r="I27" s="3">
-        <v>-132000</v>
+        <v>-38500</v>
       </c>
       <c r="J27" s="3">
+        <v>-134200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-62000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-25500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,90 +1701,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-45700</v>
+        <v>8300</v>
       </c>
       <c r="E32" s="3">
-        <v>-62800</v>
+        <v>-46500</v>
       </c>
       <c r="F32" s="3">
-        <v>-4900</v>
+        <v>-63800</v>
       </c>
       <c r="G32" s="3">
-        <v>-6000</v>
+        <v>-5000</v>
       </c>
       <c r="H32" s="3">
-        <v>-9400</v>
+        <v>-6100</v>
       </c>
       <c r="I32" s="3">
-        <v>4700</v>
+        <v>-9500</v>
       </c>
       <c r="J32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>162300</v>
+        <v>-168500</v>
       </c>
       <c r="E33" s="3">
+        <v>165000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
-        <v>-89700</v>
-      </c>
       <c r="G33" s="3">
-        <v>-228700</v>
+        <v>-91300</v>
       </c>
       <c r="H33" s="3">
-        <v>-37900</v>
+        <v>-232500</v>
       </c>
       <c r="I33" s="3">
-        <v>-132000</v>
+        <v>-38500</v>
       </c>
       <c r="J33" s="3">
+        <v>-134200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-62000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-25500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,95 +1833,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>162300</v>
+        <v>-168500</v>
       </c>
       <c r="E35" s="3">
+        <v>165000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
-        <v>-89700</v>
-      </c>
       <c r="G35" s="3">
-        <v>-228700</v>
+        <v>-91300</v>
       </c>
       <c r="H35" s="3">
-        <v>-37900</v>
+        <v>-232500</v>
       </c>
       <c r="I35" s="3">
-        <v>-132000</v>
+        <v>-38500</v>
       </c>
       <c r="J35" s="3">
+        <v>-134200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-62000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-25500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,31 +1964,32 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>732800</v>
+        <v>679800</v>
       </c>
       <c r="E41" s="3">
-        <v>455800</v>
+        <v>745000</v>
       </c>
       <c r="F41" s="3">
-        <v>240200</v>
+        <v>463400</v>
       </c>
       <c r="G41" s="3">
-        <v>175100</v>
+        <v>244200</v>
       </c>
       <c r="H41" s="3">
-        <v>188500</v>
+        <v>178100</v>
       </c>
       <c r="I41" s="3">
-        <v>195400</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>191700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>198700</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1919,31 +2006,34 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E42" s="3">
         <v>4900</v>
       </c>
-      <c r="E42" s="3">
-        <v>4400</v>
-      </c>
       <c r="F42" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G42" s="3">
         <v>300</v>
       </c>
-      <c r="G42" s="3">
-        <v>4900</v>
-      </c>
       <c r="H42" s="3">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>8300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1960,31 +2050,34 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>55100</v>
+        <v>38000</v>
       </c>
       <c r="E43" s="3">
-        <v>11900</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3">
-        <v>4500</v>
+        <v>56000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3">
-        <v>12900</v>
+        <v>4600</v>
       </c>
       <c r="I43" s="3">
-        <v>18000</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>13100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>18300</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2001,8 +2094,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,31 +2138,34 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30100</v>
+        <v>32600</v>
       </c>
       <c r="E45" s="3">
-        <v>21900</v>
+        <v>30600</v>
       </c>
       <c r="F45" s="3">
-        <v>20200</v>
+        <v>22300</v>
       </c>
       <c r="G45" s="3">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="H45" s="3">
-        <v>18800</v>
+        <v>25400</v>
       </c>
       <c r="I45" s="3">
-        <v>33700</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>19100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>34200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2083,31 +2182,34 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>822800</v>
+        <v>816600</v>
       </c>
       <c r="E46" s="3">
-        <v>494000</v>
+        <v>836600</v>
       </c>
       <c r="F46" s="3">
-        <v>260700</v>
+        <v>502300</v>
       </c>
       <c r="G46" s="3">
-        <v>209600</v>
+        <v>265100</v>
       </c>
       <c r="H46" s="3">
-        <v>228400</v>
+        <v>213100</v>
       </c>
       <c r="I46" s="3">
-        <v>247000</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>232200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>251200</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2124,19 +2226,22 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>102400</v>
+        <v>90500</v>
       </c>
       <c r="E47" s="3">
-        <v>117500</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>104100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>119500</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2150,8 +2255,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2165,31 +2270,34 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6200</v>
+        <v>10300</v>
       </c>
       <c r="E48" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="F48" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="G48" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="H48" s="3">
-        <v>6000</v>
+        <v>7300</v>
       </c>
       <c r="I48" s="3">
         <v>6100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>6200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2206,31 +2314,34 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>43600</v>
+        <v>44200</v>
       </c>
       <c r="E49" s="3">
-        <v>43800</v>
+        <v>44300</v>
       </c>
       <c r="F49" s="3">
-        <v>48000</v>
+        <v>44600</v>
       </c>
       <c r="G49" s="3">
-        <v>48000</v>
+        <v>48800</v>
       </c>
       <c r="H49" s="3">
-        <v>48000</v>
+        <v>48800</v>
       </c>
       <c r="I49" s="3">
-        <v>48000</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>48800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>48800</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,28 +2446,31 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>900</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>2900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,31 +2534,34 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>975300</v>
+        <v>962500</v>
       </c>
       <c r="E54" s="3">
-        <v>661800</v>
+        <v>991600</v>
       </c>
       <c r="F54" s="3">
-        <v>315500</v>
+        <v>672900</v>
       </c>
       <c r="G54" s="3">
-        <v>267600</v>
+        <v>320700</v>
       </c>
       <c r="H54" s="3">
-        <v>283300</v>
+        <v>272000</v>
       </c>
       <c r="I54" s="3">
-        <v>301100</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>288000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>306100</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,22 +2616,23 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>86300</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3">
-        <v>37400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>83900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>87800</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3">
+        <v>38100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2518,8 +2649,8 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2527,8 +2658,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2542,16 +2676,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>7700</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="I58" s="3">
-        <v>7700</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>7800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7800</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2568,31 +2702,34 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
-        <v>53800</v>
-      </c>
       <c r="F59" s="3">
+        <v>54700</v>
+      </c>
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
-        <v>82900</v>
-      </c>
       <c r="H59" s="3">
-        <v>64700</v>
+        <v>84300</v>
       </c>
       <c r="I59" s="3">
-        <v>56000</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>65800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>56900</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2609,31 +2746,34 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>88700</v>
+        <v>86200</v>
       </c>
       <c r="E60" s="3">
-        <v>53800</v>
+        <v>90200</v>
       </c>
       <c r="F60" s="3">
-        <v>38700</v>
+        <v>54700</v>
       </c>
       <c r="G60" s="3">
-        <v>90600</v>
+        <v>39300</v>
       </c>
       <c r="H60" s="3">
-        <v>72400</v>
+        <v>92100</v>
       </c>
       <c r="I60" s="3">
-        <v>63700</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>73600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>64700</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2650,8 +2790,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2659,23 +2802,23 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="G61" s="3">
+        <v>10800</v>
+      </c>
+      <c r="H61" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I61" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J61" s="3">
         <v>10500</v>
       </c>
-      <c r="H61" s="3">
-        <v>10800</v>
-      </c>
-      <c r="I61" s="3">
-        <v>10300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2691,32 +2834,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20100</v>
+        <v>21600</v>
       </c>
       <c r="E62" s="3">
-        <v>21900</v>
+        <v>20400</v>
       </c>
       <c r="F62" s="3">
+        <v>22300</v>
+      </c>
+      <c r="G62" s="3">
         <v>3800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,31 +3010,34 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>108800</v>
+        <v>107800</v>
       </c>
       <c r="E66" s="3">
-        <v>85700</v>
+        <v>110600</v>
       </c>
       <c r="F66" s="3">
-        <v>53100</v>
+        <v>87100</v>
       </c>
       <c r="G66" s="3">
-        <v>102900</v>
+        <v>54000</v>
       </c>
       <c r="H66" s="3">
-        <v>84600</v>
+        <v>104600</v>
       </c>
       <c r="I66" s="3">
-        <v>75600</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>86000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>76900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3010,16 +3178,16 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>478000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>448900</v>
+        <v>486000</v>
       </c>
       <c r="I70" s="3">
-        <v>448900</v>
+        <v>456400</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>456400</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,31 +3248,34 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-311500</v>
+        <v>-485300</v>
       </c>
       <c r="E72" s="3">
-        <v>-471900</v>
+        <v>-316800</v>
       </c>
       <c r="F72" s="3">
-        <v>-473800</v>
+        <v>-479800</v>
       </c>
       <c r="G72" s="3">
-        <v>-384100</v>
+        <v>-481700</v>
       </c>
       <c r="H72" s="3">
-        <v>-326100</v>
+        <v>-390500</v>
       </c>
       <c r="I72" s="3">
-        <v>-288200</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-331600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-293100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,31 +3424,34 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>866500</v>
+        <v>854800</v>
       </c>
       <c r="E76" s="3">
-        <v>576100</v>
+        <v>881000</v>
       </c>
       <c r="F76" s="3">
-        <v>262400</v>
+        <v>585800</v>
       </c>
       <c r="G76" s="3">
-        <v>-313300</v>
+        <v>266800</v>
       </c>
       <c r="H76" s="3">
-        <v>-250300</v>
+        <v>-318600</v>
       </c>
       <c r="I76" s="3">
-        <v>-223400</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-254500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-227200</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,95 +3512,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>162300</v>
+        <v>-168500</v>
       </c>
       <c r="E81" s="3">
+        <v>165000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
-        <v>-89700</v>
-      </c>
       <c r="G81" s="3">
-        <v>-228700</v>
+        <v>-91300</v>
       </c>
       <c r="H81" s="3">
-        <v>-37900</v>
+        <v>-232500</v>
       </c>
       <c r="I81" s="3">
-        <v>-132000</v>
+        <v>-38500</v>
       </c>
       <c r="J81" s="3">
+        <v>-134200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-62000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-25500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3625,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3441,21 +3640,21 @@
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,8 +3667,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,8 +3887,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3687,21 +3904,21 @@
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
-        <v>-133700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-40500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-59900</v>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3">
+        <v>-60900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-43200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +3951,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3745,21 +3966,21 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,8 +4081,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3868,21 +4098,21 @@
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
-        <v>32700</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="I94" s="3">
-        <v>24300</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K94" s="3">
         <v>1500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,8 +4319,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4090,21 +4336,21 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
-        <v>23500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>10700</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-4600</v>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K100" s="3">
         <v>227800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4363,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4131,21 +4380,21 @@
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>12400</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>9200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4158,8 +4407,11 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4172,21 +4424,21 @@
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
-        <v>-75100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-40700</v>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="K102" s="3">
         <v>195300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
@@ -738,7 +738,7 @@
         <v>2800</v>
       </c>
       <c r="E8" s="3">
-        <v>241500</v>
+        <v>243400</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>4700</v>
       </c>
       <c r="I8" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J8" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K8" s="3">
         <v>8300</v>
@@ -885,25 +885,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>92800</v>
+        <v>93600</v>
       </c>
       <c r="E12" s="3">
-        <v>84900</v>
+        <v>85600</v>
       </c>
       <c r="F12" s="3">
-        <v>40100</v>
+        <v>40400</v>
       </c>
       <c r="G12" s="3">
-        <v>69200</v>
+        <v>69800</v>
       </c>
       <c r="H12" s="3">
-        <v>131600</v>
+        <v>132600</v>
       </c>
       <c r="I12" s="3">
-        <v>49000</v>
+        <v>49400</v>
       </c>
       <c r="J12" s="3">
-        <v>41500</v>
+        <v>41800</v>
       </c>
       <c r="K12" s="3">
         <v>65600</v>
@@ -1076,25 +1076,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>163500</v>
+        <v>164800</v>
       </c>
       <c r="E17" s="3">
-        <v>121100</v>
+        <v>122000</v>
       </c>
       <c r="F17" s="3">
-        <v>61900</v>
+        <v>62400</v>
       </c>
       <c r="G17" s="3">
-        <v>96100</v>
+        <v>96800</v>
       </c>
       <c r="H17" s="3">
-        <v>237700</v>
+        <v>239500</v>
       </c>
       <c r="I17" s="3">
-        <v>50300</v>
+        <v>50700</v>
       </c>
       <c r="J17" s="3">
-        <v>131500</v>
+        <v>132500</v>
       </c>
       <c r="K17" s="3">
         <v>75800</v>
@@ -1120,25 +1120,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-160700</v>
+        <v>-162000</v>
       </c>
       <c r="E18" s="3">
-        <v>120400</v>
+        <v>121400</v>
       </c>
       <c r="F18" s="3">
-        <v>-61900</v>
+        <v>-62400</v>
       </c>
       <c r="G18" s="3">
-        <v>-96100</v>
+        <v>-96800</v>
       </c>
       <c r="H18" s="3">
-        <v>-233000</v>
+        <v>-234700</v>
       </c>
       <c r="I18" s="3">
-        <v>-48000</v>
+        <v>-48300</v>
       </c>
       <c r="J18" s="3">
-        <v>-129100</v>
+        <v>-130100</v>
       </c>
       <c r="K18" s="3">
         <v>-67500</v>
@@ -1185,19 +1185,19 @@
         <v>-8300</v>
       </c>
       <c r="E20" s="3">
-        <v>46500</v>
+        <v>46800</v>
       </c>
       <c r="F20" s="3">
-        <v>63800</v>
+        <v>64300</v>
       </c>
       <c r="G20" s="3">
         <v>5000</v>
       </c>
       <c r="H20" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="I20" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="J20" s="3">
         <v>-4800</v>
@@ -1244,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>-133200</v>
+        <v>-134200</v>
       </c>
       <c r="K21" s="3">
         <v>-58900</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>500</v>
@@ -1314,25 +1314,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-169000</v>
+        <v>-170300</v>
       </c>
       <c r="E23" s="3">
-        <v>166900</v>
+        <v>168200</v>
       </c>
       <c r="F23" s="3">
         <v>1900</v>
       </c>
       <c r="G23" s="3">
-        <v>-91300</v>
+        <v>-92000</v>
       </c>
       <c r="H23" s="3">
-        <v>-227300</v>
+        <v>-229100</v>
       </c>
       <c r="I23" s="3">
-        <v>-38500</v>
+        <v>-38800</v>
       </c>
       <c r="J23" s="3">
-        <v>-134200</v>
+        <v>-135300</v>
       </c>
       <c r="K23" s="3">
         <v>-61800</v>
@@ -1446,25 +1446,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-168500</v>
+        <v>-169800</v>
       </c>
       <c r="E26" s="3">
-        <v>165000</v>
+        <v>166200</v>
       </c>
       <c r="F26" s="3">
         <v>1900</v>
       </c>
       <c r="G26" s="3">
-        <v>-91300</v>
+        <v>-92000</v>
       </c>
       <c r="H26" s="3">
-        <v>-227300</v>
+        <v>-229100</v>
       </c>
       <c r="I26" s="3">
-        <v>-38500</v>
+        <v>-38800</v>
       </c>
       <c r="J26" s="3">
-        <v>-134200</v>
+        <v>-135300</v>
       </c>
       <c r="K26" s="3">
         <v>-62000</v>
@@ -1490,25 +1490,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-168500</v>
+        <v>-169800</v>
       </c>
       <c r="E27" s="3">
-        <v>165000</v>
+        <v>166200</v>
       </c>
       <c r="F27" s="3">
         <v>1900</v>
       </c>
       <c r="G27" s="3">
-        <v>-91300</v>
+        <v>-92000</v>
       </c>
       <c r="H27" s="3">
-        <v>-232500</v>
+        <v>-234300</v>
       </c>
       <c r="I27" s="3">
-        <v>-38500</v>
+        <v>-38800</v>
       </c>
       <c r="J27" s="3">
-        <v>-134200</v>
+        <v>-135300</v>
       </c>
       <c r="K27" s="3">
         <v>-62000</v>
@@ -1713,19 +1713,19 @@
         <v>8300</v>
       </c>
       <c r="E32" s="3">
-        <v>-46500</v>
+        <v>-46800</v>
       </c>
       <c r="F32" s="3">
-        <v>-63800</v>
+        <v>-64300</v>
       </c>
       <c r="G32" s="3">
         <v>-5000</v>
       </c>
       <c r="H32" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="I32" s="3">
-        <v>-9500</v>
+        <v>-9600</v>
       </c>
       <c r="J32" s="3">
         <v>4800</v>
@@ -1754,25 +1754,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-168500</v>
+        <v>-169800</v>
       </c>
       <c r="E33" s="3">
-        <v>165000</v>
+        <v>166200</v>
       </c>
       <c r="F33" s="3">
         <v>1900</v>
       </c>
       <c r="G33" s="3">
-        <v>-91300</v>
+        <v>-92000</v>
       </c>
       <c r="H33" s="3">
-        <v>-232500</v>
+        <v>-234300</v>
       </c>
       <c r="I33" s="3">
-        <v>-38500</v>
+        <v>-38800</v>
       </c>
       <c r="J33" s="3">
-        <v>-134200</v>
+        <v>-135300</v>
       </c>
       <c r="K33" s="3">
         <v>-62000</v>
@@ -1842,25 +1842,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-168500</v>
+        <v>-169800</v>
       </c>
       <c r="E35" s="3">
-        <v>165000</v>
+        <v>166200</v>
       </c>
       <c r="F35" s="3">
         <v>1900</v>
       </c>
       <c r="G35" s="3">
-        <v>-91300</v>
+        <v>-92000</v>
       </c>
       <c r="H35" s="3">
-        <v>-232500</v>
+        <v>-234300</v>
       </c>
       <c r="I35" s="3">
-        <v>-38500</v>
+        <v>-38800</v>
       </c>
       <c r="J35" s="3">
-        <v>-134200</v>
+        <v>-135300</v>
       </c>
       <c r="K35" s="3">
         <v>-62000</v>
@@ -1971,25 +1971,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>679800</v>
+        <v>685000</v>
       </c>
       <c r="E41" s="3">
-        <v>745000</v>
+        <v>750700</v>
       </c>
       <c r="F41" s="3">
-        <v>463400</v>
+        <v>467000</v>
       </c>
       <c r="G41" s="3">
-        <v>244200</v>
+        <v>246100</v>
       </c>
       <c r="H41" s="3">
-        <v>178100</v>
+        <v>179400</v>
       </c>
       <c r="I41" s="3">
-        <v>191700</v>
+        <v>193200</v>
       </c>
       <c r="J41" s="3">
-        <v>198700</v>
+        <v>200200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -2015,10 +2015,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>66100</v>
+        <v>66600</v>
       </c>
       <c r="E42" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F42" s="3">
         <v>4500</v>
@@ -2030,7 +2030,7 @@
         <v>5000</v>
       </c>
       <c r="I42" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -2059,25 +2059,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>38000</v>
+        <v>38300</v>
       </c>
       <c r="E43" s="3">
-        <v>56000</v>
+        <v>56500</v>
       </c>
       <c r="F43" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H43" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I43" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="J43" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2147,25 +2147,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32600</v>
+        <v>32900</v>
       </c>
       <c r="E45" s="3">
-        <v>30600</v>
+        <v>30800</v>
       </c>
       <c r="F45" s="3">
-        <v>22300</v>
+        <v>22500</v>
       </c>
       <c r="G45" s="3">
-        <v>20500</v>
+        <v>20700</v>
       </c>
       <c r="H45" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="I45" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="J45" s="3">
-        <v>34200</v>
+        <v>34500</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2191,25 +2191,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>816600</v>
+        <v>822800</v>
       </c>
       <c r="E46" s="3">
-        <v>836600</v>
+        <v>843000</v>
       </c>
       <c r="F46" s="3">
-        <v>502300</v>
+        <v>506200</v>
       </c>
       <c r="G46" s="3">
-        <v>265100</v>
+        <v>267100</v>
       </c>
       <c r="H46" s="3">
-        <v>213100</v>
+        <v>214800</v>
       </c>
       <c r="I46" s="3">
-        <v>232200</v>
+        <v>234000</v>
       </c>
       <c r="J46" s="3">
-        <v>251200</v>
+        <v>253100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2235,13 +2235,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>90500</v>
+        <v>91200</v>
       </c>
       <c r="E47" s="3">
-        <v>104100</v>
+        <v>104900</v>
       </c>
       <c r="F47" s="3">
-        <v>119500</v>
+        <v>120400</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2282,13 +2282,13 @@
         <v>10300</v>
       </c>
       <c r="E48" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="F48" s="3">
         <v>6600</v>
       </c>
       <c r="G48" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="H48" s="3">
         <v>7300</v>
@@ -2323,25 +2323,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>44200</v>
+        <v>44600</v>
       </c>
       <c r="E49" s="3">
-        <v>44300</v>
+        <v>44600</v>
       </c>
       <c r="F49" s="3">
-        <v>44600</v>
+        <v>44900</v>
       </c>
       <c r="G49" s="3">
-        <v>48800</v>
+        <v>49100</v>
       </c>
       <c r="H49" s="3">
-        <v>48800</v>
+        <v>49100</v>
       </c>
       <c r="I49" s="3">
-        <v>48800</v>
+        <v>49100</v>
       </c>
       <c r="J49" s="3">
-        <v>48800</v>
+        <v>49100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2543,25 +2543,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>962500</v>
+        <v>969900</v>
       </c>
       <c r="E54" s="3">
-        <v>991600</v>
+        <v>999200</v>
       </c>
       <c r="F54" s="3">
-        <v>672900</v>
+        <v>678100</v>
       </c>
       <c r="G54" s="3">
-        <v>320700</v>
+        <v>323200</v>
       </c>
       <c r="H54" s="3">
-        <v>272000</v>
+        <v>274100</v>
       </c>
       <c r="I54" s="3">
-        <v>288000</v>
+        <v>290200</v>
       </c>
       <c r="J54" s="3">
-        <v>306100</v>
+        <v>308500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2623,16 +2623,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>83900</v>
+        <v>84600</v>
       </c>
       <c r="E57" s="3">
-        <v>87800</v>
+        <v>88400</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G57" s="3">
-        <v>38100</v>
+        <v>38300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="I58" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="J58" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2714,22 +2714,22 @@
         <v>2300</v>
       </c>
       <c r="E59" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F59" s="3">
-        <v>54700</v>
+        <v>55100</v>
       </c>
       <c r="G59" s="3">
         <v>1300</v>
       </c>
       <c r="H59" s="3">
-        <v>84300</v>
+        <v>85000</v>
       </c>
       <c r="I59" s="3">
-        <v>65800</v>
+        <v>66300</v>
       </c>
       <c r="J59" s="3">
-        <v>56900</v>
+        <v>57300</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2755,25 +2755,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>86200</v>
+        <v>86900</v>
       </c>
       <c r="E60" s="3">
-        <v>90200</v>
+        <v>90900</v>
       </c>
       <c r="F60" s="3">
-        <v>54700</v>
+        <v>55100</v>
       </c>
       <c r="G60" s="3">
-        <v>39300</v>
+        <v>39600</v>
       </c>
       <c r="H60" s="3">
-        <v>92100</v>
+        <v>92800</v>
       </c>
       <c r="I60" s="3">
-        <v>73600</v>
+        <v>74200</v>
       </c>
       <c r="J60" s="3">
-        <v>64700</v>
+        <v>65200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2805,19 +2805,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="G61" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H61" s="3">
         <v>10800</v>
       </c>
-      <c r="H61" s="3">
-        <v>10700</v>
-      </c>
       <c r="I61" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="J61" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="E62" s="3">
-        <v>20400</v>
+        <v>20600</v>
       </c>
       <c r="F62" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="G62" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H62" s="3">
         <v>1800</v>
@@ -3019,25 +3019,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>107800</v>
+        <v>108600</v>
       </c>
       <c r="E66" s="3">
-        <v>110600</v>
+        <v>111500</v>
       </c>
       <c r="F66" s="3">
-        <v>87100</v>
+        <v>87800</v>
       </c>
       <c r="G66" s="3">
-        <v>54000</v>
+        <v>54400</v>
       </c>
       <c r="H66" s="3">
-        <v>104600</v>
+        <v>105400</v>
       </c>
       <c r="I66" s="3">
-        <v>86000</v>
+        <v>86700</v>
       </c>
       <c r="J66" s="3">
-        <v>76900</v>
+        <v>77500</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3181,13 +3181,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>486000</v>
+        <v>489700</v>
       </c>
       <c r="I70" s="3">
-        <v>456400</v>
+        <v>459900</v>
       </c>
       <c r="J70" s="3">
-        <v>456400</v>
+        <v>459900</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3257,25 +3257,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-485300</v>
+        <v>-489000</v>
       </c>
       <c r="E72" s="3">
-        <v>-316800</v>
+        <v>-319200</v>
       </c>
       <c r="F72" s="3">
-        <v>-479800</v>
+        <v>-483500</v>
       </c>
       <c r="G72" s="3">
-        <v>-481700</v>
+        <v>-485400</v>
       </c>
       <c r="H72" s="3">
-        <v>-390500</v>
+        <v>-393500</v>
       </c>
       <c r="I72" s="3">
-        <v>-331600</v>
+        <v>-334100</v>
       </c>
       <c r="J72" s="3">
-        <v>-293100</v>
+        <v>-295300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3433,25 +3433,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>854800</v>
+        <v>861300</v>
       </c>
       <c r="E76" s="3">
-        <v>881000</v>
+        <v>887700</v>
       </c>
       <c r="F76" s="3">
-        <v>585800</v>
+        <v>590300</v>
       </c>
       <c r="G76" s="3">
-        <v>266800</v>
+        <v>268800</v>
       </c>
       <c r="H76" s="3">
-        <v>-318600</v>
+        <v>-321000</v>
       </c>
       <c r="I76" s="3">
-        <v>-254500</v>
+        <v>-256400</v>
       </c>
       <c r="J76" s="3">
-        <v>-227200</v>
+        <v>-228900</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3570,25 +3570,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-168500</v>
+        <v>-169800</v>
       </c>
       <c r="E81" s="3">
-        <v>165000</v>
+        <v>166200</v>
       </c>
       <c r="F81" s="3">
         <v>1900</v>
       </c>
       <c r="G81" s="3">
-        <v>-91300</v>
+        <v>-92000</v>
       </c>
       <c r="H81" s="3">
-        <v>-232500</v>
+        <v>-234300</v>
       </c>
       <c r="I81" s="3">
-        <v>-38500</v>
+        <v>-38800</v>
       </c>
       <c r="J81" s="3">
-        <v>-134200</v>
+        <v>-135300</v>
       </c>
       <c r="K81" s="3">
         <v>-62000</v>
@@ -3914,7 +3914,7 @@
         <v>3</v>
       </c>
       <c r="J89" s="3">
-        <v>-60900</v>
+        <v>-61400</v>
       </c>
       <c r="K89" s="3">
         <v>-43200</v>
@@ -4108,7 +4108,7 @@
         <v>3</v>
       </c>
       <c r="J94" s="3">
-        <v>24700</v>
+        <v>24900</v>
       </c>
       <c r="K94" s="3">
         <v>1500</v>
@@ -4434,7 +4434,7 @@
         <v>3</v>
       </c>
       <c r="J102" s="3">
-        <v>-41300</v>
+        <v>-41700</v>
       </c>
       <c r="K102" s="3">
         <v>195300</v>

--- a/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="92">
   <si>
     <t>IMAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,128 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2800</v>
+        <v>10400</v>
       </c>
       <c r="E8" s="3">
-        <v>243400</v>
+        <v>2600</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>227300</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2400</v>
       </c>
-      <c r="J8" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>6800</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -817,13 +824,16 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>3500</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,52 +892,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>93600</v>
+        <v>91400</v>
       </c>
       <c r="E12" s="3">
-        <v>85600</v>
+        <v>87400</v>
       </c>
       <c r="F12" s="3">
-        <v>40400</v>
+        <v>79900</v>
       </c>
       <c r="G12" s="3">
-        <v>69800</v>
+        <v>37700</v>
       </c>
       <c r="H12" s="3">
-        <v>132600</v>
+        <v>65200</v>
       </c>
       <c r="I12" s="3">
-        <v>49400</v>
+        <v>123800</v>
       </c>
       <c r="J12" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K12" s="3">
         <v>41800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>65600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>31000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,11 +1004,11 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1005,14 +1025,17 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,96 +1096,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>164800</v>
+        <v>164300</v>
       </c>
       <c r="E17" s="3">
-        <v>122000</v>
+        <v>153900</v>
       </c>
       <c r="F17" s="3">
-        <v>62400</v>
+        <v>114000</v>
       </c>
       <c r="G17" s="3">
-        <v>96800</v>
+        <v>58300</v>
       </c>
       <c r="H17" s="3">
-        <v>239500</v>
+        <v>90400</v>
       </c>
       <c r="I17" s="3">
-        <v>50700</v>
+        <v>223700</v>
       </c>
       <c r="J17" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K17" s="3">
         <v>132500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>75800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33800</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-162000</v>
+        <v>-153900</v>
       </c>
       <c r="E18" s="3">
-        <v>121400</v>
+        <v>-151300</v>
       </c>
       <c r="F18" s="3">
-        <v>-62400</v>
+        <v>113400</v>
       </c>
       <c r="G18" s="3">
-        <v>-96800</v>
+        <v>-58300</v>
       </c>
       <c r="H18" s="3">
-        <v>-234700</v>
+        <v>-90400</v>
       </c>
       <c r="I18" s="3">
-        <v>-48300</v>
+        <v>-219300</v>
       </c>
       <c r="J18" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-130100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-67500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-17100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-30600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,52 +1209,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8300</v>
+        <v>-31000</v>
       </c>
       <c r="E20" s="3">
-        <v>46800</v>
+        <v>-7800</v>
       </c>
       <c r="F20" s="3">
-        <v>64300</v>
+        <v>43700</v>
       </c>
       <c r="G20" s="3">
-        <v>5000</v>
+        <v>60100</v>
       </c>
       <c r="H20" s="3">
-        <v>6200</v>
+        <v>4700</v>
       </c>
       <c r="I20" s="3">
-        <v>9600</v>
+        <v>5800</v>
       </c>
       <c r="J20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1240,37 +1277,40 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>-212100</v>
       </c>
       <c r="J21" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-134200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-58900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-23900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1279,92 +1319,98 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-170300</v>
+        <v>-185000</v>
       </c>
       <c r="E23" s="3">
-        <v>168200</v>
+        <v>-159100</v>
       </c>
       <c r="F23" s="3">
-        <v>1900</v>
+        <v>157100</v>
       </c>
       <c r="G23" s="3">
-        <v>-92000</v>
+        <v>1800</v>
       </c>
       <c r="H23" s="3">
-        <v>-229100</v>
+        <v>-85900</v>
       </c>
       <c r="I23" s="3">
-        <v>-38800</v>
+        <v>-214000</v>
       </c>
       <c r="J23" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-135300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-61800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
-        <v>1900</v>
-      </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1379,16 +1425,16 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,96 +1489,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-169800</v>
+        <v>-184900</v>
       </c>
       <c r="E26" s="3">
-        <v>166200</v>
+        <v>-158600</v>
       </c>
       <c r="F26" s="3">
-        <v>1900</v>
+        <v>155300</v>
       </c>
       <c r="G26" s="3">
-        <v>-92000</v>
+        <v>1800</v>
       </c>
       <c r="H26" s="3">
-        <v>-229100</v>
+        <v>-85900</v>
       </c>
       <c r="I26" s="3">
-        <v>-38800</v>
+        <v>-214000</v>
       </c>
       <c r="J26" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-135300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-62000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-169800</v>
+        <v>-184900</v>
       </c>
       <c r="E27" s="3">
-        <v>166200</v>
+        <v>-158600</v>
       </c>
       <c r="F27" s="3">
-        <v>1900</v>
+        <v>155300</v>
       </c>
       <c r="G27" s="3">
-        <v>-92000</v>
+        <v>1800</v>
       </c>
       <c r="H27" s="3">
-        <v>-234300</v>
+        <v>-85900</v>
       </c>
       <c r="I27" s="3">
-        <v>-38800</v>
+        <v>-218800</v>
       </c>
       <c r="J27" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-135300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-62000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-25500</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,96 +1771,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8300</v>
+        <v>31000</v>
       </c>
       <c r="E32" s="3">
-        <v>-46800</v>
+        <v>7800</v>
       </c>
       <c r="F32" s="3">
-        <v>-64300</v>
+        <v>-43700</v>
       </c>
       <c r="G32" s="3">
-        <v>-5000</v>
+        <v>-60100</v>
       </c>
       <c r="H32" s="3">
-        <v>-6200</v>
+        <v>-4700</v>
       </c>
       <c r="I32" s="3">
-        <v>-9600</v>
+        <v>-5800</v>
       </c>
       <c r="J32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K32" s="3">
         <v>4800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-169800</v>
+        <v>-184900</v>
       </c>
       <c r="E33" s="3">
-        <v>166200</v>
+        <v>-158600</v>
       </c>
       <c r="F33" s="3">
-        <v>1900</v>
+        <v>155300</v>
       </c>
       <c r="G33" s="3">
-        <v>-92000</v>
+        <v>1800</v>
       </c>
       <c r="H33" s="3">
-        <v>-234300</v>
+        <v>-85900</v>
       </c>
       <c r="I33" s="3">
-        <v>-38800</v>
+        <v>-218800</v>
       </c>
       <c r="J33" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-135300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-62000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-25500</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,101 +1912,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-169800</v>
+        <v>-184900</v>
       </c>
       <c r="E35" s="3">
-        <v>166200</v>
+        <v>-158600</v>
       </c>
       <c r="F35" s="3">
-        <v>1900</v>
+        <v>155300</v>
       </c>
       <c r="G35" s="3">
-        <v>-92000</v>
+        <v>1800</v>
       </c>
       <c r="H35" s="3">
-        <v>-234300</v>
+        <v>-85900</v>
       </c>
       <c r="I35" s="3">
-        <v>-38800</v>
+        <v>-218800</v>
       </c>
       <c r="J35" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-135300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-62000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-25500</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,35 +2051,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>685000</v>
+        <v>519200</v>
       </c>
       <c r="E41" s="3">
-        <v>750700</v>
+        <v>639800</v>
       </c>
       <c r="F41" s="3">
-        <v>467000</v>
+        <v>701300</v>
       </c>
       <c r="G41" s="3">
-        <v>246100</v>
+        <v>436200</v>
       </c>
       <c r="H41" s="3">
-        <v>179400</v>
+        <v>229900</v>
       </c>
       <c r="I41" s="3">
-        <v>193200</v>
+        <v>167600</v>
       </c>
       <c r="J41" s="3">
+        <v>180400</v>
+      </c>
+      <c r="K41" s="3">
         <v>200200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,34 +2096,37 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>66600</v>
+        <v>111000</v>
       </c>
       <c r="E42" s="3">
-        <v>5000</v>
+        <v>62200</v>
       </c>
       <c r="F42" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="G42" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H42" s="3">
         <v>300</v>
       </c>
-      <c r="H42" s="3">
-        <v>5000</v>
-      </c>
       <c r="I42" s="3">
-        <v>8400</v>
+        <v>4700</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
+        <v>7800</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
@@ -2053,35 +2143,38 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>38300</v>
+        <v>42300</v>
       </c>
       <c r="E43" s="3">
-        <v>56500</v>
+        <v>35800</v>
       </c>
       <c r="F43" s="3">
-        <v>12200</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4700</v>
+        <v>52700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I43" s="3">
-        <v>13200</v>
+        <v>4300</v>
       </c>
       <c r="J43" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K43" s="3">
         <v>18400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,31 +2190,34 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>4000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2141,35 +2237,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32900</v>
+        <v>28100</v>
       </c>
       <c r="E45" s="3">
-        <v>30800</v>
+        <v>30700</v>
       </c>
       <c r="F45" s="3">
-        <v>22500</v>
+        <v>28800</v>
       </c>
       <c r="G45" s="3">
-        <v>20700</v>
+        <v>21000</v>
       </c>
       <c r="H45" s="3">
-        <v>25600</v>
+        <v>19300</v>
       </c>
       <c r="I45" s="3">
-        <v>19200</v>
+        <v>23900</v>
       </c>
       <c r="J45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K45" s="3">
         <v>34500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,35 +2284,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>822800</v>
+        <v>704600</v>
       </c>
       <c r="E46" s="3">
-        <v>843000</v>
+        <v>768600</v>
       </c>
       <c r="F46" s="3">
-        <v>506200</v>
+        <v>787400</v>
       </c>
       <c r="G46" s="3">
-        <v>267100</v>
+        <v>472800</v>
       </c>
       <c r="H46" s="3">
-        <v>214800</v>
+        <v>249500</v>
       </c>
       <c r="I46" s="3">
-        <v>234000</v>
+        <v>200600</v>
       </c>
       <c r="J46" s="3">
+        <v>218600</v>
+      </c>
+      <c r="K46" s="3">
         <v>253100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,22 +2331,25 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>91200</v>
+        <v>56000</v>
       </c>
       <c r="E47" s="3">
-        <v>104900</v>
+        <v>85200</v>
       </c>
       <c r="F47" s="3">
-        <v>120400</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>98000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>112400</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2258,8 +2363,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2273,35 +2378,38 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10300</v>
+        <v>23400</v>
       </c>
       <c r="E48" s="3">
-        <v>6400</v>
+        <v>9700</v>
       </c>
       <c r="F48" s="3">
-        <v>6600</v>
+        <v>5900</v>
       </c>
       <c r="G48" s="3">
-        <v>7000</v>
+        <v>6200</v>
       </c>
       <c r="H48" s="3">
-        <v>7300</v>
+        <v>6500</v>
       </c>
       <c r="I48" s="3">
-        <v>6100</v>
+        <v>6900</v>
       </c>
       <c r="J48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K48" s="3">
         <v>6200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,35 +2425,38 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>44600</v>
+        <v>41600</v>
       </c>
       <c r="E49" s="3">
-        <v>44600</v>
+        <v>41600</v>
       </c>
       <c r="F49" s="3">
-        <v>44900</v>
+        <v>41700</v>
       </c>
       <c r="G49" s="3">
+        <v>41900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>45900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>45900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>45900</v>
+      </c>
+      <c r="K49" s="3">
         <v>49100</v>
       </c>
-      <c r="H49" s="3">
-        <v>49100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>49100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>49100</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,31 +2566,34 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>3900</v>
       </c>
       <c r="E52" s="3">
+        <v>900</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,35 +2660,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>969900</v>
+        <v>829600</v>
       </c>
       <c r="E54" s="3">
-        <v>999200</v>
+        <v>906000</v>
       </c>
       <c r="F54" s="3">
-        <v>678100</v>
+        <v>933300</v>
       </c>
       <c r="G54" s="3">
-        <v>323200</v>
+        <v>633400</v>
       </c>
       <c r="H54" s="3">
-        <v>274100</v>
+        <v>301900</v>
       </c>
       <c r="I54" s="3">
-        <v>290200</v>
+        <v>256000</v>
       </c>
       <c r="J54" s="3">
+        <v>271100</v>
+      </c>
+      <c r="K54" s="3">
         <v>308500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,25 +2747,26 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>84600</v>
+        <v>87400</v>
       </c>
       <c r="E57" s="3">
-        <v>88400</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3">
-        <v>38300</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>79000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>82600</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3">
+        <v>35800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2652,8 +2783,8 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -2661,13 +2792,16 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2679,17 +2813,17 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K58" s="3">
         <v>7900</v>
       </c>
-      <c r="I58" s="3">
-        <v>7900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>7900</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,35 +2839,38 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>55100</v>
-      </c>
       <c r="G59" s="3">
-        <v>1300</v>
+        <v>51500</v>
       </c>
       <c r="H59" s="3">
-        <v>85000</v>
+        <v>1200</v>
       </c>
       <c r="I59" s="3">
-        <v>66300</v>
+        <v>79400</v>
       </c>
       <c r="J59" s="3">
+        <v>61900</v>
+      </c>
+      <c r="K59" s="3">
         <v>57300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,35 +2886,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>86900</v>
+        <v>92000</v>
       </c>
       <c r="E60" s="3">
-        <v>90900</v>
+        <v>81100</v>
       </c>
       <c r="F60" s="3">
-        <v>55100</v>
+        <v>84900</v>
       </c>
       <c r="G60" s="3">
-        <v>39600</v>
+        <v>51500</v>
       </c>
       <c r="H60" s="3">
-        <v>92800</v>
+        <v>37000</v>
       </c>
       <c r="I60" s="3">
-        <v>74200</v>
+        <v>86700</v>
       </c>
       <c r="J60" s="3">
+        <v>69300</v>
+      </c>
+      <c r="K60" s="3">
         <v>65200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +2933,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2805,23 +2948,23 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H61" s="3">
         <v>10200</v>
       </c>
-      <c r="G61" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H61" s="3">
-        <v>10800</v>
-      </c>
       <c r="I61" s="3">
-        <v>11100</v>
+        <v>10000</v>
       </c>
       <c r="J61" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K61" s="3">
         <v>10600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2837,35 +2980,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21700</v>
+        <v>61500</v>
       </c>
       <c r="E62" s="3">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="F62" s="3">
-        <v>22400</v>
+        <v>19200</v>
       </c>
       <c r="G62" s="3">
-        <v>3900</v>
+        <v>21000</v>
       </c>
       <c r="H62" s="3">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="I62" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="J62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,35 +3168,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>108600</v>
+        <v>153500</v>
       </c>
       <c r="E66" s="3">
-        <v>111500</v>
+        <v>101400</v>
       </c>
       <c r="F66" s="3">
-        <v>87800</v>
+        <v>104100</v>
       </c>
       <c r="G66" s="3">
-        <v>54400</v>
+        <v>82000</v>
       </c>
       <c r="H66" s="3">
-        <v>105400</v>
+        <v>50800</v>
       </c>
       <c r="I66" s="3">
-        <v>86700</v>
+        <v>98400</v>
       </c>
       <c r="J66" s="3">
+        <v>81000</v>
+      </c>
+      <c r="K66" s="3">
         <v>77500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3181,17 +3349,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>489700</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>457400</v>
+      </c>
+      <c r="J70" s="3">
+        <v>429600</v>
+      </c>
+      <c r="K70" s="3">
         <v>459900</v>
       </c>
-      <c r="J70" s="3">
-        <v>459900</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,35 +3422,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-489000</v>
+        <v>-641700</v>
       </c>
       <c r="E72" s="3">
-        <v>-319200</v>
+        <v>-456800</v>
       </c>
       <c r="F72" s="3">
-        <v>-483500</v>
+        <v>-298200</v>
       </c>
       <c r="G72" s="3">
-        <v>-485400</v>
+        <v>-451600</v>
       </c>
       <c r="H72" s="3">
-        <v>-393500</v>
+        <v>-453400</v>
       </c>
       <c r="I72" s="3">
-        <v>-334100</v>
+        <v>-367500</v>
       </c>
       <c r="J72" s="3">
+        <v>-312100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-295300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,35 +3610,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>861300</v>
+        <v>676100</v>
       </c>
       <c r="E76" s="3">
-        <v>887700</v>
+        <v>804500</v>
       </c>
       <c r="F76" s="3">
-        <v>590300</v>
+        <v>829200</v>
       </c>
       <c r="G76" s="3">
-        <v>268800</v>
+        <v>551400</v>
       </c>
       <c r="H76" s="3">
-        <v>-321000</v>
+        <v>251100</v>
       </c>
       <c r="I76" s="3">
-        <v>-256400</v>
+        <v>-299800</v>
       </c>
       <c r="J76" s="3">
+        <v>-239500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-228900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,101 +3704,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-169800</v>
+        <v>-184900</v>
       </c>
       <c r="E81" s="3">
-        <v>166200</v>
+        <v>-158600</v>
       </c>
       <c r="F81" s="3">
-        <v>1900</v>
+        <v>155300</v>
       </c>
       <c r="G81" s="3">
-        <v>-92000</v>
+        <v>1800</v>
       </c>
       <c r="H81" s="3">
-        <v>-234300</v>
+        <v>-85900</v>
       </c>
       <c r="I81" s="3">
-        <v>-38800</v>
+        <v>-218800</v>
       </c>
       <c r="J81" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-135300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-62000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-25500</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +3824,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3646,18 +3845,18 @@
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>1400</v>
       </c>
       <c r="J83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3670,8 +3869,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,8 +4104,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3910,18 +4127,18 @@
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>-127900</v>
       </c>
       <c r="J89" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-61400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-43200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,8 +4172,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3972,18 +4193,18 @@
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-1800</v>
       </c>
       <c r="J91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3996,8 +4217,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,8 +4311,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4104,18 +4334,18 @@
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>31300</v>
       </c>
       <c r="J94" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K94" s="3">
         <v>24900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,8 +4565,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4342,18 +4588,18 @@
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>22500</v>
       </c>
       <c r="J100" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>227800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,8 +4612,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4386,18 +4635,18 @@
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>2200</v>
       </c>
       <c r="J101" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>9200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4410,8 +4659,11 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4430,18 +4682,18 @@
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>-71900</v>
       </c>
       <c r="J102" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-41700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>195300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="92">
   <si>
     <t>IMAB</t>
   </si>
@@ -739,13 +739,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="E8" s="3">
         <v>2600</v>
       </c>
       <c r="F8" s="3">
-        <v>227300</v>
+        <v>225300</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -899,25 +899,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>91400</v>
+        <v>90500</v>
       </c>
       <c r="E12" s="3">
-        <v>87400</v>
+        <v>86600</v>
       </c>
       <c r="F12" s="3">
-        <v>79900</v>
+        <v>79200</v>
       </c>
       <c r="G12" s="3">
-        <v>37700</v>
+        <v>37400</v>
       </c>
       <c r="H12" s="3">
-        <v>65200</v>
+        <v>64600</v>
       </c>
       <c r="I12" s="3">
-        <v>123800</v>
+        <v>122700</v>
       </c>
       <c r="J12" s="3">
-        <v>46200</v>
+        <v>45800</v>
       </c>
       <c r="K12" s="3">
         <v>41800</v>
@@ -1103,25 +1103,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>164300</v>
+        <v>162800</v>
       </c>
       <c r="E17" s="3">
-        <v>153900</v>
+        <v>152500</v>
       </c>
       <c r="F17" s="3">
-        <v>114000</v>
+        <v>112900</v>
       </c>
       <c r="G17" s="3">
-        <v>58300</v>
+        <v>57800</v>
       </c>
       <c r="H17" s="3">
-        <v>90400</v>
+        <v>89600</v>
       </c>
       <c r="I17" s="3">
-        <v>223700</v>
+        <v>221700</v>
       </c>
       <c r="J17" s="3">
-        <v>47400</v>
+        <v>46900</v>
       </c>
       <c r="K17" s="3">
         <v>132500</v>
@@ -1150,25 +1150,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-153900</v>
+        <v>-152500</v>
       </c>
       <c r="E18" s="3">
-        <v>-151300</v>
+        <v>-149900</v>
       </c>
       <c r="F18" s="3">
-        <v>113400</v>
+        <v>112300</v>
       </c>
       <c r="G18" s="3">
-        <v>-58300</v>
+        <v>-57800</v>
       </c>
       <c r="H18" s="3">
-        <v>-90400</v>
+        <v>-89600</v>
       </c>
       <c r="I18" s="3">
-        <v>-219300</v>
+        <v>-217300</v>
       </c>
       <c r="J18" s="3">
-        <v>-45200</v>
+        <v>-44700</v>
       </c>
       <c r="K18" s="3">
         <v>-130100</v>
@@ -1216,25 +1216,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-31000</v>
+        <v>-30700</v>
       </c>
       <c r="E20" s="3">
-        <v>-7800</v>
+        <v>-7700</v>
       </c>
       <c r="F20" s="3">
-        <v>43700</v>
+        <v>43300</v>
       </c>
       <c r="G20" s="3">
-        <v>60100</v>
+        <v>59500</v>
       </c>
       <c r="H20" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="I20" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="J20" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="K20" s="3">
         <v>-4800</v>
@@ -1278,10 +1278,10 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>-212100</v>
+        <v>-210200</v>
       </c>
       <c r="J21" s="3">
-        <v>-35200</v>
+        <v>-34900</v>
       </c>
       <c r="K21" s="3">
         <v>-134200</v>
@@ -1309,8 +1309,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1357,25 +1357,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-185000</v>
+        <v>-183300</v>
       </c>
       <c r="E23" s="3">
-        <v>-159100</v>
+        <v>-157700</v>
       </c>
       <c r="F23" s="3">
-        <v>157100</v>
+        <v>155700</v>
       </c>
       <c r="G23" s="3">
         <v>1800</v>
       </c>
       <c r="H23" s="3">
-        <v>-85900</v>
+        <v>-85100</v>
       </c>
       <c r="I23" s="3">
-        <v>-214000</v>
+        <v>-212000</v>
       </c>
       <c r="J23" s="3">
-        <v>-36300</v>
+        <v>-35900</v>
       </c>
       <c r="K23" s="3">
         <v>-135300</v>
@@ -1498,25 +1498,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-184900</v>
+        <v>-183300</v>
       </c>
       <c r="E26" s="3">
-        <v>-158600</v>
+        <v>-157200</v>
       </c>
       <c r="F26" s="3">
-        <v>155300</v>
+        <v>153900</v>
       </c>
       <c r="G26" s="3">
         <v>1800</v>
       </c>
       <c r="H26" s="3">
-        <v>-85900</v>
+        <v>-85100</v>
       </c>
       <c r="I26" s="3">
-        <v>-214000</v>
+        <v>-212000</v>
       </c>
       <c r="J26" s="3">
-        <v>-36300</v>
+        <v>-35900</v>
       </c>
       <c r="K26" s="3">
         <v>-135300</v>
@@ -1545,25 +1545,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-184900</v>
+        <v>-183300</v>
       </c>
       <c r="E27" s="3">
-        <v>-158600</v>
+        <v>-157200</v>
       </c>
       <c r="F27" s="3">
-        <v>155300</v>
+        <v>153900</v>
       </c>
       <c r="G27" s="3">
         <v>1800</v>
       </c>
       <c r="H27" s="3">
-        <v>-85900</v>
+        <v>-85100</v>
       </c>
       <c r="I27" s="3">
-        <v>-218800</v>
+        <v>-216900</v>
       </c>
       <c r="J27" s="3">
-        <v>-36300</v>
+        <v>-35900</v>
       </c>
       <c r="K27" s="3">
         <v>-135300</v>
@@ -1780,25 +1780,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>31000</v>
+        <v>30700</v>
       </c>
       <c r="E32" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="F32" s="3">
-        <v>-43700</v>
+        <v>-43300</v>
       </c>
       <c r="G32" s="3">
-        <v>-60100</v>
+        <v>-59500</v>
       </c>
       <c r="H32" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="I32" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="J32" s="3">
-        <v>-9000</v>
+        <v>-8900</v>
       </c>
       <c r="K32" s="3">
         <v>4800</v>
@@ -1827,25 +1827,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-184900</v>
+        <v>-183300</v>
       </c>
       <c r="E33" s="3">
-        <v>-158600</v>
+        <v>-157200</v>
       </c>
       <c r="F33" s="3">
-        <v>155300</v>
+        <v>153900</v>
       </c>
       <c r="G33" s="3">
         <v>1800</v>
       </c>
       <c r="H33" s="3">
-        <v>-85900</v>
+        <v>-85100</v>
       </c>
       <c r="I33" s="3">
-        <v>-218800</v>
+        <v>-216900</v>
       </c>
       <c r="J33" s="3">
-        <v>-36300</v>
+        <v>-35900</v>
       </c>
       <c r="K33" s="3">
         <v>-135300</v>
@@ -1921,25 +1921,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-184900</v>
+        <v>-183300</v>
       </c>
       <c r="E35" s="3">
-        <v>-158600</v>
+        <v>-157200</v>
       </c>
       <c r="F35" s="3">
-        <v>155300</v>
+        <v>153900</v>
       </c>
       <c r="G35" s="3">
         <v>1800</v>
       </c>
       <c r="H35" s="3">
-        <v>-85900</v>
+        <v>-85100</v>
       </c>
       <c r="I35" s="3">
-        <v>-218800</v>
+        <v>-216900</v>
       </c>
       <c r="J35" s="3">
-        <v>-36300</v>
+        <v>-35900</v>
       </c>
       <c r="K35" s="3">
         <v>-135300</v>
@@ -2058,25 +2058,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>519200</v>
+        <v>514600</v>
       </c>
       <c r="E41" s="3">
-        <v>639800</v>
+        <v>634100</v>
       </c>
       <c r="F41" s="3">
-        <v>701300</v>
+        <v>694900</v>
       </c>
       <c r="G41" s="3">
-        <v>436200</v>
+        <v>432300</v>
       </c>
       <c r="H41" s="3">
-        <v>229900</v>
+        <v>227800</v>
       </c>
       <c r="I41" s="3">
-        <v>167600</v>
+        <v>166100</v>
       </c>
       <c r="J41" s="3">
-        <v>180400</v>
+        <v>178800</v>
       </c>
       <c r="K41" s="3">
         <v>200200</v>
@@ -2105,10 +2105,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>111000</v>
+        <v>110000</v>
       </c>
       <c r="E42" s="3">
-        <v>62200</v>
+        <v>61700</v>
       </c>
       <c r="F42" s="3">
         <v>4600</v>
@@ -2123,7 +2123,7 @@
         <v>4700</v>
       </c>
       <c r="J42" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2152,16 +2152,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>42300</v>
+        <v>41900</v>
       </c>
       <c r="E43" s="3">
-        <v>35800</v>
+        <v>35500</v>
       </c>
       <c r="F43" s="3">
-        <v>52700</v>
+        <v>52300</v>
       </c>
       <c r="G43" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -2170,7 +2170,7 @@
         <v>4300</v>
       </c>
       <c r="J43" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="K43" s="3">
         <v>18400</v>
@@ -2246,25 +2246,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28100</v>
+        <v>27900</v>
       </c>
       <c r="E45" s="3">
-        <v>30700</v>
+        <v>30400</v>
       </c>
       <c r="F45" s="3">
-        <v>28800</v>
+        <v>28500</v>
       </c>
       <c r="G45" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="H45" s="3">
-        <v>19300</v>
+        <v>19100</v>
       </c>
       <c r="I45" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="J45" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="K45" s="3">
         <v>34500</v>
@@ -2293,25 +2293,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>704600</v>
+        <v>698300</v>
       </c>
       <c r="E46" s="3">
-        <v>768600</v>
+        <v>761700</v>
       </c>
       <c r="F46" s="3">
-        <v>787400</v>
+        <v>780300</v>
       </c>
       <c r="G46" s="3">
-        <v>472800</v>
+        <v>468500</v>
       </c>
       <c r="H46" s="3">
-        <v>249500</v>
+        <v>247200</v>
       </c>
       <c r="I46" s="3">
-        <v>200600</v>
+        <v>198800</v>
       </c>
       <c r="J46" s="3">
-        <v>218600</v>
+        <v>216600</v>
       </c>
       <c r="K46" s="3">
         <v>253100</v>
@@ -2340,16 +2340,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56000</v>
+        <v>51400</v>
       </c>
       <c r="E47" s="3">
-        <v>85200</v>
+        <v>84400</v>
       </c>
       <c r="F47" s="3">
-        <v>98000</v>
+        <v>97100</v>
       </c>
       <c r="G47" s="3">
-        <v>112400</v>
+        <v>111400</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2387,10 +2387,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23400</v>
+        <v>23100</v>
       </c>
       <c r="E48" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="F48" s="3">
         <v>5900</v>
@@ -2402,10 +2402,10 @@
         <v>6500</v>
       </c>
       <c r="I48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="J48" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="K48" s="3">
         <v>6200</v>
@@ -2434,25 +2434,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>41300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>41300</v>
+      </c>
+      <c r="G49" s="3">
         <v>41600</v>
       </c>
-      <c r="E49" s="3">
-        <v>41600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>41700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>41900</v>
-      </c>
       <c r="H49" s="3">
-        <v>45900</v>
+        <v>45500</v>
       </c>
       <c r="I49" s="3">
-        <v>45900</v>
+        <v>45500</v>
       </c>
       <c r="J49" s="3">
-        <v>45900</v>
+        <v>45500</v>
       </c>
       <c r="K49" s="3">
         <v>49100</v>
@@ -2669,25 +2669,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>829600</v>
+        <v>817900</v>
       </c>
       <c r="E54" s="3">
-        <v>906000</v>
+        <v>897800</v>
       </c>
       <c r="F54" s="3">
-        <v>933300</v>
+        <v>924900</v>
       </c>
       <c r="G54" s="3">
-        <v>633400</v>
+        <v>627600</v>
       </c>
       <c r="H54" s="3">
-        <v>301900</v>
+        <v>299200</v>
       </c>
       <c r="I54" s="3">
-        <v>256000</v>
+        <v>253700</v>
       </c>
       <c r="J54" s="3">
-        <v>271100</v>
+        <v>268600</v>
       </c>
       <c r="K54" s="3">
         <v>308500</v>
@@ -2754,19 +2754,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>87400</v>
+        <v>86600</v>
       </c>
       <c r="E57" s="3">
-        <v>79000</v>
+        <v>78300</v>
       </c>
       <c r="F57" s="3">
-        <v>82600</v>
+        <v>81900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H57" s="3">
-        <v>35800</v>
+        <v>35500</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2800,8 +2800,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="J58" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="K58" s="3">
         <v>7900</v>
@@ -2857,16 +2857,16 @@
         <v>2300</v>
       </c>
       <c r="G59" s="3">
-        <v>51500</v>
+        <v>51000</v>
       </c>
       <c r="H59" s="3">
         <v>1200</v>
       </c>
       <c r="I59" s="3">
-        <v>79400</v>
+        <v>78600</v>
       </c>
       <c r="J59" s="3">
-        <v>61900</v>
+        <v>61400</v>
       </c>
       <c r="K59" s="3">
         <v>57300</v>
@@ -2895,25 +2895,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>92000</v>
+        <v>91100</v>
       </c>
       <c r="E60" s="3">
-        <v>81100</v>
+        <v>80400</v>
       </c>
       <c r="F60" s="3">
-        <v>84900</v>
+        <v>84100</v>
       </c>
       <c r="G60" s="3">
-        <v>51500</v>
+        <v>51000</v>
       </c>
       <c r="H60" s="3">
-        <v>37000</v>
+        <v>36700</v>
       </c>
       <c r="I60" s="3">
-        <v>86700</v>
+        <v>85900</v>
       </c>
       <c r="J60" s="3">
-        <v>69300</v>
+        <v>68700</v>
       </c>
       <c r="K60" s="3">
         <v>65200</v>
@@ -2954,13 +2954,13 @@
         <v>9500</v>
       </c>
       <c r="H61" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="I61" s="3">
         <v>10000</v>
       </c>
       <c r="J61" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="K61" s="3">
         <v>10600</v>
@@ -2989,16 +2989,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61500</v>
+        <v>61000</v>
       </c>
       <c r="E62" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="F62" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="G62" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="H62" s="3">
         <v>3600</v>
@@ -3177,25 +3177,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>153500</v>
+        <v>152100</v>
       </c>
       <c r="E66" s="3">
-        <v>101400</v>
+        <v>100500</v>
       </c>
       <c r="F66" s="3">
-        <v>104100</v>
+        <v>103200</v>
       </c>
       <c r="G66" s="3">
-        <v>82000</v>
+        <v>81300</v>
       </c>
       <c r="H66" s="3">
-        <v>50800</v>
+        <v>50400</v>
       </c>
       <c r="I66" s="3">
-        <v>98400</v>
+        <v>97600</v>
       </c>
       <c r="J66" s="3">
-        <v>81000</v>
+        <v>80300</v>
       </c>
       <c r="K66" s="3">
         <v>77500</v>
@@ -3352,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>457400</v>
+        <v>453300</v>
       </c>
       <c r="J70" s="3">
-        <v>429600</v>
+        <v>425700</v>
       </c>
       <c r="K70" s="3">
         <v>459900</v>
@@ -3431,25 +3431,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-641700</v>
+        <v>-635900</v>
       </c>
       <c r="E72" s="3">
-        <v>-456800</v>
+        <v>-452700</v>
       </c>
       <c r="F72" s="3">
-        <v>-298200</v>
+        <v>-295500</v>
       </c>
       <c r="G72" s="3">
-        <v>-451600</v>
+        <v>-447600</v>
       </c>
       <c r="H72" s="3">
-        <v>-453400</v>
+        <v>-449300</v>
       </c>
       <c r="I72" s="3">
-        <v>-367500</v>
+        <v>-364200</v>
       </c>
       <c r="J72" s="3">
-        <v>-312100</v>
+        <v>-309300</v>
       </c>
       <c r="K72" s="3">
         <v>-295300</v>
@@ -3619,25 +3619,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>676100</v>
+        <v>665800</v>
       </c>
       <c r="E76" s="3">
-        <v>804500</v>
+        <v>797300</v>
       </c>
       <c r="F76" s="3">
-        <v>829200</v>
+        <v>821700</v>
       </c>
       <c r="G76" s="3">
-        <v>551400</v>
+        <v>546400</v>
       </c>
       <c r="H76" s="3">
-        <v>251100</v>
+        <v>248800</v>
       </c>
       <c r="I76" s="3">
-        <v>-299800</v>
+        <v>-297100</v>
       </c>
       <c r="J76" s="3">
-        <v>-239500</v>
+        <v>-237300</v>
       </c>
       <c r="K76" s="3">
         <v>-228900</v>
@@ -3765,25 +3765,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-184900</v>
+        <v>-183300</v>
       </c>
       <c r="E81" s="3">
-        <v>-158600</v>
+        <v>-157200</v>
       </c>
       <c r="F81" s="3">
-        <v>155300</v>
+        <v>153900</v>
       </c>
       <c r="G81" s="3">
         <v>1800</v>
       </c>
       <c r="H81" s="3">
-        <v>-85900</v>
+        <v>-85100</v>
       </c>
       <c r="I81" s="3">
-        <v>-218800</v>
+        <v>-216900</v>
       </c>
       <c r="J81" s="3">
-        <v>-36300</v>
+        <v>-35900</v>
       </c>
       <c r="K81" s="3">
         <v>-135300</v>
@@ -4128,10 +4128,10 @@
         <v>3</v>
       </c>
       <c r="I89" s="3">
-        <v>-127900</v>
+        <v>-126800</v>
       </c>
       <c r="J89" s="3">
-        <v>-96100</v>
+        <v>-95200</v>
       </c>
       <c r="K89" s="3">
         <v>-61400</v>
@@ -4335,10 +4335,10 @@
         <v>3</v>
       </c>
       <c r="I94" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="J94" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="K94" s="3">
         <v>24900</v>
@@ -4589,7 +4589,7 @@
         <v>3</v>
       </c>
       <c r="I100" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="J100" s="3">
         <v>5800</v>
@@ -4639,7 +4639,7 @@
         <v>2200</v>
       </c>
       <c r="J101" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -4683,10 +4683,10 @@
         <v>3</v>
       </c>
       <c r="I102" s="3">
-        <v>-71900</v>
+        <v>-71200</v>
       </c>
       <c r="J102" s="3">
-        <v>-58900</v>
+        <v>-58400</v>
       </c>
       <c r="K102" s="3">
         <v>-41700</v>

--- a/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="92">
   <si>
     <t>IMAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>10300</v>
+        <v>7200</v>
       </c>
       <c r="E8" s="3">
-        <v>2600</v>
+        <v>9800</v>
       </c>
       <c r="F8" s="3">
-        <v>225300</v>
+        <v>2500</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>214700</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6800</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+        <v>3800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6500</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -827,16 +834,19 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3500</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+        <v>3400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3300</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,55 +906,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>90500</v>
+        <v>63000</v>
       </c>
       <c r="E12" s="3">
-        <v>86600</v>
+        <v>86300</v>
       </c>
       <c r="F12" s="3">
-        <v>79200</v>
+        <v>82500</v>
       </c>
       <c r="G12" s="3">
-        <v>37400</v>
+        <v>75500</v>
       </c>
       <c r="H12" s="3">
-        <v>64600</v>
+        <v>35700</v>
       </c>
       <c r="I12" s="3">
-        <v>122700</v>
+        <v>61600</v>
       </c>
       <c r="J12" s="3">
+        <v>117000</v>
+      </c>
+      <c r="K12" s="3">
         <v>45800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>41800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>65600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>17100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>31000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,11 +1027,11 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1028,14 +1048,17 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,102 +1123,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>162800</v>
+        <v>121400</v>
       </c>
       <c r="E17" s="3">
-        <v>152500</v>
+        <v>155200</v>
       </c>
       <c r="F17" s="3">
-        <v>112900</v>
+        <v>145400</v>
       </c>
       <c r="G17" s="3">
-        <v>57800</v>
+        <v>107700</v>
       </c>
       <c r="H17" s="3">
-        <v>89600</v>
+        <v>55100</v>
       </c>
       <c r="I17" s="3">
-        <v>221700</v>
+        <v>85400</v>
       </c>
       <c r="J17" s="3">
+        <v>211300</v>
+      </c>
+      <c r="K17" s="3">
         <v>46900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>132500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>75800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>33800</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-152500</v>
+        <v>-114200</v>
       </c>
       <c r="E18" s="3">
-        <v>-149900</v>
+        <v>-145400</v>
       </c>
       <c r="F18" s="3">
-        <v>112300</v>
+        <v>-142900</v>
       </c>
       <c r="G18" s="3">
-        <v>-57800</v>
+        <v>107100</v>
       </c>
       <c r="H18" s="3">
-        <v>-89600</v>
+        <v>-55100</v>
       </c>
       <c r="I18" s="3">
-        <v>-217300</v>
+        <v>-85400</v>
       </c>
       <c r="J18" s="3">
+        <v>-207100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-44700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-130100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-67500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-17100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-30600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,55 +1243,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-30700</v>
+        <v>-31500</v>
       </c>
       <c r="E20" s="3">
-        <v>-7700</v>
+        <v>-29300</v>
       </c>
       <c r="F20" s="3">
-        <v>43300</v>
+        <v>-7400</v>
       </c>
       <c r="G20" s="3">
-        <v>59500</v>
+        <v>41300</v>
       </c>
       <c r="H20" s="3">
-        <v>4600</v>
+        <v>56800</v>
       </c>
       <c r="I20" s="3">
-        <v>5700</v>
+        <v>4400</v>
       </c>
       <c r="J20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K20" s="3">
         <v>8900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1274,43 +1311,46 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-210200</v>
+      <c r="H21" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J21" s="3">
+        <v>-200300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-34900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-134200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-58900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-23900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1322,84 +1362,90 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-183300</v>
+        <v>-145700</v>
       </c>
       <c r="E23" s="3">
-        <v>-157700</v>
+        <v>-174700</v>
       </c>
       <c r="F23" s="3">
-        <v>155700</v>
+        <v>-150300</v>
       </c>
       <c r="G23" s="3">
-        <v>1800</v>
+        <v>148400</v>
       </c>
       <c r="H23" s="3">
-        <v>-85100</v>
+        <v>1700</v>
       </c>
       <c r="I23" s="3">
-        <v>-212000</v>
+        <v>-81100</v>
       </c>
       <c r="J23" s="3">
+        <v>-202100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-35900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-135300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-61800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25500</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1407,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>1800</v>
+        <v>-400</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1428,16 +1474,16 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,102 +1541,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-183300</v>
+        <v>-145700</v>
       </c>
       <c r="E26" s="3">
-        <v>-157200</v>
+        <v>-174700</v>
       </c>
       <c r="F26" s="3">
-        <v>153900</v>
+        <v>-149800</v>
       </c>
       <c r="G26" s="3">
-        <v>1800</v>
+        <v>146700</v>
       </c>
       <c r="H26" s="3">
-        <v>-85100</v>
+        <v>1700</v>
       </c>
       <c r="I26" s="3">
-        <v>-212000</v>
+        <v>-81100</v>
       </c>
       <c r="J26" s="3">
+        <v>-202100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-35900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-135300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-62000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-183300</v>
+        <v>-145700</v>
       </c>
       <c r="E27" s="3">
-        <v>-157200</v>
+        <v>-174700</v>
       </c>
       <c r="F27" s="3">
-        <v>153900</v>
+        <v>-149800</v>
       </c>
       <c r="G27" s="3">
-        <v>1800</v>
+        <v>146700</v>
       </c>
       <c r="H27" s="3">
-        <v>-85100</v>
+        <v>1700</v>
       </c>
       <c r="I27" s="3">
-        <v>-216900</v>
+        <v>-81100</v>
       </c>
       <c r="J27" s="3">
+        <v>-206700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-35900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-135300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-62000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-25500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,102 +1841,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>30700</v>
+        <v>31500</v>
       </c>
       <c r="E32" s="3">
-        <v>7700</v>
+        <v>29300</v>
       </c>
       <c r="F32" s="3">
-        <v>-43300</v>
+        <v>7400</v>
       </c>
       <c r="G32" s="3">
-        <v>-59500</v>
+        <v>-41300</v>
       </c>
       <c r="H32" s="3">
-        <v>-4600</v>
+        <v>-56800</v>
       </c>
       <c r="I32" s="3">
-        <v>-5700</v>
+        <v>-4400</v>
       </c>
       <c r="J32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-183300</v>
+        <v>-145700</v>
       </c>
       <c r="E33" s="3">
-        <v>-157200</v>
+        <v>-174700</v>
       </c>
       <c r="F33" s="3">
-        <v>153900</v>
+        <v>-149800</v>
       </c>
       <c r="G33" s="3">
-        <v>1800</v>
+        <v>146700</v>
       </c>
       <c r="H33" s="3">
-        <v>-85100</v>
+        <v>1700</v>
       </c>
       <c r="I33" s="3">
-        <v>-216900</v>
+        <v>-81100</v>
       </c>
       <c r="J33" s="3">
+        <v>-206700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-35900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-135300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-62000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-25500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,107 +1991,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-183300</v>
+        <v>-145700</v>
       </c>
       <c r="E35" s="3">
-        <v>-157200</v>
+        <v>-174700</v>
       </c>
       <c r="F35" s="3">
-        <v>153900</v>
+        <v>-149800</v>
       </c>
       <c r="G35" s="3">
-        <v>1800</v>
+        <v>146700</v>
       </c>
       <c r="H35" s="3">
-        <v>-85100</v>
+        <v>1700</v>
       </c>
       <c r="I35" s="3">
-        <v>-216900</v>
+        <v>-81100</v>
       </c>
       <c r="J35" s="3">
+        <v>-206700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-35900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-135300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-62000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-25500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,38 +2138,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>514600</v>
+        <v>516600</v>
       </c>
       <c r="E41" s="3">
-        <v>634100</v>
+        <v>490500</v>
       </c>
       <c r="F41" s="3">
-        <v>694900</v>
+        <v>604400</v>
       </c>
       <c r="G41" s="3">
-        <v>432300</v>
+        <v>662400</v>
       </c>
       <c r="H41" s="3">
-        <v>227800</v>
+        <v>412000</v>
       </c>
       <c r="I41" s="3">
-        <v>166100</v>
+        <v>217200</v>
       </c>
       <c r="J41" s="3">
+        <v>158300</v>
+      </c>
+      <c r="K41" s="3">
         <v>178800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,37 +2186,40 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>110000</v>
+        <v>29400</v>
       </c>
       <c r="E42" s="3">
-        <v>61700</v>
+        <v>104800</v>
       </c>
       <c r="F42" s="3">
-        <v>4600</v>
+        <v>58800</v>
       </c>
       <c r="G42" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="H42" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I42" s="3">
         <v>300</v>
       </c>
-      <c r="I42" s="3">
-        <v>4700</v>
-      </c>
       <c r="J42" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K42" s="3">
         <v>7700</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
@@ -2146,38 +2236,41 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>41900</v>
+        <v>40600</v>
       </c>
       <c r="E43" s="3">
-        <v>35500</v>
+        <v>39900</v>
       </c>
       <c r="F43" s="3">
-        <v>52300</v>
+        <v>33800</v>
       </c>
       <c r="G43" s="3">
-        <v>11300</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4300</v>
+        <v>49800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K43" s="3">
         <v>12300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,16 +2286,19 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3800</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -2219,8 +2315,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2240,38 +2336,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27900</v>
+        <v>14100</v>
       </c>
       <c r="E45" s="3">
-        <v>30400</v>
+        <v>26600</v>
       </c>
       <c r="F45" s="3">
-        <v>28500</v>
+        <v>29000</v>
       </c>
       <c r="G45" s="3">
-        <v>20800</v>
+        <v>27200</v>
       </c>
       <c r="H45" s="3">
-        <v>19100</v>
+        <v>19800</v>
       </c>
       <c r="I45" s="3">
-        <v>23700</v>
+        <v>18300</v>
       </c>
       <c r="J45" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K45" s="3">
         <v>17800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,38 +2386,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>698300</v>
+        <v>600600</v>
       </c>
       <c r="E46" s="3">
-        <v>761700</v>
+        <v>665600</v>
       </c>
       <c r="F46" s="3">
-        <v>780300</v>
+        <v>726000</v>
       </c>
       <c r="G46" s="3">
-        <v>468500</v>
+        <v>743800</v>
       </c>
       <c r="H46" s="3">
-        <v>247200</v>
+        <v>446600</v>
       </c>
       <c r="I46" s="3">
-        <v>198800</v>
+        <v>235700</v>
       </c>
       <c r="J46" s="3">
+        <v>189500</v>
+      </c>
+      <c r="K46" s="3">
         <v>216600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>253100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,25 +2436,28 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>51400</v>
+        <v>30300</v>
       </c>
       <c r="E47" s="3">
-        <v>84400</v>
+        <v>49000</v>
       </c>
       <c r="F47" s="3">
-        <v>97100</v>
+        <v>80500</v>
       </c>
       <c r="G47" s="3">
-        <v>111400</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>92500</v>
+      </c>
+      <c r="H47" s="3">
+        <v>106200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2366,8 +2471,8 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2381,38 +2486,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23100</v>
+        <v>22600</v>
       </c>
       <c r="E48" s="3">
-        <v>9600</v>
+        <v>22100</v>
       </c>
       <c r="F48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H48" s="3">
         <v>5900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>6500</v>
       </c>
-      <c r="I48" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,38 +2536,41 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>41200</v>
+        <v>39200</v>
       </c>
       <c r="E49" s="3">
-        <v>41300</v>
+        <v>39300</v>
       </c>
       <c r="F49" s="3">
-        <v>41300</v>
+        <v>39300</v>
       </c>
       <c r="G49" s="3">
-        <v>41600</v>
+        <v>39400</v>
       </c>
       <c r="H49" s="3">
+        <v>39600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>43300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K49" s="3">
         <v>45500</v>
       </c>
-      <c r="I49" s="3">
-        <v>45500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>45500</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>49100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,35 +2686,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3900</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,38 +2786,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>817900</v>
+        <v>694800</v>
       </c>
       <c r="E54" s="3">
-        <v>897800</v>
+        <v>779700</v>
       </c>
       <c r="F54" s="3">
-        <v>924900</v>
+        <v>855800</v>
       </c>
       <c r="G54" s="3">
-        <v>627600</v>
+        <v>881700</v>
       </c>
       <c r="H54" s="3">
-        <v>299200</v>
+        <v>598300</v>
       </c>
       <c r="I54" s="3">
-        <v>253700</v>
+        <v>285200</v>
       </c>
       <c r="J54" s="3">
+        <v>241900</v>
+      </c>
+      <c r="K54" s="3">
         <v>268600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>308500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,28 +2878,29 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>86600</v>
+        <v>76200</v>
       </c>
       <c r="E57" s="3">
-        <v>78300</v>
+        <v>82600</v>
       </c>
       <c r="F57" s="3">
-        <v>81900</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3">
-        <v>35500</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>74600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>78000</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3">
+        <v>33800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2786,8 +2917,8 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -2795,13 +2926,16 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2816,17 +2950,17 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K58" s="3">
         <v>7300</v>
       </c>
-      <c r="J58" s="3">
-        <v>7300</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,38 +2976,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4500</v>
+        <v>5900</v>
       </c>
       <c r="E59" s="3">
-        <v>2100</v>
+        <v>4300</v>
       </c>
       <c r="F59" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="G59" s="3">
-        <v>51000</v>
+        <v>2200</v>
       </c>
       <c r="H59" s="3">
-        <v>1200</v>
+        <v>48600</v>
       </c>
       <c r="I59" s="3">
-        <v>78600</v>
+        <v>1100</v>
       </c>
       <c r="J59" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K59" s="3">
         <v>61400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>57300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,38 +3026,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>91100</v>
+        <v>82100</v>
       </c>
       <c r="E60" s="3">
-        <v>80400</v>
+        <v>86900</v>
       </c>
       <c r="F60" s="3">
-        <v>84100</v>
+        <v>76600</v>
       </c>
       <c r="G60" s="3">
-        <v>51000</v>
+        <v>80200</v>
       </c>
       <c r="H60" s="3">
-        <v>36700</v>
+        <v>48600</v>
       </c>
       <c r="I60" s="3">
-        <v>85900</v>
+        <v>35000</v>
       </c>
       <c r="J60" s="3">
+        <v>81900</v>
+      </c>
+      <c r="K60" s="3">
         <v>68700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>65200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,8 +3076,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2951,23 +3094,23 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J61" s="3">
         <v>9500</v>
       </c>
-      <c r="H61" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2983,38 +3126,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61000</v>
+        <v>53700</v>
       </c>
       <c r="E62" s="3">
-        <v>20100</v>
+        <v>58100</v>
       </c>
       <c r="F62" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="G62" s="3">
-        <v>20800</v>
+        <v>18200</v>
       </c>
       <c r="H62" s="3">
-        <v>3600</v>
+        <v>19800</v>
       </c>
       <c r="I62" s="3">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="J62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,38 +3326,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>152100</v>
+        <v>135800</v>
       </c>
       <c r="E66" s="3">
-        <v>100500</v>
+        <v>145000</v>
       </c>
       <c r="F66" s="3">
-        <v>103200</v>
+        <v>95800</v>
       </c>
       <c r="G66" s="3">
-        <v>81300</v>
+        <v>98400</v>
       </c>
       <c r="H66" s="3">
-        <v>50400</v>
+        <v>77500</v>
       </c>
       <c r="I66" s="3">
-        <v>97600</v>
+        <v>48000</v>
       </c>
       <c r="J66" s="3">
+        <v>93000</v>
+      </c>
+      <c r="K66" s="3">
         <v>80300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>77500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3352,17 +3520,17 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>453300</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>432100</v>
+      </c>
+      <c r="K70" s="3">
         <v>425700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>459900</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,38 +3596,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-635900</v>
+        <v>-751900</v>
       </c>
       <c r="E72" s="3">
-        <v>-452700</v>
+        <v>-606200</v>
       </c>
       <c r="F72" s="3">
-        <v>-295500</v>
+        <v>-431500</v>
       </c>
       <c r="G72" s="3">
-        <v>-447600</v>
+        <v>-281600</v>
       </c>
       <c r="H72" s="3">
-        <v>-449300</v>
+        <v>-426600</v>
       </c>
       <c r="I72" s="3">
-        <v>-364200</v>
+        <v>-428300</v>
       </c>
       <c r="J72" s="3">
+        <v>-347200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-309300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-295300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,38 +3796,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>665800</v>
+        <v>559000</v>
       </c>
       <c r="E76" s="3">
-        <v>797300</v>
+        <v>634700</v>
       </c>
       <c r="F76" s="3">
-        <v>821700</v>
+        <v>760000</v>
       </c>
       <c r="G76" s="3">
-        <v>546400</v>
+        <v>783300</v>
       </c>
       <c r="H76" s="3">
-        <v>248800</v>
+        <v>520800</v>
       </c>
       <c r="I76" s="3">
-        <v>-297100</v>
+        <v>237200</v>
       </c>
       <c r="J76" s="3">
+        <v>-283200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-237300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-228900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,107 +3896,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-183300</v>
+        <v>-145700</v>
       </c>
       <c r="E81" s="3">
-        <v>-157200</v>
+        <v>-174700</v>
       </c>
       <c r="F81" s="3">
-        <v>153900</v>
+        <v>-149800</v>
       </c>
       <c r="G81" s="3">
-        <v>1800</v>
+        <v>146700</v>
       </c>
       <c r="H81" s="3">
-        <v>-85100</v>
+        <v>1700</v>
       </c>
       <c r="I81" s="3">
-        <v>-216900</v>
+        <v>-81100</v>
       </c>
       <c r="J81" s="3">
+        <v>-206700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-35900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-135300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-62000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-25500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,8 +4023,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3842,24 +4041,24 @@
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="H83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>1400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3872,8 +4071,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,8 +4321,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4124,24 +4341,24 @@
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-126800</v>
+      <c r="H89" s="3">
+        <v>-81100</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3">
+        <v>-120800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-95200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-61400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-43200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,8 +4393,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4190,24 +4411,24 @@
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1800</v>
+      <c r="H91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4441,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,8 +4541,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4331,24 +4561,24 @@
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3">
-        <v>31000</v>
+      <c r="H94" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K94" s="3">
         <v>19700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>24900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,8 +4811,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4585,24 +4831,24 @@
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3">
-        <v>22300</v>
+      <c r="H100" s="3">
+        <v>361300</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K100" s="3">
         <v>5800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>227800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4615,8 +4861,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4632,24 +4881,24 @@
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2200</v>
+      <c r="H101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K101" s="3">
         <v>11300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>9200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4662,8 +4911,11 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4679,24 +4931,24 @@
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-71200</v>
+      <c r="H102" s="3">
+        <v>245900</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-58400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-41700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>195300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
@@ -743,16 +743,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="E8" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="F8" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G8" s="3">
-        <v>214700</v>
+        <v>221600</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K8" s="3">
         <v>2200</v>
@@ -793,10 +793,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E9" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -843,10 +843,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E10" s="3">
         <v>3400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3300</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -913,25 +913,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>63000</v>
+        <v>65000</v>
       </c>
       <c r="E12" s="3">
-        <v>86300</v>
+        <v>89000</v>
       </c>
       <c r="F12" s="3">
-        <v>82500</v>
+        <v>85200</v>
       </c>
       <c r="G12" s="3">
-        <v>75500</v>
+        <v>77900</v>
       </c>
       <c r="H12" s="3">
-        <v>35700</v>
+        <v>36800</v>
       </c>
       <c r="I12" s="3">
-        <v>61600</v>
+        <v>63500</v>
       </c>
       <c r="J12" s="3">
-        <v>117000</v>
+        <v>120700</v>
       </c>
       <c r="K12" s="3">
         <v>45800</v>
@@ -1031,7 +1031,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1130,25 +1130,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>121400</v>
+        <v>125300</v>
       </c>
       <c r="E17" s="3">
-        <v>155200</v>
+        <v>160100</v>
       </c>
       <c r="F17" s="3">
-        <v>145400</v>
+        <v>150000</v>
       </c>
       <c r="G17" s="3">
-        <v>107700</v>
+        <v>111100</v>
       </c>
       <c r="H17" s="3">
-        <v>55100</v>
+        <v>56800</v>
       </c>
       <c r="I17" s="3">
-        <v>85400</v>
+        <v>88100</v>
       </c>
       <c r="J17" s="3">
-        <v>211300</v>
+        <v>218000</v>
       </c>
       <c r="K17" s="3">
         <v>46900</v>
@@ -1180,25 +1180,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-114200</v>
+        <v>-117800</v>
       </c>
       <c r="E18" s="3">
-        <v>-145400</v>
+        <v>-150000</v>
       </c>
       <c r="F18" s="3">
-        <v>-142900</v>
+        <v>-147500</v>
       </c>
       <c r="G18" s="3">
-        <v>107100</v>
+        <v>110500</v>
       </c>
       <c r="H18" s="3">
-        <v>-55100</v>
+        <v>-56800</v>
       </c>
       <c r="I18" s="3">
-        <v>-85400</v>
+        <v>-88100</v>
       </c>
       <c r="J18" s="3">
-        <v>-207100</v>
+        <v>-213700</v>
       </c>
       <c r="K18" s="3">
         <v>-44700</v>
@@ -1250,25 +1250,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-31500</v>
+        <v>-32500</v>
       </c>
       <c r="E20" s="3">
-        <v>-29300</v>
+        <v>-30200</v>
       </c>
       <c r="F20" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="G20" s="3">
-        <v>41300</v>
+        <v>42600</v>
       </c>
       <c r="H20" s="3">
-        <v>56800</v>
+        <v>58600</v>
       </c>
       <c r="I20" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="J20" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="K20" s="3">
         <v>8900</v>
@@ -1312,13 +1312,13 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>-200300</v>
+        <v>-206700</v>
       </c>
       <c r="K21" s="3">
         <v>-34900</v>
@@ -1400,25 +1400,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-145700</v>
+        <v>-150300</v>
       </c>
       <c r="E23" s="3">
-        <v>-174700</v>
+        <v>-180300</v>
       </c>
       <c r="F23" s="3">
-        <v>-150300</v>
+        <v>-155100</v>
       </c>
       <c r="G23" s="3">
-        <v>148400</v>
+        <v>153100</v>
       </c>
       <c r="H23" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I23" s="3">
-        <v>-81100</v>
+        <v>-83700</v>
       </c>
       <c r="J23" s="3">
-        <v>-202100</v>
+        <v>-208500</v>
       </c>
       <c r="K23" s="3">
         <v>-35900</v>
@@ -1459,7 +1459,7 @@
         <v>-400</v>
       </c>
       <c r="G24" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1550,25 +1550,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-145700</v>
+        <v>-150300</v>
       </c>
       <c r="E26" s="3">
-        <v>-174700</v>
+        <v>-180300</v>
       </c>
       <c r="F26" s="3">
-        <v>-149800</v>
+        <v>-154600</v>
       </c>
       <c r="G26" s="3">
-        <v>146700</v>
+        <v>151300</v>
       </c>
       <c r="H26" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I26" s="3">
-        <v>-81100</v>
+        <v>-83700</v>
       </c>
       <c r="J26" s="3">
-        <v>-202100</v>
+        <v>-208500</v>
       </c>
       <c r="K26" s="3">
         <v>-35900</v>
@@ -1600,25 +1600,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-145700</v>
+        <v>-150300</v>
       </c>
       <c r="E27" s="3">
-        <v>-174700</v>
+        <v>-180300</v>
       </c>
       <c r="F27" s="3">
-        <v>-149800</v>
+        <v>-154600</v>
       </c>
       <c r="G27" s="3">
-        <v>146700</v>
+        <v>151300</v>
       </c>
       <c r="H27" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I27" s="3">
-        <v>-81100</v>
+        <v>-83700</v>
       </c>
       <c r="J27" s="3">
-        <v>-206700</v>
+        <v>-213300</v>
       </c>
       <c r="K27" s="3">
         <v>-35900</v>
@@ -1850,25 +1850,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>31500</v>
+        <v>32500</v>
       </c>
       <c r="E32" s="3">
-        <v>29300</v>
+        <v>30200</v>
       </c>
       <c r="F32" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="G32" s="3">
-        <v>-41300</v>
+        <v>-42600</v>
       </c>
       <c r="H32" s="3">
-        <v>-56800</v>
+        <v>-58600</v>
       </c>
       <c r="I32" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="J32" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="K32" s="3">
         <v>-8900</v>
@@ -1900,25 +1900,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-145700</v>
+        <v>-150300</v>
       </c>
       <c r="E33" s="3">
-        <v>-174700</v>
+        <v>-180300</v>
       </c>
       <c r="F33" s="3">
-        <v>-149800</v>
+        <v>-154600</v>
       </c>
       <c r="G33" s="3">
-        <v>146700</v>
+        <v>151300</v>
       </c>
       <c r="H33" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I33" s="3">
-        <v>-81100</v>
+        <v>-83700</v>
       </c>
       <c r="J33" s="3">
-        <v>-206700</v>
+        <v>-213300</v>
       </c>
       <c r="K33" s="3">
         <v>-35900</v>
@@ -2000,25 +2000,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-145700</v>
+        <v>-150300</v>
       </c>
       <c r="E35" s="3">
-        <v>-174700</v>
+        <v>-180300</v>
       </c>
       <c r="F35" s="3">
-        <v>-149800</v>
+        <v>-154600</v>
       </c>
       <c r="G35" s="3">
-        <v>146700</v>
+        <v>151300</v>
       </c>
       <c r="H35" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I35" s="3">
-        <v>-81100</v>
+        <v>-83700</v>
       </c>
       <c r="J35" s="3">
-        <v>-206700</v>
+        <v>-213300</v>
       </c>
       <c r="K35" s="3">
         <v>-35900</v>
@@ -2145,25 +2145,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>516600</v>
+        <v>533000</v>
       </c>
       <c r="E41" s="3">
-        <v>490500</v>
+        <v>506100</v>
       </c>
       <c r="F41" s="3">
-        <v>604400</v>
+        <v>623600</v>
       </c>
       <c r="G41" s="3">
-        <v>662400</v>
+        <v>683500</v>
       </c>
       <c r="H41" s="3">
-        <v>412000</v>
+        <v>425100</v>
       </c>
       <c r="I41" s="3">
-        <v>217200</v>
+        <v>224100</v>
       </c>
       <c r="J41" s="3">
-        <v>158300</v>
+        <v>163400</v>
       </c>
       <c r="K41" s="3">
         <v>178800</v>
@@ -2195,25 +2195,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29400</v>
+        <v>30300</v>
       </c>
       <c r="E42" s="3">
-        <v>104800</v>
+        <v>108200</v>
       </c>
       <c r="F42" s="3">
-        <v>58800</v>
+        <v>60700</v>
       </c>
       <c r="G42" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H42" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I42" s="3">
         <v>300</v>
       </c>
       <c r="J42" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="K42" s="3">
         <v>7700</v>
@@ -2245,25 +2245,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40600</v>
+        <v>41900</v>
       </c>
       <c r="E43" s="3">
-        <v>39900</v>
+        <v>41200</v>
       </c>
       <c r="F43" s="3">
-        <v>33800</v>
+        <v>34900</v>
       </c>
       <c r="G43" s="3">
-        <v>49800</v>
+        <v>51400</v>
       </c>
       <c r="H43" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J43" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K43" s="3">
         <v>12300</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -2345,25 +2345,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="E45" s="3">
-        <v>26600</v>
+        <v>27400</v>
       </c>
       <c r="F45" s="3">
-        <v>29000</v>
+        <v>29900</v>
       </c>
       <c r="G45" s="3">
-        <v>27200</v>
+        <v>28100</v>
       </c>
       <c r="H45" s="3">
-        <v>19800</v>
+        <v>20500</v>
       </c>
       <c r="I45" s="3">
-        <v>18300</v>
+        <v>18800</v>
       </c>
       <c r="J45" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="K45" s="3">
         <v>17800</v>
@@ -2395,25 +2395,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>600600</v>
+        <v>619700</v>
       </c>
       <c r="E46" s="3">
-        <v>665600</v>
+        <v>686800</v>
       </c>
       <c r="F46" s="3">
-        <v>726000</v>
+        <v>749100</v>
       </c>
       <c r="G46" s="3">
-        <v>743800</v>
+        <v>767500</v>
       </c>
       <c r="H46" s="3">
-        <v>446600</v>
+        <v>460800</v>
       </c>
       <c r="I46" s="3">
-        <v>235700</v>
+        <v>243200</v>
       </c>
       <c r="J46" s="3">
-        <v>189500</v>
+        <v>195500</v>
       </c>
       <c r="K46" s="3">
         <v>216600</v>
@@ -2445,19 +2445,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>30300</v>
+        <v>31300</v>
       </c>
       <c r="E47" s="3">
-        <v>49000</v>
+        <v>50600</v>
       </c>
       <c r="F47" s="3">
-        <v>80500</v>
+        <v>83000</v>
       </c>
       <c r="G47" s="3">
-        <v>92500</v>
+        <v>95500</v>
       </c>
       <c r="H47" s="3">
-        <v>106200</v>
+        <v>109600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2495,25 +2495,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="E48" s="3">
-        <v>22100</v>
+        <v>22800</v>
       </c>
       <c r="F48" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="G48" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="H48" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="I48" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="J48" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="K48" s="3">
         <v>5600</v>
@@ -2545,25 +2545,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>39200</v>
+        <v>40500</v>
       </c>
       <c r="E49" s="3">
-        <v>39300</v>
+        <v>40500</v>
       </c>
       <c r="F49" s="3">
-        <v>39300</v>
+        <v>40600</v>
       </c>
       <c r="G49" s="3">
-        <v>39400</v>
+        <v>40600</v>
       </c>
       <c r="H49" s="3">
-        <v>39600</v>
+        <v>40900</v>
       </c>
       <c r="I49" s="3">
-        <v>43300</v>
+        <v>44700</v>
       </c>
       <c r="J49" s="3">
-        <v>43300</v>
+        <v>44700</v>
       </c>
       <c r="K49" s="3">
         <v>45500</v>
@@ -2695,10 +2695,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E52" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
@@ -2795,25 +2795,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>694800</v>
+        <v>716900</v>
       </c>
       <c r="E54" s="3">
-        <v>779700</v>
+        <v>804400</v>
       </c>
       <c r="F54" s="3">
-        <v>855800</v>
+        <v>883000</v>
       </c>
       <c r="G54" s="3">
-        <v>881700</v>
+        <v>909700</v>
       </c>
       <c r="H54" s="3">
-        <v>598300</v>
+        <v>617300</v>
       </c>
       <c r="I54" s="3">
-        <v>285200</v>
+        <v>294200</v>
       </c>
       <c r="J54" s="3">
-        <v>241900</v>
+        <v>249600</v>
       </c>
       <c r="K54" s="3">
         <v>268600</v>
@@ -2885,22 +2885,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>76200</v>
+        <v>78600</v>
       </c>
       <c r="E57" s="3">
-        <v>82600</v>
+        <v>85200</v>
       </c>
       <c r="F57" s="3">
-        <v>74600</v>
+        <v>77000</v>
       </c>
       <c r="G57" s="3">
-        <v>78000</v>
+        <v>80500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I57" s="3">
-        <v>33800</v>
+        <v>34900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="K58" s="3">
         <v>7300</v>
@@ -2985,25 +2985,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="E59" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F59" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G59" s="3">
         <v>2200</v>
       </c>
       <c r="H59" s="3">
-        <v>48600</v>
+        <v>50200</v>
       </c>
       <c r="I59" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J59" s="3">
-        <v>75000</v>
+        <v>77300</v>
       </c>
       <c r="K59" s="3">
         <v>61400</v>
@@ -3035,25 +3035,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>82100</v>
+        <v>84700</v>
       </c>
       <c r="E60" s="3">
-        <v>86900</v>
+        <v>89600</v>
       </c>
       <c r="F60" s="3">
-        <v>76600</v>
+        <v>79100</v>
       </c>
       <c r="G60" s="3">
-        <v>80200</v>
+        <v>82700</v>
       </c>
       <c r="H60" s="3">
-        <v>48600</v>
+        <v>50200</v>
       </c>
       <c r="I60" s="3">
-        <v>35000</v>
+        <v>36100</v>
       </c>
       <c r="J60" s="3">
-        <v>81900</v>
+        <v>84500</v>
       </c>
       <c r="K60" s="3">
         <v>68700</v>
@@ -3097,13 +3097,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="I61" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="J61" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="K61" s="3">
         <v>10300</v>
@@ -3135,22 +3135,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>53700</v>
+        <v>55400</v>
       </c>
       <c r="E62" s="3">
-        <v>58100</v>
+        <v>60000</v>
       </c>
       <c r="F62" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="G62" s="3">
-        <v>18200</v>
+        <v>18700</v>
       </c>
       <c r="H62" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="I62" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J62" s="3">
         <v>1600</v>
@@ -3335,25 +3335,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>135800</v>
+        <v>140100</v>
       </c>
       <c r="E66" s="3">
-        <v>145000</v>
+        <v>149600</v>
       </c>
       <c r="F66" s="3">
-        <v>95800</v>
+        <v>98900</v>
       </c>
       <c r="G66" s="3">
-        <v>98400</v>
+        <v>101500</v>
       </c>
       <c r="H66" s="3">
-        <v>77500</v>
+        <v>79900</v>
       </c>
       <c r="I66" s="3">
-        <v>48000</v>
+        <v>49500</v>
       </c>
       <c r="J66" s="3">
-        <v>93000</v>
+        <v>96000</v>
       </c>
       <c r="K66" s="3">
         <v>80300</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>432100</v>
+        <v>445800</v>
       </c>
       <c r="K70" s="3">
         <v>425700</v>
@@ -3605,25 +3605,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-751900</v>
+        <v>-775800</v>
       </c>
       <c r="E72" s="3">
-        <v>-606200</v>
+        <v>-625400</v>
       </c>
       <c r="F72" s="3">
-        <v>-431500</v>
+        <v>-445200</v>
       </c>
       <c r="G72" s="3">
-        <v>-281600</v>
+        <v>-290600</v>
       </c>
       <c r="H72" s="3">
-        <v>-426600</v>
+        <v>-440200</v>
       </c>
       <c r="I72" s="3">
-        <v>-428300</v>
+        <v>-441900</v>
       </c>
       <c r="J72" s="3">
-        <v>-347200</v>
+        <v>-358200</v>
       </c>
       <c r="K72" s="3">
         <v>-309300</v>
@@ -3805,25 +3805,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>559000</v>
+        <v>576800</v>
       </c>
       <c r="E76" s="3">
-        <v>634700</v>
+        <v>654800</v>
       </c>
       <c r="F76" s="3">
-        <v>760000</v>
+        <v>784100</v>
       </c>
       <c r="G76" s="3">
-        <v>783300</v>
+        <v>808200</v>
       </c>
       <c r="H76" s="3">
-        <v>520800</v>
+        <v>537400</v>
       </c>
       <c r="I76" s="3">
-        <v>237200</v>
+        <v>244700</v>
       </c>
       <c r="J76" s="3">
-        <v>-283200</v>
+        <v>-292200</v>
       </c>
       <c r="K76" s="3">
         <v>-237300</v>
@@ -3960,25 +3960,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-145700</v>
+        <v>-150300</v>
       </c>
       <c r="E81" s="3">
-        <v>-174700</v>
+        <v>-180300</v>
       </c>
       <c r="F81" s="3">
-        <v>-149800</v>
+        <v>-154600</v>
       </c>
       <c r="G81" s="3">
-        <v>146700</v>
+        <v>151300</v>
       </c>
       <c r="H81" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I81" s="3">
-        <v>-81100</v>
+        <v>-83700</v>
       </c>
       <c r="J81" s="3">
-        <v>-206700</v>
+        <v>-213300</v>
       </c>
       <c r="K81" s="3">
         <v>-35900</v>
@@ -4342,13 +4342,13 @@
         <v>3</v>
       </c>
       <c r="H89" s="3">
-        <v>-81100</v>
+        <v>-83700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J89" s="3">
-        <v>-120800</v>
+        <v>-124700</v>
       </c>
       <c r="K89" s="3">
         <v>-95200</v>
@@ -4418,7 +4418,7 @@
         <v>3</v>
       </c>
       <c r="J91" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="K91" s="3">
         <v>-700</v>
@@ -4562,13 +4562,13 @@
         <v>3</v>
       </c>
       <c r="H94" s="3">
-        <v>-35700</v>
+        <v>-36800</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J94" s="3">
-        <v>29600</v>
+        <v>30500</v>
       </c>
       <c r="K94" s="3">
         <v>19700</v>
@@ -4832,13 +4832,13 @@
         <v>3</v>
       </c>
       <c r="H100" s="3">
-        <v>361300</v>
+        <v>372800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="3">
-        <v>21300</v>
+        <v>21900</v>
       </c>
       <c r="K100" s="3">
         <v>5800</v>
@@ -4888,7 +4888,7 @@
         <v>3</v>
       </c>
       <c r="J101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K101" s="3">
         <v>11300</v>
@@ -4932,13 +4932,13 @@
         <v>3</v>
       </c>
       <c r="H102" s="3">
-        <v>245900</v>
+        <v>253700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J102" s="3">
-        <v>-67900</v>
+        <v>-70000</v>
       </c>
       <c r="K102" s="3">
         <v>-58400</v>

--- a/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="92">
   <si>
     <t>IMAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,148 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>7500</v>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>10100</v>
+        <v>7400</v>
       </c>
       <c r="F8" s="3">
-        <v>2600</v>
+        <v>10000</v>
       </c>
       <c r="G8" s="3">
-        <v>221600</v>
+        <v>2500</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>219300</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>4300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3300</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
         <v>3900</v>
       </c>
-      <c r="E9" s="3">
-        <v>6700</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="F9" s="3">
+        <v>6600</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -837,20 +844,23 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
         <v>3500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3400</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>65000</v>
+        <v>64300</v>
       </c>
       <c r="E12" s="3">
-        <v>89000</v>
+        <v>64300</v>
       </c>
       <c r="F12" s="3">
-        <v>85200</v>
+        <v>88100</v>
       </c>
       <c r="G12" s="3">
-        <v>77900</v>
+        <v>84300</v>
       </c>
       <c r="H12" s="3">
-        <v>36800</v>
+        <v>77100</v>
       </c>
       <c r="I12" s="3">
-        <v>63500</v>
+        <v>36400</v>
       </c>
       <c r="J12" s="3">
+        <v>62900</v>
+      </c>
+      <c r="K12" s="3">
         <v>120700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>45800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>41800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>65600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>17100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>31000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1030,12 +1050,12 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>3300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1051,14 +1071,17 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>125300</v>
+        <v>124500</v>
       </c>
       <c r="E17" s="3">
-        <v>160100</v>
+        <v>124000</v>
       </c>
       <c r="F17" s="3">
-        <v>150000</v>
+        <v>158500</v>
       </c>
       <c r="G17" s="3">
-        <v>111100</v>
+        <v>148500</v>
       </c>
       <c r="H17" s="3">
-        <v>56800</v>
+        <v>109900</v>
       </c>
       <c r="I17" s="3">
-        <v>88100</v>
+        <v>56200</v>
       </c>
       <c r="J17" s="3">
+        <v>87200</v>
+      </c>
+      <c r="K17" s="3">
         <v>218000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>46900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>132500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>75800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>33800</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-117800</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-150000</v>
+        <v>-116600</v>
       </c>
       <c r="F18" s="3">
-        <v>-147500</v>
+        <v>-148500</v>
       </c>
       <c r="G18" s="3">
-        <v>110500</v>
+        <v>-145900</v>
       </c>
       <c r="H18" s="3">
-        <v>-56800</v>
+        <v>109400</v>
       </c>
       <c r="I18" s="3">
-        <v>-88100</v>
+        <v>-56200</v>
       </c>
       <c r="J18" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-213700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-44700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-130100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-67500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-17100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-30600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,58 +1277,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-32500</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>-30200</v>
+        <v>-32200</v>
       </c>
       <c r="F20" s="3">
-        <v>-7600</v>
+        <v>-29900</v>
       </c>
       <c r="G20" s="3">
-        <v>42600</v>
+        <v>-7500</v>
       </c>
       <c r="H20" s="3">
-        <v>58600</v>
+        <v>42200</v>
       </c>
       <c r="I20" s="3">
-        <v>4600</v>
+        <v>58000</v>
       </c>
       <c r="J20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K20" s="3">
         <v>5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6500</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1312,48 +1349,51 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+        <v>153600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-206700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-34900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-134200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-58900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-23900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1365,104 +1405,110 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-150300</v>
+        <v>-207500</v>
       </c>
       <c r="E23" s="3">
-        <v>-180300</v>
+        <v>-148800</v>
       </c>
       <c r="F23" s="3">
-        <v>-155100</v>
+        <v>-178400</v>
       </c>
       <c r="G23" s="3">
-        <v>153100</v>
+        <v>-153500</v>
       </c>
       <c r="H23" s="3">
-        <v>1800</v>
+        <v>151500</v>
       </c>
       <c r="I23" s="3">
-        <v>-83700</v>
+        <v>1700</v>
       </c>
       <c r="J23" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-208500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-35900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-135300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-61800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-25500</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
-        <v>1800</v>
-      </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1477,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-150300</v>
+        <v>-207600</v>
       </c>
       <c r="E26" s="3">
-        <v>-180300</v>
+        <v>-148800</v>
       </c>
       <c r="F26" s="3">
-        <v>-154600</v>
+        <v>-178400</v>
       </c>
       <c r="G26" s="3">
-        <v>151300</v>
+        <v>-153000</v>
       </c>
       <c r="H26" s="3">
-        <v>1800</v>
+        <v>149800</v>
       </c>
       <c r="I26" s="3">
-        <v>-83700</v>
+        <v>1700</v>
       </c>
       <c r="J26" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-208500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-35900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-135300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-62000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-25500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-150300</v>
+        <v>-207600</v>
       </c>
       <c r="E27" s="3">
-        <v>-180300</v>
+        <v>-148800</v>
       </c>
       <c r="F27" s="3">
-        <v>-154600</v>
+        <v>-178400</v>
       </c>
       <c r="G27" s="3">
-        <v>151300</v>
+        <v>-153000</v>
       </c>
       <c r="H27" s="3">
-        <v>1800</v>
+        <v>149800</v>
       </c>
       <c r="I27" s="3">
-        <v>-83700</v>
+        <v>1700</v>
       </c>
       <c r="J27" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-213300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-35900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-135300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-62000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-25500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>32500</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>30200</v>
+        <v>32200</v>
       </c>
       <c r="F32" s="3">
-        <v>7600</v>
+        <v>29900</v>
       </c>
       <c r="G32" s="3">
-        <v>-42600</v>
+        <v>7500</v>
       </c>
       <c r="H32" s="3">
-        <v>-58600</v>
+        <v>-42200</v>
       </c>
       <c r="I32" s="3">
-        <v>-4600</v>
+        <v>-58000</v>
       </c>
       <c r="J32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6500</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-150300</v>
+        <v>-207600</v>
       </c>
       <c r="E33" s="3">
-        <v>-180300</v>
+        <v>-148800</v>
       </c>
       <c r="F33" s="3">
-        <v>-154600</v>
+        <v>-178400</v>
       </c>
       <c r="G33" s="3">
-        <v>151300</v>
+        <v>-153000</v>
       </c>
       <c r="H33" s="3">
-        <v>1800</v>
+        <v>149800</v>
       </c>
       <c r="I33" s="3">
-        <v>-83700</v>
+        <v>1700</v>
       </c>
       <c r="J33" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-213300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-35900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-135300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-62000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-25500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-150300</v>
+        <v>-207600</v>
       </c>
       <c r="E35" s="3">
-        <v>-180300</v>
+        <v>-148800</v>
       </c>
       <c r="F35" s="3">
-        <v>-154600</v>
+        <v>-178400</v>
       </c>
       <c r="G35" s="3">
-        <v>151300</v>
+        <v>-153000</v>
       </c>
       <c r="H35" s="3">
-        <v>1800</v>
+        <v>149800</v>
       </c>
       <c r="I35" s="3">
-        <v>-83700</v>
+        <v>1700</v>
       </c>
       <c r="J35" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-213300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-35900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-135300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-62000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-25500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,41 +2225,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>533000</v>
+        <v>456900</v>
       </c>
       <c r="E41" s="3">
-        <v>506100</v>
+        <v>527500</v>
       </c>
       <c r="F41" s="3">
-        <v>623600</v>
+        <v>500900</v>
       </c>
       <c r="G41" s="3">
-        <v>683500</v>
+        <v>617200</v>
       </c>
       <c r="H41" s="3">
-        <v>425100</v>
+        <v>676500</v>
       </c>
       <c r="I41" s="3">
-        <v>224100</v>
+        <v>420800</v>
       </c>
       <c r="J41" s="3">
+        <v>221800</v>
+      </c>
+      <c r="K41" s="3">
         <v>163400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>178800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,40 +2276,43 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30300</v>
+        <v>33500</v>
       </c>
       <c r="E42" s="3">
-        <v>108200</v>
+        <v>30000</v>
       </c>
       <c r="F42" s="3">
-        <v>60700</v>
+        <v>107100</v>
       </c>
       <c r="G42" s="3">
+        <v>60000</v>
+      </c>
+      <c r="H42" s="3">
         <v>4500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>4600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7700</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
@@ -2239,41 +2329,44 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>41900</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>41200</v>
+        <v>41400</v>
       </c>
       <c r="F43" s="3">
-        <v>34900</v>
+        <v>40800</v>
       </c>
       <c r="G43" s="3">
-        <v>51400</v>
+        <v>34500</v>
       </c>
       <c r="H43" s="3">
-        <v>11100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3">
+        <v>50900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>4200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2298,11 +2394,11 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>3900</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,8 +2414,8 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2339,41 +2435,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14500</v>
+        <v>25200</v>
       </c>
       <c r="E45" s="3">
-        <v>27400</v>
+        <v>14400</v>
       </c>
       <c r="F45" s="3">
-        <v>29900</v>
+        <v>27100</v>
       </c>
       <c r="G45" s="3">
-        <v>28100</v>
+        <v>29600</v>
       </c>
       <c r="H45" s="3">
-        <v>20500</v>
+        <v>27800</v>
       </c>
       <c r="I45" s="3">
-        <v>18800</v>
+        <v>20300</v>
       </c>
       <c r="J45" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K45" s="3">
         <v>23300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>34500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,41 +2488,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>619700</v>
+        <v>515500</v>
       </c>
       <c r="E46" s="3">
-        <v>686800</v>
+        <v>613300</v>
       </c>
       <c r="F46" s="3">
-        <v>749100</v>
+        <v>679700</v>
       </c>
       <c r="G46" s="3">
-        <v>767500</v>
+        <v>741400</v>
       </c>
       <c r="H46" s="3">
-        <v>460800</v>
+        <v>759600</v>
       </c>
       <c r="I46" s="3">
-        <v>243200</v>
+        <v>456100</v>
       </c>
       <c r="J46" s="3">
+        <v>240700</v>
+      </c>
+      <c r="K46" s="3">
         <v>195500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>216600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>253100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,28 +2541,31 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>31300</v>
+        <v>4400</v>
       </c>
       <c r="E47" s="3">
-        <v>50600</v>
+        <v>30900</v>
       </c>
       <c r="F47" s="3">
-        <v>83000</v>
+        <v>50100</v>
       </c>
       <c r="G47" s="3">
-        <v>95500</v>
+        <v>82200</v>
       </c>
       <c r="H47" s="3">
-        <v>109600</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>94500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>108500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2474,8 +2579,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2489,41 +2594,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23300</v>
+        <v>17600</v>
       </c>
       <c r="E48" s="3">
-        <v>22800</v>
+        <v>23000</v>
       </c>
       <c r="F48" s="3">
-        <v>9400</v>
+        <v>22500</v>
       </c>
       <c r="G48" s="3">
-        <v>5800</v>
+        <v>9300</v>
       </c>
       <c r="H48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I48" s="3">
         <v>6000</v>
       </c>
-      <c r="I48" s="3">
-        <v>6400</v>
-      </c>
       <c r="J48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,41 +2647,44 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>40100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>40100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>40200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>40200</v>
+      </c>
+      <c r="I49" s="3">
         <v>40500</v>
       </c>
-      <c r="E49" s="3">
-        <v>40500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>40600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>40600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>40900</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K49" s="3">
         <v>44700</v>
       </c>
-      <c r="J49" s="3">
-        <v>44700</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>49100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,38 +2806,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,41 +2912,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>716900</v>
+        <v>579100</v>
       </c>
       <c r="E54" s="3">
-        <v>804400</v>
+        <v>709600</v>
       </c>
       <c r="F54" s="3">
-        <v>883000</v>
+        <v>796200</v>
       </c>
       <c r="G54" s="3">
-        <v>909700</v>
+        <v>873900</v>
       </c>
       <c r="H54" s="3">
-        <v>617300</v>
+        <v>900300</v>
       </c>
       <c r="I54" s="3">
-        <v>294200</v>
+        <v>611000</v>
       </c>
       <c r="J54" s="3">
+        <v>291200</v>
+      </c>
+      <c r="K54" s="3">
         <v>249600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>268600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>308500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,31 +3009,32 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>78600</v>
+        <v>100400</v>
       </c>
       <c r="E57" s="3">
-        <v>85200</v>
+        <v>77800</v>
       </c>
       <c r="F57" s="3">
-        <v>77000</v>
+        <v>84300</v>
       </c>
       <c r="G57" s="3">
-        <v>80500</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3">
-        <v>34900</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>76200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>79700</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3">
+        <v>34600</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2920,8 +3051,8 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -2929,16 +3060,19 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2953,17 +3087,17 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>7200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7900</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,41 +3113,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6100</v>
+        <v>4600</v>
       </c>
       <c r="E59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F59" s="3">
         <v>4400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
-        <v>50200</v>
-      </c>
       <c r="I59" s="3">
+        <v>49700</v>
+      </c>
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>77300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>61400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>57300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,41 +3166,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>84700</v>
+        <v>107800</v>
       </c>
       <c r="E60" s="3">
-        <v>89600</v>
+        <v>83900</v>
       </c>
       <c r="F60" s="3">
-        <v>79100</v>
+        <v>88700</v>
       </c>
       <c r="G60" s="3">
-        <v>82700</v>
+        <v>78300</v>
       </c>
       <c r="H60" s="3">
-        <v>50200</v>
+        <v>81900</v>
       </c>
       <c r="I60" s="3">
-        <v>36100</v>
+        <v>49700</v>
       </c>
       <c r="J60" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K60" s="3">
         <v>84500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>65200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,8 +3219,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3097,23 +3240,23 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>9300</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="J61" s="3">
         <v>9800</v>
       </c>
       <c r="K61" s="3">
+        <v>9800</v>
+      </c>
+      <c r="L61" s="3">
         <v>10300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3129,41 +3272,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>55400</v>
+        <v>57700</v>
       </c>
       <c r="E62" s="3">
-        <v>60000</v>
+        <v>54800</v>
       </c>
       <c r="F62" s="3">
-        <v>19800</v>
+        <v>59400</v>
       </c>
       <c r="G62" s="3">
-        <v>18700</v>
+        <v>19600</v>
       </c>
       <c r="H62" s="3">
-        <v>20400</v>
+        <v>18600</v>
       </c>
       <c r="I62" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J62" s="3">
         <v>3500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,41 +3484,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>140100</v>
+        <v>165400</v>
       </c>
       <c r="E66" s="3">
-        <v>149600</v>
+        <v>138700</v>
       </c>
       <c r="F66" s="3">
-        <v>98900</v>
+        <v>148100</v>
       </c>
       <c r="G66" s="3">
-        <v>101500</v>
+        <v>97800</v>
       </c>
       <c r="H66" s="3">
-        <v>79900</v>
+        <v>100500</v>
       </c>
       <c r="I66" s="3">
-        <v>49500</v>
+        <v>79100</v>
       </c>
       <c r="J66" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K66" s="3">
         <v>96000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>80300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>77500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3523,17 +3691,17 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>445800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>425700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>459900</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,41 +3770,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-775800</v>
+        <v>-975500</v>
       </c>
       <c r="E72" s="3">
-        <v>-625400</v>
+        <v>-767900</v>
       </c>
       <c r="F72" s="3">
-        <v>-445200</v>
+        <v>-619000</v>
       </c>
       <c r="G72" s="3">
-        <v>-290600</v>
+        <v>-440600</v>
       </c>
       <c r="H72" s="3">
-        <v>-440200</v>
+        <v>-287600</v>
       </c>
       <c r="I72" s="3">
-        <v>-441900</v>
+        <v>-435700</v>
       </c>
       <c r="J72" s="3">
+        <v>-437400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-358200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-309300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-295300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,41 +3982,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>576800</v>
+        <v>413600</v>
       </c>
       <c r="E76" s="3">
-        <v>654800</v>
+        <v>570900</v>
       </c>
       <c r="F76" s="3">
-        <v>784100</v>
+        <v>648100</v>
       </c>
       <c r="G76" s="3">
-        <v>808200</v>
+        <v>776100</v>
       </c>
       <c r="H76" s="3">
-        <v>537400</v>
+        <v>799900</v>
       </c>
       <c r="I76" s="3">
-        <v>244700</v>
+        <v>531900</v>
       </c>
       <c r="J76" s="3">
+        <v>242200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-292200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-237300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-228900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-150300</v>
+        <v>-207600</v>
       </c>
       <c r="E81" s="3">
-        <v>-180300</v>
+        <v>-148800</v>
       </c>
       <c r="F81" s="3">
-        <v>-154600</v>
+        <v>-178400</v>
       </c>
       <c r="G81" s="3">
-        <v>151300</v>
+        <v>-153000</v>
       </c>
       <c r="H81" s="3">
-        <v>1800</v>
+        <v>149800</v>
       </c>
       <c r="I81" s="3">
-        <v>-83700</v>
+        <v>1700</v>
       </c>
       <c r="J81" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-213300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-35900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-135300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-62000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-25500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4222,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4042,26 +4241,26 @@
         <v>3</v>
       </c>
       <c r="H83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,8 +4538,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4342,26 +4559,26 @@
         <v>3</v>
       </c>
       <c r="H89" s="3">
-        <v>-83700</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3">
+        <v>61600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-124700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-95200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-61400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-43200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,44 +4614,45 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,8 +4771,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4562,26 +4792,26 @@
         <v>3</v>
       </c>
       <c r="H94" s="3">
-        <v>-36800</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>30500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>19700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>24900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,8 +5057,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4832,26 +5078,26 @@
         <v>3</v>
       </c>
       <c r="H100" s="3">
-        <v>372800</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3">
+        <v>489100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>369000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>21900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>227800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4864,8 +5110,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4882,26 +5131,26 @@
         <v>3</v>
       </c>
       <c r="H101" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
         <v>2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4914,8 +5163,11 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4932,26 +5184,26 @@
         <v>3</v>
       </c>
       <c r="H102" s="3">
-        <v>253700</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3">
+        <v>506800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>251100</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>-70000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-58400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-41700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>195300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4962,6 +5214,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="92">
   <si>
     <t>IMAB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7400</v>
+      <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F8" s="3">
-        <v>10000</v>
+        <v>7200</v>
       </c>
       <c r="G8" s="3">
+        <v>9700</v>
+      </c>
+      <c r="H8" s="3">
         <v>2500</v>
       </c>
-      <c r="H8" s="3">
-        <v>219300</v>
-      </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>212600</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>4300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3300</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
-        <v>3900</v>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F9" s="3">
-        <v>6600</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>3800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -847,22 +854,25 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
-        <v>3500</v>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F10" s="3">
         <v>3400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+      <c r="G10" s="3">
+        <v>3300</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>64300</v>
+        <v>61500</v>
       </c>
       <c r="E12" s="3">
-        <v>64300</v>
+        <v>62300</v>
       </c>
       <c r="F12" s="3">
-        <v>88100</v>
+        <v>62400</v>
       </c>
       <c r="G12" s="3">
-        <v>84300</v>
+        <v>85400</v>
       </c>
       <c r="H12" s="3">
-        <v>77100</v>
+        <v>81700</v>
       </c>
       <c r="I12" s="3">
-        <v>36400</v>
+        <v>74700</v>
       </c>
       <c r="J12" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K12" s="3">
         <v>62900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>120700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>45800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>41800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>65600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>31000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1053,12 +1073,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>3300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1074,14 +1094,17 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>124500</v>
+        <v>95300</v>
       </c>
       <c r="E17" s="3">
-        <v>124000</v>
+        <v>120600</v>
       </c>
       <c r="F17" s="3">
-        <v>158500</v>
+        <v>120200</v>
       </c>
       <c r="G17" s="3">
-        <v>148500</v>
+        <v>153600</v>
       </c>
       <c r="H17" s="3">
-        <v>109900</v>
+        <v>143900</v>
       </c>
       <c r="I17" s="3">
-        <v>56200</v>
+        <v>106600</v>
       </c>
       <c r="J17" s="3">
+        <v>54500</v>
+      </c>
+      <c r="K17" s="3">
         <v>87200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>218000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>46900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>132500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>75800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>33800</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-116600</v>
+      <c r="D18" s="3">
+        <v>-92600</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F18" s="3">
-        <v>-148500</v>
+        <v>-113000</v>
       </c>
       <c r="G18" s="3">
-        <v>-145900</v>
+        <v>-143900</v>
       </c>
       <c r="H18" s="3">
-        <v>109400</v>
+        <v>-141500</v>
       </c>
       <c r="I18" s="3">
-        <v>-56200</v>
+        <v>106000</v>
       </c>
       <c r="J18" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-87200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-213700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-44700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-130100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-67500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-17100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,61 +1311,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-32200</v>
+      <c r="D20" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>-29900</v>
+        <v>-31200</v>
       </c>
       <c r="G20" s="3">
-        <v>-7500</v>
+        <v>-29000</v>
       </c>
       <c r="H20" s="3">
-        <v>42200</v>
+        <v>-7300</v>
       </c>
       <c r="I20" s="3">
-        <v>58000</v>
+        <v>40900</v>
       </c>
       <c r="J20" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K20" s="3">
         <v>4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1348,55 +1385,58 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>153600</v>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+        <v>148800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-206700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-34900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-134200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-58900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1408,111 +1448,117 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1400</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-207500</v>
+        <v>-106500</v>
       </c>
       <c r="E23" s="3">
-        <v>-148800</v>
+        <v>-201100</v>
       </c>
       <c r="F23" s="3">
-        <v>-178400</v>
+        <v>-144200</v>
       </c>
       <c r="G23" s="3">
-        <v>-153500</v>
+        <v>-172900</v>
       </c>
       <c r="H23" s="3">
-        <v>151500</v>
+        <v>-148700</v>
       </c>
       <c r="I23" s="3">
+        <v>146900</v>
+      </c>
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-82900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-208500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-35900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-135300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-61800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1526,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-207600</v>
+        <v>-106500</v>
       </c>
       <c r="E26" s="3">
-        <v>-148800</v>
+        <v>-201200</v>
       </c>
       <c r="F26" s="3">
-        <v>-178400</v>
+        <v>-144200</v>
       </c>
       <c r="G26" s="3">
-        <v>-153000</v>
+        <v>-172900</v>
       </c>
       <c r="H26" s="3">
-        <v>149800</v>
+        <v>-148300</v>
       </c>
       <c r="I26" s="3">
+        <v>145200</v>
+      </c>
+      <c r="J26" s="3">
         <v>1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-82900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-208500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-35900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-135300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-62000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-207600</v>
+        <v>-106500</v>
       </c>
       <c r="E27" s="3">
-        <v>-148800</v>
+        <v>-201200</v>
       </c>
       <c r="F27" s="3">
-        <v>-178400</v>
+        <v>-144200</v>
       </c>
       <c r="G27" s="3">
-        <v>-153000</v>
+        <v>-172900</v>
       </c>
       <c r="H27" s="3">
-        <v>149800</v>
+        <v>-148300</v>
       </c>
       <c r="I27" s="3">
+        <v>145200</v>
+      </c>
+      <c r="J27" s="3">
         <v>1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-82900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-213300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-35900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-135300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-62000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>32200</v>
+      <c r="D32" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F32" s="3">
-        <v>29900</v>
+        <v>31200</v>
       </c>
       <c r="G32" s="3">
-        <v>7500</v>
+        <v>29000</v>
       </c>
       <c r="H32" s="3">
-        <v>-42200</v>
+        <v>7300</v>
       </c>
       <c r="I32" s="3">
-        <v>-58000</v>
+        <v>-40900</v>
       </c>
       <c r="J32" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-207600</v>
+        <v>-106500</v>
       </c>
       <c r="E33" s="3">
-        <v>-148800</v>
+        <v>-201200</v>
       </c>
       <c r="F33" s="3">
-        <v>-178400</v>
+        <v>-144200</v>
       </c>
       <c r="G33" s="3">
-        <v>-153000</v>
+        <v>-172900</v>
       </c>
       <c r="H33" s="3">
-        <v>149800</v>
+        <v>-148300</v>
       </c>
       <c r="I33" s="3">
+        <v>145200</v>
+      </c>
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-82900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-213300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-35900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-135300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-62000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-207600</v>
+        <v>-106500</v>
       </c>
       <c r="E35" s="3">
-        <v>-148800</v>
+        <v>-201200</v>
       </c>
       <c r="F35" s="3">
-        <v>-178400</v>
+        <v>-144200</v>
       </c>
       <c r="G35" s="3">
-        <v>-153000</v>
+        <v>-172900</v>
       </c>
       <c r="H35" s="3">
-        <v>149800</v>
+        <v>-148300</v>
       </c>
       <c r="I35" s="3">
+        <v>145200</v>
+      </c>
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-82900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-213300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-35900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-135300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-62000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,44 +2312,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>456900</v>
+        <v>325100</v>
       </c>
       <c r="E41" s="3">
-        <v>527500</v>
+        <v>442800</v>
       </c>
       <c r="F41" s="3">
-        <v>500900</v>
+        <v>511300</v>
       </c>
       <c r="G41" s="3">
-        <v>617200</v>
+        <v>485500</v>
       </c>
       <c r="H41" s="3">
-        <v>676500</v>
+        <v>598200</v>
       </c>
       <c r="I41" s="3">
-        <v>420800</v>
+        <v>655700</v>
       </c>
       <c r="J41" s="3">
+        <v>407800</v>
+      </c>
+      <c r="K41" s="3">
         <v>221800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>163400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>178800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,43 +2366,46 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33500</v>
+        <v>80700</v>
       </c>
       <c r="E42" s="3">
-        <v>30000</v>
+        <v>32400</v>
       </c>
       <c r="F42" s="3">
-        <v>107100</v>
+        <v>29100</v>
       </c>
       <c r="G42" s="3">
-        <v>60000</v>
+        <v>103800</v>
       </c>
       <c r="H42" s="3">
-        <v>4500</v>
+        <v>58200</v>
       </c>
       <c r="I42" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="J42" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K42" s="3">
         <v>300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7700</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
@@ -2332,44 +2422,47 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>41400</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>40800</v>
+        <v>40200</v>
       </c>
       <c r="G43" s="3">
-        <v>34500</v>
+        <v>39500</v>
       </c>
       <c r="H43" s="3">
-        <v>50900</v>
+        <v>33500</v>
       </c>
       <c r="I43" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3">
+        <v>49300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
         <v>4200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2385,22 +2478,25 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3800</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -2417,8 +2513,8 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2438,44 +2534,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25200</v>
+        <v>17800</v>
       </c>
       <c r="E45" s="3">
-        <v>14400</v>
+        <v>24400</v>
       </c>
       <c r="F45" s="3">
-        <v>27100</v>
+        <v>13900</v>
       </c>
       <c r="G45" s="3">
-        <v>29600</v>
+        <v>26300</v>
       </c>
       <c r="H45" s="3">
-        <v>27800</v>
+        <v>28700</v>
       </c>
       <c r="I45" s="3">
-        <v>20300</v>
+        <v>26900</v>
       </c>
       <c r="J45" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K45" s="3">
         <v>18600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>34500</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,44 +2590,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>515500</v>
+        <v>423700</v>
       </c>
       <c r="E46" s="3">
-        <v>613300</v>
+        <v>499700</v>
       </c>
       <c r="F46" s="3">
-        <v>679700</v>
+        <v>594500</v>
       </c>
       <c r="G46" s="3">
-        <v>741400</v>
+        <v>658800</v>
       </c>
       <c r="H46" s="3">
-        <v>759600</v>
+        <v>718600</v>
       </c>
       <c r="I46" s="3">
-        <v>456100</v>
+        <v>736300</v>
       </c>
       <c r="J46" s="3">
+        <v>442100</v>
+      </c>
+      <c r="K46" s="3">
         <v>240700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>195500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>216600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>253100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,31 +2646,34 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4400</v>
+        <v>1600</v>
       </c>
       <c r="E47" s="3">
-        <v>30900</v>
+        <v>4300</v>
       </c>
       <c r="F47" s="3">
-        <v>50100</v>
+        <v>30000</v>
       </c>
       <c r="G47" s="3">
-        <v>82200</v>
+        <v>48500</v>
       </c>
       <c r="H47" s="3">
-        <v>94500</v>
+        <v>79600</v>
       </c>
       <c r="I47" s="3">
-        <v>108500</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>91600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>105100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2582,8 +2687,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2597,44 +2702,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17600</v>
+        <v>14100</v>
       </c>
       <c r="E48" s="3">
-        <v>23000</v>
+        <v>17100</v>
       </c>
       <c r="F48" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="G48" s="3">
-        <v>9300</v>
+        <v>21800</v>
       </c>
       <c r="H48" s="3">
-        <v>5700</v>
+        <v>9000</v>
       </c>
       <c r="I48" s="3">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="J48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K48" s="3">
         <v>6300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,44 +2758,47 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>40000</v>
+        <v>38700</v>
       </c>
       <c r="E49" s="3">
-        <v>40100</v>
+        <v>38800</v>
       </c>
       <c r="F49" s="3">
-        <v>40100</v>
+        <v>38800</v>
       </c>
       <c r="G49" s="3">
-        <v>40200</v>
+        <v>38900</v>
       </c>
       <c r="H49" s="3">
-        <v>40200</v>
+        <v>38900</v>
       </c>
       <c r="I49" s="3">
-        <v>40500</v>
+        <v>39000</v>
       </c>
       <c r="J49" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K49" s="3">
         <v>44300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>44700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>49100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,41 +2926,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1600</v>
+        <v>5800</v>
       </c>
       <c r="E52" s="3">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="3">
-        <v>3800</v>
+        <v>2100</v>
       </c>
       <c r="G52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
-        <v>300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L52" s="3">
-        <v>900</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,44 +3038,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>579100</v>
+        <v>483800</v>
       </c>
       <c r="E54" s="3">
-        <v>709600</v>
+        <v>561300</v>
       </c>
       <c r="F54" s="3">
-        <v>796200</v>
+        <v>687700</v>
       </c>
       <c r="G54" s="3">
-        <v>873900</v>
+        <v>771700</v>
       </c>
       <c r="H54" s="3">
-        <v>900300</v>
+        <v>847100</v>
       </c>
       <c r="I54" s="3">
-        <v>611000</v>
+        <v>872700</v>
       </c>
       <c r="J54" s="3">
+        <v>592200</v>
+      </c>
+      <c r="K54" s="3">
         <v>291200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>249600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>268600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>308500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,35 +3140,36 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100400</v>
+        <v>82000</v>
       </c>
       <c r="E57" s="3">
-        <v>77800</v>
+        <v>97400</v>
       </c>
       <c r="F57" s="3">
-        <v>84300</v>
+        <v>75400</v>
       </c>
       <c r="G57" s="3">
-        <v>76200</v>
+        <v>81700</v>
       </c>
       <c r="H57" s="3">
-        <v>79700</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3">
+        <v>73900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>77200</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
         <v>34600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,8 +3185,8 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3063,19 +3194,22 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2700</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+        <v>4100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3090,17 +3224,17 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>7200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,44 +3250,47 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4600</v>
+        <v>5200</v>
       </c>
       <c r="E59" s="3">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="F59" s="3">
-        <v>4400</v>
+        <v>5900</v>
       </c>
       <c r="G59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>49700</v>
-      </c>
       <c r="J59" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>77300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>61400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>57300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,44 +3306,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>107800</v>
+        <v>91400</v>
       </c>
       <c r="E60" s="3">
-        <v>83900</v>
+        <v>104500</v>
       </c>
       <c r="F60" s="3">
-        <v>88700</v>
+        <v>81300</v>
       </c>
       <c r="G60" s="3">
-        <v>78300</v>
+        <v>86000</v>
       </c>
       <c r="H60" s="3">
-        <v>81900</v>
+        <v>75900</v>
       </c>
       <c r="I60" s="3">
-        <v>49700</v>
+        <v>79400</v>
       </c>
       <c r="J60" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K60" s="3">
         <v>35700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>84500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>68700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>65200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,8 +3362,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3243,23 +3386,23 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>9800</v>
+        <v>8900</v>
       </c>
       <c r="K61" s="3">
         <v>9800</v>
       </c>
       <c r="L61" s="3">
+        <v>9800</v>
+      </c>
+      <c r="M61" s="3">
         <v>10300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3275,44 +3418,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>57700</v>
+        <v>55400</v>
       </c>
       <c r="E62" s="3">
-        <v>54800</v>
+        <v>55900</v>
       </c>
       <c r="F62" s="3">
-        <v>59400</v>
+        <v>53100</v>
       </c>
       <c r="G62" s="3">
+        <v>57500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J62" s="3">
         <v>19600</v>
       </c>
-      <c r="H62" s="3">
-        <v>18600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>20200</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,44 +3642,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>165400</v>
+        <v>146700</v>
       </c>
       <c r="E66" s="3">
-        <v>138700</v>
+        <v>160300</v>
       </c>
       <c r="F66" s="3">
-        <v>148100</v>
+        <v>134400</v>
       </c>
       <c r="G66" s="3">
-        <v>97800</v>
+        <v>143500</v>
       </c>
       <c r="H66" s="3">
-        <v>100500</v>
+        <v>94800</v>
       </c>
       <c r="I66" s="3">
-        <v>79100</v>
+        <v>97400</v>
       </c>
       <c r="J66" s="3">
+        <v>76700</v>
+      </c>
+      <c r="K66" s="3">
         <v>49000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>96000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>80300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>77500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3694,17 +3862,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>445800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>425700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>459900</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,44 +3944,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-975500</v>
+        <v>-1051900</v>
       </c>
       <c r="E72" s="3">
-        <v>-767900</v>
+        <v>-945500</v>
       </c>
       <c r="F72" s="3">
-        <v>-619000</v>
+        <v>-744200</v>
       </c>
       <c r="G72" s="3">
-        <v>-440600</v>
+        <v>-600000</v>
       </c>
       <c r="H72" s="3">
-        <v>-287600</v>
+        <v>-427100</v>
       </c>
       <c r="I72" s="3">
-        <v>-435700</v>
+        <v>-278800</v>
       </c>
       <c r="J72" s="3">
+        <v>-422300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-437400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-358200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-309300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-295300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,44 +4168,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>413600</v>
+        <v>337100</v>
       </c>
       <c r="E76" s="3">
-        <v>570900</v>
+        <v>400900</v>
       </c>
       <c r="F76" s="3">
-        <v>648100</v>
+        <v>553300</v>
       </c>
       <c r="G76" s="3">
-        <v>776100</v>
+        <v>628200</v>
       </c>
       <c r="H76" s="3">
-        <v>799900</v>
+        <v>752200</v>
       </c>
       <c r="I76" s="3">
-        <v>531900</v>
+        <v>775300</v>
       </c>
       <c r="J76" s="3">
+        <v>515500</v>
+      </c>
+      <c r="K76" s="3">
         <v>242200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-292200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-237300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-228900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-207600</v>
+        <v>-106500</v>
       </c>
       <c r="E81" s="3">
-        <v>-148800</v>
+        <v>-201200</v>
       </c>
       <c r="F81" s="3">
-        <v>-178400</v>
+        <v>-144200</v>
       </c>
       <c r="G81" s="3">
-        <v>-153000</v>
+        <v>-172900</v>
       </c>
       <c r="H81" s="3">
-        <v>149800</v>
+        <v>-148300</v>
       </c>
       <c r="I81" s="3">
+        <v>145200</v>
+      </c>
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-82900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-213300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-35900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-135300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-62000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4240,30 +4439,30 @@
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,8 +4755,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4558,30 +4775,30 @@
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
-        <v>61600</v>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I89" s="3">
-        <v>-82800</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3">
+        <v>59700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-80300</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-124700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-95200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-61400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-43200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4811,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,8 +4835,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4624,7 +4845,7 @@
         <v>-3200</v>
       </c>
       <c r="E91" s="3">
-        <v>-4800</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4642,20 +4863,20 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,8 +5001,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4791,30 +5021,30 @@
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
-        <v>-28700</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3">
-        <v>-36400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>30500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>19700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>24900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +5057,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,8 +5303,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5077,30 +5323,30 @@
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
-        <v>489100</v>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I100" s="3">
-        <v>369000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
+        <v>474000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>357600</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>21900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>227800</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5113,8 +5359,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5130,30 +5379,30 @@
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
-        <v>-15200</v>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I101" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="J101" s="3">
         <v>1400</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
         <v>2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5166,8 +5415,11 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5183,30 +5435,30 @@
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
-        <v>506800</v>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I102" s="3">
-        <v>251100</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3">
+        <v>491300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>243400</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>-70000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-58400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-41700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>195300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5217,6 +5469,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMAB_QTR_FIN.xlsx
@@ -766,7 +766,7 @@
         <v>2500</v>
       </c>
       <c r="I8" s="3">
-        <v>212600</v>
+        <v>213000</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>61500</v>
+        <v>61600</v>
       </c>
       <c r="E12" s="3">
-        <v>62300</v>
+        <v>62500</v>
       </c>
       <c r="F12" s="3">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="G12" s="3">
-        <v>85400</v>
+        <v>85600</v>
       </c>
       <c r="H12" s="3">
-        <v>81700</v>
+        <v>81900</v>
       </c>
       <c r="I12" s="3">
-        <v>74700</v>
+        <v>74900</v>
       </c>
       <c r="J12" s="3">
-        <v>35300</v>
+        <v>35400</v>
       </c>
       <c r="K12" s="3">
         <v>62900</v>
@@ -1184,25 +1184,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>95300</v>
+        <v>95500</v>
       </c>
       <c r="E17" s="3">
-        <v>120600</v>
+        <v>120900</v>
       </c>
       <c r="F17" s="3">
-        <v>120200</v>
+        <v>120400</v>
       </c>
       <c r="G17" s="3">
-        <v>153600</v>
+        <v>153900</v>
       </c>
       <c r="H17" s="3">
-        <v>143900</v>
+        <v>144200</v>
       </c>
       <c r="I17" s="3">
-        <v>106600</v>
+        <v>106800</v>
       </c>
       <c r="J17" s="3">
-        <v>54500</v>
+        <v>54600</v>
       </c>
       <c r="K17" s="3">
         <v>87200</v>
@@ -1240,25 +1240,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-92600</v>
+        <v>-92800</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="3">
-        <v>-113000</v>
+        <v>-113300</v>
       </c>
       <c r="G18" s="3">
-        <v>-143900</v>
+        <v>-144200</v>
       </c>
       <c r="H18" s="3">
-        <v>-141500</v>
+        <v>-141800</v>
       </c>
       <c r="I18" s="3">
-        <v>106000</v>
+        <v>106200</v>
       </c>
       <c r="J18" s="3">
-        <v>-54500</v>
+        <v>-54600</v>
       </c>
       <c r="K18" s="3">
         <v>-87200</v>
@@ -1324,19 +1324,19 @@
         <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>-31200</v>
+        <v>-31300</v>
       </c>
       <c r="G20" s="3">
-        <v>-29000</v>
+        <v>-29100</v>
       </c>
       <c r="H20" s="3">
         <v>-7300</v>
       </c>
       <c r="I20" s="3">
-        <v>40900</v>
+        <v>41000</v>
       </c>
       <c r="J20" s="3">
-        <v>56200</v>
+        <v>56300</v>
       </c>
       <c r="K20" s="3">
         <v>4500</v>
@@ -1389,10 +1389,10 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>148800</v>
+        <v>149200</v>
       </c>
       <c r="J21" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1486,22 +1486,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-106500</v>
+        <v>-106700</v>
       </c>
       <c r="E23" s="3">
-        <v>-201100</v>
+        <v>-201600</v>
       </c>
       <c r="F23" s="3">
-        <v>-144200</v>
+        <v>-144600</v>
       </c>
       <c r="G23" s="3">
-        <v>-172900</v>
+        <v>-173300</v>
       </c>
       <c r="H23" s="3">
-        <v>-148700</v>
+        <v>-149100</v>
       </c>
       <c r="I23" s="3">
-        <v>146900</v>
+        <v>147200</v>
       </c>
       <c r="J23" s="3">
         <v>1700</v>
@@ -1654,22 +1654,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-106500</v>
+        <v>-106700</v>
       </c>
       <c r="E26" s="3">
-        <v>-201200</v>
+        <v>-201700</v>
       </c>
       <c r="F26" s="3">
-        <v>-144200</v>
+        <v>-144600</v>
       </c>
       <c r="G26" s="3">
-        <v>-172900</v>
+        <v>-173300</v>
       </c>
       <c r="H26" s="3">
-        <v>-148300</v>
+        <v>-148600</v>
       </c>
       <c r="I26" s="3">
-        <v>145200</v>
+        <v>145500</v>
       </c>
       <c r="J26" s="3">
         <v>1700</v>
@@ -1710,22 +1710,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-106500</v>
+        <v>-106700</v>
       </c>
       <c r="E27" s="3">
-        <v>-201200</v>
+        <v>-201700</v>
       </c>
       <c r="F27" s="3">
-        <v>-144200</v>
+        <v>-144600</v>
       </c>
       <c r="G27" s="3">
-        <v>-172900</v>
+        <v>-173300</v>
       </c>
       <c r="H27" s="3">
-        <v>-148300</v>
+        <v>-148600</v>
       </c>
       <c r="I27" s="3">
-        <v>145200</v>
+        <v>145500</v>
       </c>
       <c r="J27" s="3">
         <v>1700</v>
@@ -1996,19 +1996,19 @@
         <v>3</v>
       </c>
       <c r="F32" s="3">
-        <v>31200</v>
+        <v>31300</v>
       </c>
       <c r="G32" s="3">
-        <v>29000</v>
+        <v>29100</v>
       </c>
       <c r="H32" s="3">
         <v>7300</v>
       </c>
       <c r="I32" s="3">
-        <v>-40900</v>
+        <v>-41000</v>
       </c>
       <c r="J32" s="3">
-        <v>-56200</v>
+        <v>-56300</v>
       </c>
       <c r="K32" s="3">
         <v>-4500</v>
@@ -2046,22 +2046,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-106500</v>
+        <v>-106700</v>
       </c>
       <c r="E33" s="3">
-        <v>-201200</v>
+        <v>-201700</v>
       </c>
       <c r="F33" s="3">
-        <v>-144200</v>
+        <v>-144600</v>
       </c>
       <c r="G33" s="3">
-        <v>-172900</v>
+        <v>-173300</v>
       </c>
       <c r="H33" s="3">
-        <v>-148300</v>
+        <v>-148600</v>
       </c>
       <c r="I33" s="3">
-        <v>145200</v>
+        <v>145500</v>
       </c>
       <c r="J33" s="3">
         <v>1700</v>
@@ -2158,22 +2158,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-106500</v>
+        <v>-106700</v>
       </c>
       <c r="E35" s="3">
-        <v>-201200</v>
+        <v>-201700</v>
       </c>
       <c r="F35" s="3">
-        <v>-144200</v>
+        <v>-144600</v>
       </c>
       <c r="G35" s="3">
-        <v>-172900</v>
+        <v>-173300</v>
       </c>
       <c r="H35" s="3">
-        <v>-148300</v>
+        <v>-148600</v>
       </c>
       <c r="I35" s="3">
-        <v>145200</v>
+        <v>145500</v>
       </c>
       <c r="J35" s="3">
         <v>1700</v>
@@ -2319,25 +2319,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>325100</v>
+        <v>325800</v>
       </c>
       <c r="E41" s="3">
-        <v>442800</v>
+        <v>443800</v>
       </c>
       <c r="F41" s="3">
-        <v>511300</v>
+        <v>512400</v>
       </c>
       <c r="G41" s="3">
-        <v>485500</v>
+        <v>486500</v>
       </c>
       <c r="H41" s="3">
-        <v>598200</v>
+        <v>599500</v>
       </c>
       <c r="I41" s="3">
-        <v>655700</v>
+        <v>657100</v>
       </c>
       <c r="J41" s="3">
-        <v>407800</v>
+        <v>408700</v>
       </c>
       <c r="K41" s="3">
         <v>221800</v>
@@ -2375,22 +2375,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>80700</v>
+        <v>80900</v>
       </c>
       <c r="E42" s="3">
-        <v>32400</v>
+        <v>32500</v>
       </c>
       <c r="F42" s="3">
-        <v>29100</v>
+        <v>29200</v>
       </c>
       <c r="G42" s="3">
-        <v>103800</v>
+        <v>104000</v>
       </c>
       <c r="H42" s="3">
-        <v>58200</v>
+        <v>58300</v>
       </c>
       <c r="I42" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J42" s="3">
         <v>3900</v>
@@ -2437,16 +2437,16 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>40200</v>
+        <v>40300</v>
       </c>
       <c r="G43" s="3">
-        <v>39500</v>
+        <v>39600</v>
       </c>
       <c r="H43" s="3">
         <v>33500</v>
       </c>
       <c r="I43" s="3">
-        <v>49300</v>
+        <v>49400</v>
       </c>
       <c r="J43" s="3">
         <v>10700</v>
@@ -2543,7 +2543,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="E45" s="3">
         <v>24400</v>
@@ -2555,13 +2555,13 @@
         <v>26300</v>
       </c>
       <c r="H45" s="3">
-        <v>28700</v>
+        <v>28800</v>
       </c>
       <c r="I45" s="3">
-        <v>26900</v>
+        <v>27000</v>
       </c>
       <c r="J45" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="K45" s="3">
         <v>18600</v>
@@ -2599,25 +2599,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>423700</v>
+        <v>424600</v>
       </c>
       <c r="E46" s="3">
-        <v>499700</v>
+        <v>500700</v>
       </c>
       <c r="F46" s="3">
-        <v>594500</v>
+        <v>595800</v>
       </c>
       <c r="G46" s="3">
-        <v>658800</v>
+        <v>660300</v>
       </c>
       <c r="H46" s="3">
-        <v>718600</v>
+        <v>720200</v>
       </c>
       <c r="I46" s="3">
-        <v>736300</v>
+        <v>737900</v>
       </c>
       <c r="J46" s="3">
-        <v>442100</v>
+        <v>443000</v>
       </c>
       <c r="K46" s="3">
         <v>240700</v>
@@ -2661,19 +2661,19 @@
         <v>4300</v>
       </c>
       <c r="F47" s="3">
-        <v>30000</v>
+        <v>30100</v>
       </c>
       <c r="G47" s="3">
-        <v>48500</v>
+        <v>48600</v>
       </c>
       <c r="H47" s="3">
-        <v>79600</v>
+        <v>79800</v>
       </c>
       <c r="I47" s="3">
-        <v>91600</v>
+        <v>91800</v>
       </c>
       <c r="J47" s="3">
-        <v>105100</v>
+        <v>105400</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2717,16 +2717,16 @@
         <v>17100</v>
       </c>
       <c r="F48" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="G48" s="3">
-        <v>21800</v>
+        <v>21900</v>
       </c>
       <c r="H48" s="3">
         <v>9000</v>
       </c>
       <c r="I48" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="J48" s="3">
         <v>5800</v>
@@ -2767,25 +2767,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>38700</v>
+        <v>38800</v>
       </c>
       <c r="E49" s="3">
-        <v>38800</v>
+        <v>38900</v>
       </c>
       <c r="F49" s="3">
-        <v>38800</v>
+        <v>38900</v>
       </c>
       <c r="G49" s="3">
-        <v>38900</v>
+        <v>39000</v>
       </c>
       <c r="H49" s="3">
-        <v>38900</v>
+        <v>39000</v>
       </c>
       <c r="I49" s="3">
-        <v>39000</v>
+        <v>39100</v>
       </c>
       <c r="J49" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="K49" s="3">
         <v>44300</v>
@@ -3047,25 +3047,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>483800</v>
+        <v>484900</v>
       </c>
       <c r="E54" s="3">
-        <v>561300</v>
+        <v>562500</v>
       </c>
       <c r="F54" s="3">
-        <v>687700</v>
+        <v>689200</v>
       </c>
       <c r="G54" s="3">
-        <v>771700</v>
+        <v>773400</v>
       </c>
       <c r="H54" s="3">
-        <v>847100</v>
+        <v>848900</v>
       </c>
       <c r="I54" s="3">
-        <v>872700</v>
+        <v>874600</v>
       </c>
       <c r="J54" s="3">
-        <v>592200</v>
+        <v>593500</v>
       </c>
       <c r="K54" s="3">
         <v>291200</v>
@@ -3147,22 +3147,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>82000</v>
+        <v>82200</v>
       </c>
       <c r="E57" s="3">
-        <v>97400</v>
+        <v>97600</v>
       </c>
       <c r="F57" s="3">
-        <v>75400</v>
+        <v>75600</v>
       </c>
       <c r="G57" s="3">
-        <v>81700</v>
+        <v>81900</v>
       </c>
       <c r="H57" s="3">
-        <v>73900</v>
+        <v>74000</v>
       </c>
       <c r="I57" s="3">
-        <v>77200</v>
+        <v>77400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -3277,7 +3277,7 @@
         <v>2100</v>
       </c>
       <c r="J59" s="3">
-        <v>48100</v>
+        <v>48200</v>
       </c>
       <c r="K59" s="3">
         <v>1200</v>
@@ -3315,25 +3315,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>91400</v>
+        <v>91600</v>
       </c>
       <c r="E60" s="3">
-        <v>104500</v>
+        <v>104700</v>
       </c>
       <c r="F60" s="3">
-        <v>81300</v>
+        <v>81500</v>
       </c>
       <c r="G60" s="3">
-        <v>86000</v>
+        <v>86200</v>
       </c>
       <c r="H60" s="3">
-        <v>75900</v>
+        <v>76000</v>
       </c>
       <c r="I60" s="3">
-        <v>79400</v>
+        <v>79600</v>
       </c>
       <c r="J60" s="3">
-        <v>48100</v>
+        <v>48200</v>
       </c>
       <c r="K60" s="3">
         <v>35700</v>
@@ -3427,16 +3427,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>55400</v>
+        <v>55500</v>
       </c>
       <c r="E62" s="3">
-        <v>55900</v>
+        <v>56000</v>
       </c>
       <c r="F62" s="3">
-        <v>53100</v>
+        <v>53200</v>
       </c>
       <c r="G62" s="3">
-        <v>57500</v>
+        <v>57700</v>
       </c>
       <c r="H62" s="3">
         <v>19000</v>
@@ -3651,25 +3651,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>146700</v>
+        <v>147000</v>
       </c>
       <c r="E66" s="3">
-        <v>160300</v>
+        <v>160700</v>
       </c>
       <c r="F66" s="3">
-        <v>134400</v>
+        <v>134700</v>
       </c>
       <c r="G66" s="3">
-        <v>143500</v>
+        <v>143800</v>
       </c>
       <c r="H66" s="3">
-        <v>94800</v>
+        <v>95000</v>
       </c>
       <c r="I66" s="3">
-        <v>97400</v>
+        <v>97600</v>
       </c>
       <c r="J66" s="3">
-        <v>76700</v>
+        <v>76800</v>
       </c>
       <c r="K66" s="3">
         <v>49000</v>
@@ -3953,25 +3953,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1051900</v>
+        <v>-1054200</v>
       </c>
       <c r="E72" s="3">
-        <v>-945500</v>
+        <v>-947500</v>
       </c>
       <c r="F72" s="3">
-        <v>-744200</v>
+        <v>-745900</v>
       </c>
       <c r="G72" s="3">
-        <v>-600000</v>
+        <v>-601300</v>
       </c>
       <c r="H72" s="3">
-        <v>-427100</v>
+        <v>-428000</v>
       </c>
       <c r="I72" s="3">
-        <v>-278800</v>
+        <v>-279400</v>
       </c>
       <c r="J72" s="3">
-        <v>-422300</v>
+        <v>-423200</v>
       </c>
       <c r="K72" s="3">
         <v>-437400</v>
@@ -4177,25 +4177,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>337100</v>
+        <v>337900</v>
       </c>
       <c r="E76" s="3">
-        <v>400900</v>
+        <v>401800</v>
       </c>
       <c r="F76" s="3">
-        <v>553300</v>
+        <v>554500</v>
       </c>
       <c r="G76" s="3">
-        <v>628200</v>
+        <v>629600</v>
       </c>
       <c r="H76" s="3">
-        <v>752200</v>
+        <v>753900</v>
       </c>
       <c r="I76" s="3">
-        <v>775300</v>
+        <v>777000</v>
       </c>
       <c r="J76" s="3">
-        <v>515500</v>
+        <v>516600</v>
       </c>
       <c r="K76" s="3">
         <v>242200</v>
@@ -4350,22 +4350,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-106500</v>
+        <v>-106700</v>
       </c>
       <c r="E81" s="3">
-        <v>-201200</v>
+        <v>-201700</v>
       </c>
       <c r="F81" s="3">
-        <v>-144200</v>
+        <v>-144600</v>
       </c>
       <c r="G81" s="3">
-        <v>-172900</v>
+        <v>-173300</v>
       </c>
       <c r="H81" s="3">
-        <v>-148300</v>
+        <v>-148600</v>
       </c>
       <c r="I81" s="3">
-        <v>145200</v>
+        <v>145500</v>
       </c>
       <c r="J81" s="3">
         <v>1700</v>
@@ -4779,10 +4779,10 @@
         <v>3</v>
       </c>
       <c r="I89" s="3">
-        <v>59700</v>
+        <v>59900</v>
       </c>
       <c r="J89" s="3">
-        <v>-80300</v>
+        <v>-80400</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -5025,10 +5025,10 @@
         <v>3</v>
       </c>
       <c r="I94" s="3">
-        <v>-27800</v>
+        <v>-27900</v>
       </c>
       <c r="J94" s="3">
-        <v>-35300</v>
+        <v>-35400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -5327,10 +5327,10 @@
         <v>3</v>
       </c>
       <c r="I100" s="3">
-        <v>474000</v>
+        <v>475100</v>
       </c>
       <c r="J100" s="3">
-        <v>357600</v>
+        <v>358400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -5439,10 +5439,10 @@
         <v>3</v>
       </c>
       <c r="I102" s="3">
-        <v>491300</v>
+        <v>492300</v>
       </c>
       <c r="J102" s="3">
-        <v>243400</v>
+        <v>244000</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
